--- a/csv_converted.xlsx
+++ b/csv_converted.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="603">
   <si>
     <t>SampleID</t>
   </si>
@@ -22,27 +22,6 @@
     <t>Customer Name</t>
   </si>
   <si>
-    <t>Attention</t>
-  </si>
-  <si>
-    <t>Address 1</t>
-  </si>
-  <si>
-    <t>Address 2</t>
-  </si>
-  <si>
-    <t>Address 3</t>
-  </si>
-  <si>
-    <t>Post Code</t>
-  </si>
-  <si>
-    <t>Telephone</t>
-  </si>
-  <si>
-    <t>Fax Number</t>
-  </si>
-  <si>
     <t>Unique Code</t>
   </si>
   <si>
@@ -1073,6 +1052,777 @@
   </si>
   <si>
     <t>ISO 4407 - AS4059 Class</t>
+  </si>
+  <si>
+    <t>1445343 Z588</t>
+  </si>
+  <si>
+    <t>1164601 T749</t>
+  </si>
+  <si>
+    <t>1320161 V040</t>
+  </si>
+  <si>
+    <t>1313076 U819</t>
+  </si>
+  <si>
+    <t>1064140 O830</t>
+  </si>
+  <si>
+    <t>1235680 D490</t>
+  </si>
+  <si>
+    <t>1232512 O222</t>
+  </si>
+  <si>
+    <t>1193737 U502</t>
+  </si>
+  <si>
+    <t>1464150 AD16</t>
+  </si>
+  <si>
+    <t>1340386 V639</t>
+  </si>
+  <si>
+    <t>1210354 G773</t>
+  </si>
+  <si>
+    <t>1077358 P799</t>
+  </si>
+  <si>
+    <t>5639401 E915</t>
+  </si>
+  <si>
+    <t>6673121 G684</t>
+  </si>
+  <si>
+    <t>5391591 C546</t>
+  </si>
+  <si>
+    <t>1234265 S222</t>
+  </si>
+  <si>
+    <t>1376287 X985</t>
+  </si>
+  <si>
+    <t>1383863 Y161</t>
+  </si>
+  <si>
+    <t>1132808 T039</t>
+  </si>
+  <si>
+    <t>1166074 T787</t>
+  </si>
+  <si>
+    <t>1193326 U485</t>
+  </si>
+  <si>
+    <t>1334934 V478</t>
+  </si>
+  <si>
+    <t>1344916 X036</t>
+  </si>
+  <si>
+    <t>1393759 Y408</t>
+  </si>
+  <si>
+    <t>1228185 U725</t>
+  </si>
+  <si>
+    <t>1175115 T958</t>
+  </si>
+  <si>
+    <t>1166070 T787</t>
+  </si>
+  <si>
+    <t>BGA Günther I - Container Nord</t>
+  </si>
+  <si>
+    <t>Spie Fujitsu Augsburg</t>
+  </si>
+  <si>
+    <t>BGA Menz II</t>
+  </si>
+  <si>
+    <t>Klärschlammvergasung Koblenz</t>
+  </si>
+  <si>
+    <t>Brigachschiene I</t>
+  </si>
+  <si>
+    <t>BGA Römerhügel</t>
+  </si>
+  <si>
+    <t>Aquasol Rottweil</t>
+  </si>
+  <si>
+    <t>Juragas Beilngries</t>
+  </si>
+  <si>
+    <t>BGA Schindelbach II</t>
+  </si>
+  <si>
+    <t>Bioenergie Drexler</t>
+  </si>
+  <si>
+    <t>BGA Muffler</t>
+  </si>
+  <si>
+    <t>BGA Unterstall</t>
+  </si>
+  <si>
+    <t>BGA Ewald Bräunlingen III</t>
+  </si>
+  <si>
+    <t>BGA Oberland III</t>
+  </si>
+  <si>
+    <t>BGA Oberland I Busenberg</t>
+  </si>
+  <si>
+    <t>Häring Bubsheim</t>
+  </si>
+  <si>
+    <t>DLR H2Orizon 412</t>
+  </si>
+  <si>
+    <t>Käppeler Bonndorf</t>
+  </si>
+  <si>
+    <t>Knauf Iphofen II</t>
+  </si>
+  <si>
+    <t>BHKW Donautal Geflügel I</t>
+  </si>
+  <si>
+    <t>BGA Heim</t>
+  </si>
+  <si>
+    <t>Feulersdorf Eigenbedarf</t>
+  </si>
+  <si>
+    <t>BGA Schindelbach</t>
+  </si>
+  <si>
+    <t>BGA Rüede III</t>
+  </si>
+  <si>
+    <t>BGA Altheim Walldürn II</t>
+  </si>
+  <si>
+    <t>HW Ursenwang</t>
+  </si>
+  <si>
+    <t>BHKW Donautal Geflügel II</t>
+  </si>
+  <si>
+    <t>Mobil Pegasus 605 Ultra</t>
+  </si>
+  <si>
+    <t>Fuchs Titan Ganymet Ultra</t>
+  </si>
+  <si>
+    <t>Total Nateria MP 40</t>
+  </si>
+  <si>
+    <t>keine Angabe</t>
+  </si>
+  <si>
+    <t>Tectrol MethaFlexx HC premium</t>
+  </si>
+  <si>
+    <t>Mobil Pegasus 705</t>
+  </si>
+  <si>
+    <t>Petro-Canada Sentron LD 5000</t>
+  </si>
+  <si>
+    <t>Addinol GMO MG 40 Extra LA</t>
+  </si>
+  <si>
+    <t>Tectrol MethaFlexx Premium</t>
+  </si>
+  <si>
+    <t>Tectrol MethaFlexx premium</t>
+  </si>
+  <si>
+    <t>Mobil Pegasus 710</t>
+  </si>
+  <si>
+    <t>Mobil Pegasus 610</t>
+  </si>
+  <si>
+    <t>Addinol Gas Engine Oil NG 40</t>
+  </si>
+  <si>
+    <t>Fuchs Ganymet 40</t>
+  </si>
+  <si>
+    <t>Haertol Frostox W35/65</t>
+  </si>
+  <si>
+    <t>Q8 Mahler G5 SAE 40</t>
+  </si>
+  <si>
+    <t>2020-07-31</t>
+  </si>
+  <si>
+    <t>2020-08-10</t>
+  </si>
+  <si>
+    <t>2017-10-10</t>
+  </si>
+  <si>
+    <t>2018-05-15</t>
+  </si>
+  <si>
+    <t>2020-06-29</t>
+  </si>
+  <si>
+    <t>2020-06-22</t>
+  </si>
+  <si>
+    <t>2018-12-19</t>
+  </si>
+  <si>
+    <t>2017-07-28</t>
+  </si>
+  <si>
+    <t>2015-07-13</t>
+  </si>
+  <si>
+    <t>2019-05-08</t>
+  </si>
+  <si>
+    <t>2020-12-14</t>
+  </si>
+  <si>
+    <t>2018-07-19</t>
+  </si>
+  <si>
+    <t>2018-08-28</t>
+  </si>
+  <si>
+    <t>2019-02-06</t>
+  </si>
+  <si>
+    <t>2020-01-02</t>
+  </si>
+  <si>
+    <t>2012-02-07</t>
+  </si>
+  <si>
+    <t>2015-03-17</t>
+  </si>
+  <si>
+    <t>2015-07-21</t>
+  </si>
+  <si>
+    <t>2015-08-21</t>
+  </si>
+  <si>
+    <t>2011-02-16</t>
+  </si>
+  <si>
+    <t>2014-06-06</t>
+  </si>
+  <si>
+    <t>2014-02-06</t>
+  </si>
+  <si>
+    <t>2014-01-13</t>
+  </si>
+  <si>
+    <t>2014-07-23</t>
+  </si>
+  <si>
+    <t>2014-11-25</t>
+  </si>
+  <si>
+    <t>2015-07-08</t>
+  </si>
+  <si>
+    <t>2015-10-28</t>
+  </si>
+  <si>
+    <t>2014-09-08</t>
+  </si>
+  <si>
+    <t>2014-04-11</t>
+  </si>
+  <si>
+    <t>2014-09-16</t>
+  </si>
+  <si>
+    <t>2013-10-10</t>
+  </si>
+  <si>
+    <t>2013-06-03</t>
+  </si>
+  <si>
+    <t>2013-04-24</t>
+  </si>
+  <si>
+    <t>2013-12-18</t>
+  </si>
+  <si>
+    <t>2014-06-16</t>
+  </si>
+  <si>
+    <t>2017-06-06</t>
+  </si>
+  <si>
+    <t>2017-10-20</t>
+  </si>
+  <si>
+    <t>2017-11-13</t>
+  </si>
+  <si>
+    <t>2014-05-26</t>
+  </si>
+  <si>
+    <t>2014-07-09</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2015-05-19</t>
+  </si>
+  <si>
+    <t>2014-09-22</t>
+  </si>
+  <si>
+    <t>2014-06-03</t>
+  </si>
+  <si>
+    <t>2014-10-01</t>
+  </si>
+  <si>
+    <t>2015-09-10</t>
+  </si>
+  <si>
+    <t>2015-11-20</t>
+  </si>
+  <si>
+    <t>2016-11-11</t>
+  </si>
+  <si>
+    <t>2016-11-10</t>
+  </si>
+  <si>
+    <t>2015-12-17</t>
+  </si>
+  <si>
+    <t>2015-07-27</t>
+  </si>
+  <si>
+    <t>2017-02-24</t>
+  </si>
+  <si>
+    <t>2016-04-18</t>
+  </si>
+  <si>
+    <t>2014-07-16</t>
+  </si>
+  <si>
+    <t>2014-08-06</t>
+  </si>
+  <si>
+    <t>2014-10-21</t>
+  </si>
+  <si>
+    <t>2019-01-29</t>
+  </si>
+  <si>
+    <t>2019-03-19</t>
+  </si>
+  <si>
+    <t>2020-01-10</t>
+  </si>
+  <si>
+    <t>2017-11-08</t>
+  </si>
+  <si>
+    <t>2018-08-29</t>
+  </si>
+  <si>
+    <t>2018-06-22</t>
+  </si>
+  <si>
+    <t>2017-06-13</t>
+  </si>
+  <si>
+    <t>2017-10-06</t>
+  </si>
+  <si>
+    <t>2019-11-25</t>
+  </si>
+  <si>
+    <t>2019-12-10</t>
+  </si>
+  <si>
+    <t>2020-05-05</t>
+  </si>
+  <si>
+    <t>2020-04-07</t>
+  </si>
+  <si>
+    <t>2020-11-04</t>
+  </si>
+  <si>
+    <t>2019-11-21</t>
+  </si>
+  <si>
+    <t>2019-11-06</t>
+  </si>
+  <si>
+    <t>2020-07-22</t>
+  </si>
+  <si>
+    <t>2020-01-21</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>2019-01-21</t>
+  </si>
+  <si>
+    <t>2018-06-28</t>
+  </si>
+  <si>
+    <t>2019-02-13</t>
+  </si>
+  <si>
+    <t>2016-12-21</t>
+  </si>
+  <si>
+    <t>2018-02-05</t>
+  </si>
+  <si>
+    <t>2018-03-09</t>
+  </si>
+  <si>
+    <t>2020-05-23</t>
+  </si>
+  <si>
+    <t>2020-01-08</t>
+  </si>
+  <si>
+    <t>2019-02-05</t>
+  </si>
+  <si>
+    <t>2018-12-12</t>
+  </si>
+  <si>
+    <t>2018-01-18</t>
+  </si>
+  <si>
+    <t>2018-04-24</t>
+  </si>
+  <si>
+    <t>2017-10-25</t>
+  </si>
+  <si>
+    <t>2017-10-16</t>
+  </si>
+  <si>
+    <t>2016-10-28</t>
+  </si>
+  <si>
+    <t>2020-08-14</t>
+  </si>
+  <si>
+    <t>2016-10-18</t>
+  </si>
+  <si>
+    <t>2016-11-03</t>
+  </si>
+  <si>
+    <t>2018-11-09</t>
+  </si>
+  <si>
+    <t>2018-10-11</t>
+  </si>
+  <si>
+    <t>2018-07-06</t>
+  </si>
+  <si>
+    <t>2019-04-03</t>
+  </si>
+  <si>
+    <t>2020-07-30</t>
+  </si>
+  <si>
+    <t>2020-08-06</t>
+  </si>
+  <si>
+    <t>2018-05-14</t>
+  </si>
+  <si>
+    <t>2020-06-17</t>
+  </si>
+  <si>
+    <t>2018-11-28</t>
+  </si>
+  <si>
+    <t>2017-07-25</t>
+  </si>
+  <si>
+    <t>2015-07-01</t>
+  </si>
+  <si>
+    <t>2019-05-07</t>
+  </si>
+  <si>
+    <t>2020-12-10</t>
+  </si>
+  <si>
+    <t>2018-07-18</t>
+  </si>
+  <si>
+    <t>2018-08-27</t>
+  </si>
+  <si>
+    <t>2019-02-04</t>
+  </si>
+  <si>
+    <t>2019-12-30</t>
+  </si>
+  <si>
+    <t>2012-02-05</t>
+  </si>
+  <si>
+    <t>2015-03-15</t>
+  </si>
+  <si>
+    <t>2015-07-20</t>
+  </si>
+  <si>
+    <t>2015-08-17</t>
+  </si>
+  <si>
+    <t>2011-02-12</t>
+  </si>
+  <si>
+    <t>2014-06-05</t>
+  </si>
+  <si>
+    <t>2014-02-04</t>
+  </si>
+  <si>
+    <t>2014-01-09</t>
+  </si>
+  <si>
+    <t>2014-07-22</t>
+  </si>
+  <si>
+    <t>2014-11-24</t>
+  </si>
+  <si>
+    <t>2015-07-06</t>
+  </si>
+  <si>
+    <t>2015-10-26</t>
+  </si>
+  <si>
+    <t>2014-09-05</t>
+  </si>
+  <si>
+    <t>2015-10-23</t>
+  </si>
+  <si>
+    <t>2014-04-10</t>
+  </si>
+  <si>
+    <t>2014-09-15</t>
+  </si>
+  <si>
+    <t>2013-10-08</t>
+  </si>
+  <si>
+    <t>2013-05-29</t>
+  </si>
+  <si>
+    <t>2013-04-22</t>
+  </si>
+  <si>
+    <t>2013-12-16</t>
+  </si>
+  <si>
+    <t>2014-06-13</t>
+  </si>
+  <si>
+    <t>2017-05-15</t>
+  </si>
+  <si>
+    <t>2017-11-10</t>
+  </si>
+  <si>
+    <t>2014-05-20</t>
+  </si>
+  <si>
+    <t>2014-07-08</t>
+  </si>
+  <si>
+    <t>2015-03-30</t>
+  </si>
+  <si>
+    <t>2015-05-18</t>
+  </si>
+  <si>
+    <t>2014-09-20</t>
+  </si>
+  <si>
+    <t>2014-06-02</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2015-09-09</t>
+  </si>
+  <si>
+    <t>2015-11-18</t>
+  </si>
+  <si>
+    <t>2016-07-05</t>
+  </si>
+  <si>
+    <t>2016-11-02</t>
+  </si>
+  <si>
+    <t>2015-12-15</t>
+  </si>
+  <si>
+    <t>2015-07-24</t>
+  </si>
+  <si>
+    <t>2017-02-16</t>
+  </si>
+  <si>
+    <t>2016-04-16</t>
+  </si>
+  <si>
+    <t>2014-07-15</t>
+  </si>
+  <si>
+    <t>2014-08-05</t>
+  </si>
+  <si>
+    <t>2014-10-20</t>
+  </si>
+  <si>
+    <t>2019-01-28</t>
+  </si>
+  <si>
+    <t>2019-03-18</t>
+  </si>
+  <si>
+    <t>2017-11-06</t>
+  </si>
+  <si>
+    <t>2018-06-20</t>
+  </si>
+  <si>
+    <t>2017-06-12</t>
+  </si>
+  <si>
+    <t>2017-10-04</t>
+  </si>
+  <si>
+    <t>2019-12-06</t>
+  </si>
+  <si>
+    <t>2020-04-29</t>
+  </si>
+  <si>
+    <t>2020-03-27</t>
+  </si>
+  <si>
+    <t>2020-07-28</t>
+  </si>
+  <si>
+    <t>2020-10-26</t>
+  </si>
+  <si>
+    <t>2019-11-18</t>
+  </si>
+  <si>
+    <t>2019-11-04</t>
+  </si>
+  <si>
+    <t>2020-07-19</t>
+  </si>
+  <si>
+    <t>2020-01-19</t>
+  </si>
+  <si>
+    <t>2020-11-23</t>
+  </si>
+  <si>
+    <t>2019-01-17</t>
+  </si>
+  <si>
+    <t>2018-06-26</t>
+  </si>
+  <si>
+    <t>2019-02-08</t>
+  </si>
+  <si>
+    <t>2016-12-19</t>
+  </si>
+  <si>
+    <t>2018-01-31</t>
+  </si>
+  <si>
+    <t>2018-03-05</t>
+  </si>
+  <si>
+    <t>2019-12-26</t>
+  </si>
+  <si>
+    <t>2020-05-11</t>
+  </si>
+  <si>
+    <t>2020-01-04</t>
+  </si>
+  <si>
+    <t>2019-01-31</t>
+  </si>
+  <si>
+    <t>2018-12-04</t>
+  </si>
+  <si>
+    <t>2017-12-18</t>
+  </si>
+  <si>
+    <t>2018-04-17</t>
+  </si>
+  <si>
+    <t>2016-10-25</t>
+  </si>
+  <si>
+    <t>2016-10-15</t>
+  </si>
+  <si>
+    <t>2018-11-07</t>
+  </si>
+  <si>
+    <t>2018-10-09</t>
+  </si>
+  <si>
+    <t>2019-05-06</t>
+  </si>
+  <si>
+    <t>2018-07-04</t>
+  </si>
+  <si>
+    <t>2019-04-01</t>
+  </si>
+  <si>
+    <t>&lt; 0.1</t>
   </si>
 </sst>
 </file>
@@ -1430,13 +2180,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:MO1"/>
+  <dimension ref="A1:MH101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:353">
+    <row r="1" spans="1:346">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2475,26 +3225,5494 @@
       <c r="MH1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="MI1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:346">
+      <c r="A2">
+        <v>4301368</v>
+      </c>
+      <c r="C2" t="s">
         <v>346</v>
       </c>
-      <c r="MJ1" s="1" t="s">
+      <c r="G2" t="s">
+        <v>373</v>
+      </c>
+      <c r="K2" t="s">
+        <v>400</v>
+      </c>
+      <c r="P2">
+        <v>220</v>
+      </c>
+      <c r="Q2">
+        <v>220</v>
+      </c>
+      <c r="S2" t="s">
+        <v>416</v>
+      </c>
+      <c r="T2" t="s">
+        <v>512</v>
+      </c>
+      <c r="AM2">
+        <v>124.11</v>
+      </c>
+      <c r="AN2">
+        <v>14.14</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW2">
+        <v>1.14</v>
+      </c>
+      <c r="AX2">
+        <v>4.92</v>
+      </c>
+      <c r="BB2">
+        <v>113</v>
+      </c>
+      <c r="DN2">
+        <v>4</v>
+      </c>
+      <c r="DO2">
+        <v>1</v>
+      </c>
+      <c r="DQ2">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:346">
+      <c r="A3">
+        <v>4301370</v>
+      </c>
+      <c r="C3" t="s">
+        <v>346</v>
+      </c>
+      <c r="G3" t="s">
+        <v>373</v>
+      </c>
+      <c r="K3" t="s">
+        <v>400</v>
+      </c>
+      <c r="P3">
+        <v>388</v>
+      </c>
+      <c r="Q3">
+        <v>168</v>
+      </c>
+      <c r="S3" t="s">
+        <v>417</v>
+      </c>
+      <c r="T3" t="s">
+        <v>513</v>
+      </c>
+      <c r="AM3">
+        <v>125.73</v>
+      </c>
+      <c r="AN3">
+        <v>14.26</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW3">
+        <v>1.42</v>
+      </c>
+      <c r="AX3">
+        <v>4.73</v>
+      </c>
+      <c r="BB3">
+        <v>113</v>
+      </c>
+      <c r="DN3">
+        <v>4</v>
+      </c>
+      <c r="DO3">
+        <v>1</v>
+      </c>
+      <c r="DQ3">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:346">
+      <c r="A4">
+        <v>3289304</v>
+      </c>
+      <c r="C4" t="s">
         <v>347</v>
       </c>
-      <c r="MK1" s="1" t="s">
+      <c r="G4" t="s">
+        <v>374</v>
+      </c>
+      <c r="K4" t="s">
+        <v>401</v>
+      </c>
+      <c r="P4">
+        <v>9684</v>
+      </c>
+      <c r="Q4">
+        <v>3948</v>
+      </c>
+      <c r="S4" t="s">
+        <v>418</v>
+      </c>
+      <c r="T4" t="s">
+        <v>479</v>
+      </c>
+      <c r="AM4">
+        <v>138.49</v>
+      </c>
+      <c r="AN4">
+        <v>17.06</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW4">
+        <v>3.4</v>
+      </c>
+      <c r="AX4">
+        <v>5.44</v>
+      </c>
+      <c r="BB4">
+        <v>134</v>
+      </c>
+      <c r="DN4">
+        <v>16</v>
+      </c>
+      <c r="DO4">
+        <v>8</v>
+      </c>
+      <c r="DQ4">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:346">
+      <c r="A5">
+        <v>3625990</v>
+      </c>
+      <c r="C5" t="s">
         <v>348</v>
       </c>
-      <c r="ML1" s="1" t="s">
+      <c r="G5" t="s">
+        <v>375</v>
+      </c>
+      <c r="K5" t="s">
+        <v>402</v>
+      </c>
+      <c r="P5">
+        <v>4030</v>
+      </c>
+      <c r="Q5">
+        <v>1980</v>
+      </c>
+      <c r="S5" t="s">
+        <v>419</v>
+      </c>
+      <c r="T5" t="s">
+        <v>514</v>
+      </c>
+      <c r="AM5">
+        <v>126.03</v>
+      </c>
+      <c r="AN5">
+        <v>14.08</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW5">
+        <v>2.31</v>
+      </c>
+      <c r="AX5">
+        <v>3.42</v>
+      </c>
+      <c r="BB5">
+        <v>110</v>
+      </c>
+      <c r="DN5">
+        <v>10</v>
+      </c>
+      <c r="DO5">
+        <v>1</v>
+      </c>
+      <c r="DQ5">
+        <v>5.27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:346">
+      <c r="A6">
+        <v>4212154</v>
+      </c>
+      <c r="C6" t="s">
         <v>349</v>
       </c>
-      <c r="MM1" s="1" t="s">
+      <c r="G6" t="s">
+        <v>376</v>
+      </c>
+      <c r="K6" t="s">
+        <v>401</v>
+      </c>
+      <c r="P6">
+        <v>477</v>
+      </c>
+      <c r="S6" t="s">
+        <v>420</v>
+      </c>
+      <c r="AM6">
+        <v>116.17</v>
+      </c>
+      <c r="AN6">
+        <v>14.78</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW6">
+        <v>2.31</v>
+      </c>
+      <c r="AX6">
+        <v>5.6</v>
+      </c>
+      <c r="BB6">
+        <v>131</v>
+      </c>
+      <c r="DN6">
+        <v>11</v>
+      </c>
+      <c r="DO6">
+        <v>1</v>
+      </c>
+      <c r="DQ6">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:346">
+      <c r="A7">
+        <v>4212159</v>
+      </c>
+      <c r="C7" t="s">
+        <v>349</v>
+      </c>
+      <c r="G7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P7">
+        <v>290</v>
+      </c>
+      <c r="Q7">
+        <v>290</v>
+      </c>
+      <c r="S7" t="s">
+        <v>421</v>
+      </c>
+      <c r="T7" t="s">
+        <v>515</v>
+      </c>
+      <c r="AM7">
+        <v>112.76</v>
+      </c>
+      <c r="AN7">
+        <v>14.45</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW7">
+        <v>1.87</v>
+      </c>
+      <c r="AX7">
+        <v>6.07</v>
+      </c>
+      <c r="BB7">
+        <v>130</v>
+      </c>
+      <c r="DN7">
+        <v>10</v>
+      </c>
+      <c r="DO7">
+        <v>1</v>
+      </c>
+      <c r="DQ7">
+        <v>6.14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:346">
+      <c r="A8">
+        <v>3854835</v>
+      </c>
+      <c r="C8" t="s">
         <v>350</v>
       </c>
-      <c r="MN1" s="1" t="s">
+      <c r="G8" t="s">
+        <v>377</v>
+      </c>
+      <c r="K8" t="s">
+        <v>403</v>
+      </c>
+      <c r="P8">
+        <v>20942</v>
+      </c>
+      <c r="S8" t="s">
+        <v>422</v>
+      </c>
+      <c r="T8" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:346">
+      <c r="A9">
+        <v>3457482</v>
+      </c>
+      <c r="C9" t="s">
         <v>351</v>
       </c>
-      <c r="MO1" s="1" t="s">
+      <c r="G9" t="s">
+        <v>378</v>
+      </c>
+      <c r="K9" t="s">
+        <v>404</v>
+      </c>
+      <c r="P9">
+        <v>8456</v>
+      </c>
+      <c r="Q9">
+        <v>1243</v>
+      </c>
+      <c r="S9" t="s">
+        <v>423</v>
+      </c>
+      <c r="T9" t="s">
+        <v>517</v>
+      </c>
+      <c r="AM9">
+        <v>120.78</v>
+      </c>
+      <c r="AN9">
+        <v>15.43</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW9">
+        <v>2.42</v>
+      </c>
+      <c r="AX9">
+        <v>6.61</v>
+      </c>
+      <c r="BB9">
+        <v>134</v>
+      </c>
+      <c r="DN9">
+        <v>8</v>
+      </c>
+      <c r="DO9">
+        <v>2</v>
+      </c>
+      <c r="DQ9">
+        <v>6.09</v>
+      </c>
+    </row>
+    <row r="10" spans="1:346">
+      <c r="A10">
+        <v>8046743</v>
+      </c>
+      <c r="C10" t="s">
         <v>352</v>
+      </c>
+      <c r="G10" t="s">
+        <v>379</v>
+      </c>
+      <c r="K10" t="s">
+        <v>405</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="S10" t="s">
+        <v>424</v>
+      </c>
+      <c r="T10" t="s">
+        <v>518</v>
+      </c>
+      <c r="AM10">
+        <v>133.92</v>
+      </c>
+      <c r="AN10">
+        <v>13.64</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW10">
+        <v>1.57</v>
+      </c>
+      <c r="AX10">
+        <v>6.45</v>
+      </c>
+      <c r="BB10">
+        <v>97</v>
+      </c>
+      <c r="DN10">
+        <v>3</v>
+      </c>
+      <c r="DO10">
+        <v>0</v>
+      </c>
+      <c r="DQ10">
+        <v>7.51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:346">
+      <c r="A11">
+        <v>3936347</v>
+      </c>
+      <c r="C11" t="s">
+        <v>353</v>
+      </c>
+      <c r="G11" t="s">
+        <v>380</v>
+      </c>
+      <c r="K11" t="s">
+        <v>406</v>
+      </c>
+      <c r="P11">
+        <v>18485</v>
+      </c>
+      <c r="Q11">
+        <v>967</v>
+      </c>
+      <c r="S11" t="s">
+        <v>425</v>
+      </c>
+      <c r="T11" t="s">
+        <v>519</v>
+      </c>
+      <c r="AM11">
+        <v>128.16</v>
+      </c>
+      <c r="AN11">
+        <v>13.87</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW11">
+        <v>2.31</v>
+      </c>
+      <c r="AX11">
+        <v>3.29</v>
+      </c>
+      <c r="BB11">
+        <v>105</v>
+      </c>
+      <c r="DN11">
+        <v>8</v>
+      </c>
+      <c r="DO11">
+        <v>1</v>
+      </c>
+      <c r="DQ11">
+        <v>6.38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:346">
+      <c r="A12">
+        <v>4301426</v>
+      </c>
+      <c r="C12" t="s">
+        <v>354</v>
+      </c>
+      <c r="G12" t="s">
+        <v>381</v>
+      </c>
+      <c r="K12" t="s">
+        <v>407</v>
+      </c>
+      <c r="P12">
+        <v>955</v>
+      </c>
+      <c r="Q12">
+        <v>955</v>
+      </c>
+      <c r="S12" t="s">
+        <v>426</v>
+      </c>
+      <c r="T12" t="s">
+        <v>520</v>
+      </c>
+      <c r="AM12">
+        <v>129.38</v>
+      </c>
+      <c r="AN12">
+        <v>14.35</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW12">
+        <v>1.99</v>
+      </c>
+      <c r="AX12">
+        <v>5.89</v>
+      </c>
+      <c r="BB12">
+        <v>110</v>
+      </c>
+      <c r="DN12">
+        <v>8</v>
+      </c>
+      <c r="DO12">
+        <v>0</v>
+      </c>
+      <c r="DQ12">
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:346">
+      <c r="A13">
+        <v>3626001</v>
+      </c>
+      <c r="C13" t="s">
+        <v>355</v>
+      </c>
+      <c r="G13" t="s">
+        <v>382</v>
+      </c>
+      <c r="K13" t="s">
+        <v>408</v>
+      </c>
+      <c r="P13">
+        <v>5161</v>
+      </c>
+      <c r="Q13">
+        <v>2216</v>
+      </c>
+      <c r="S13" t="s">
+        <v>427</v>
+      </c>
+      <c r="T13" t="s">
+        <v>521</v>
+      </c>
+      <c r="AM13">
+        <v>122.46</v>
+      </c>
+      <c r="AN13">
+        <v>15.79</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW13">
+        <v>2.18</v>
+      </c>
+      <c r="AX13">
+        <v>6.23</v>
+      </c>
+      <c r="BB13">
+        <v>136</v>
+      </c>
+      <c r="DN13">
+        <v>13</v>
+      </c>
+      <c r="DO13">
+        <v>3</v>
+      </c>
+      <c r="DQ13">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:346">
+      <c r="A14">
+        <v>3753563</v>
+      </c>
+      <c r="C14" t="s">
+        <v>355</v>
+      </c>
+      <c r="G14" t="s">
+        <v>382</v>
+      </c>
+      <c r="K14" t="s">
+        <v>408</v>
+      </c>
+      <c r="P14">
+        <v>6121</v>
+      </c>
+      <c r="Q14">
+        <v>3176</v>
+      </c>
+      <c r="S14" t="s">
+        <v>428</v>
+      </c>
+      <c r="T14" t="s">
+        <v>522</v>
+      </c>
+      <c r="AM14">
+        <v>127.48</v>
+      </c>
+      <c r="AN14">
+        <v>16.13</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW14">
+        <v>2.55</v>
+      </c>
+      <c r="AX14">
+        <v>5.9</v>
+      </c>
+      <c r="BB14">
+        <v>135</v>
+      </c>
+      <c r="DN14">
+        <v>16</v>
+      </c>
+      <c r="DO14">
+        <v>4</v>
+      </c>
+      <c r="DQ14">
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:346">
+      <c r="A15">
+        <v>3809265</v>
+      </c>
+      <c r="C15" t="s">
+        <v>355</v>
+      </c>
+      <c r="G15" t="s">
+        <v>382</v>
+      </c>
+      <c r="K15" t="s">
+        <v>409</v>
+      </c>
+      <c r="P15">
+        <v>9933</v>
+      </c>
+      <c r="Q15">
+        <v>2438</v>
+      </c>
+      <c r="S15" t="s">
+        <v>429</v>
+      </c>
+      <c r="T15" t="s">
+        <v>523</v>
+      </c>
+      <c r="AM15">
+        <v>126.86</v>
+      </c>
+      <c r="AN15">
+        <v>16.14</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW15">
+        <v>2.46</v>
+      </c>
+      <c r="AX15">
+        <v>6.19</v>
+      </c>
+      <c r="BB15">
+        <v>136</v>
+      </c>
+      <c r="DN15">
+        <v>13</v>
+      </c>
+      <c r="DO15">
+        <v>5</v>
+      </c>
+      <c r="DQ15">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:346">
+      <c r="A16">
+        <v>4034399</v>
+      </c>
+      <c r="C16" t="s">
+        <v>355</v>
+      </c>
+      <c r="G16" t="s">
+        <v>382</v>
+      </c>
+      <c r="K16" t="s">
+        <v>408</v>
+      </c>
+      <c r="P16">
+        <v>17497</v>
+      </c>
+      <c r="Q16">
+        <v>3358</v>
+      </c>
+      <c r="S16" t="s">
+        <v>430</v>
+      </c>
+      <c r="T16" t="s">
+        <v>524</v>
+      </c>
+      <c r="AM16">
+        <v>124.86</v>
+      </c>
+      <c r="AN16">
+        <v>16.01</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW16">
+        <v>2.38</v>
+      </c>
+      <c r="AX16">
+        <v>5.93</v>
+      </c>
+      <c r="BB16">
+        <v>136</v>
+      </c>
+      <c r="DN16">
+        <v>14</v>
+      </c>
+      <c r="DO16">
+        <v>5</v>
+      </c>
+      <c r="DQ16">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:121">
+      <c r="A17">
+        <v>2091284</v>
+      </c>
+      <c r="C17" t="s">
+        <v>356</v>
+      </c>
+      <c r="G17" t="s">
+        <v>383</v>
+      </c>
+      <c r="K17" t="s">
+        <v>410</v>
+      </c>
+      <c r="P17">
+        <v>1050</v>
+      </c>
+      <c r="Q17">
+        <v>1050</v>
+      </c>
+      <c r="S17" t="s">
+        <v>431</v>
+      </c>
+      <c r="T17" t="s">
+        <v>525</v>
+      </c>
+      <c r="AM17">
+        <v>135.26</v>
+      </c>
+      <c r="AN17">
+        <v>13.87</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW17">
+        <v>2.77</v>
+      </c>
+      <c r="AX17">
+        <v>5.72</v>
+      </c>
+      <c r="BB17">
+        <v>99</v>
+      </c>
+      <c r="DN17">
+        <v>7</v>
+      </c>
+      <c r="DO17">
+        <v>1</v>
+      </c>
+      <c r="DQ17">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:121">
+      <c r="A18">
+        <v>2791853</v>
+      </c>
+      <c r="C18" t="s">
+        <v>357</v>
+      </c>
+      <c r="G18" t="s">
+        <v>384</v>
+      </c>
+      <c r="K18" t="s">
+        <v>405</v>
+      </c>
+      <c r="P18">
+        <v>15040</v>
+      </c>
+      <c r="Q18">
+        <v>1719</v>
+      </c>
+      <c r="S18" t="s">
+        <v>432</v>
+      </c>
+      <c r="T18" t="s">
+        <v>526</v>
+      </c>
+      <c r="AM18">
+        <v>144.04</v>
+      </c>
+      <c r="AN18">
+        <v>14.53</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW18">
+        <v>2.75</v>
+      </c>
+      <c r="AX18">
+        <v>3.68</v>
+      </c>
+      <c r="BB18">
+        <v>99</v>
+      </c>
+      <c r="DN18">
+        <v>1</v>
+      </c>
+      <c r="DO18">
+        <v>1</v>
+      </c>
+      <c r="DQ18">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:121">
+      <c r="A19">
+        <v>2908489</v>
+      </c>
+      <c r="C19" t="s">
+        <v>357</v>
+      </c>
+      <c r="G19" t="s">
+        <v>384</v>
+      </c>
+      <c r="K19" t="s">
+        <v>405</v>
+      </c>
+      <c r="P19">
+        <v>17995</v>
+      </c>
+      <c r="Q19">
+        <v>1901</v>
+      </c>
+      <c r="S19" t="s">
+        <v>433</v>
+      </c>
+      <c r="T19" t="s">
+        <v>527</v>
+      </c>
+      <c r="AM19">
+        <v>150.69</v>
+      </c>
+      <c r="AN19">
+        <v>15.07</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW19">
+        <v>2.77</v>
+      </c>
+      <c r="AX19">
+        <v>3.83</v>
+      </c>
+      <c r="BB19">
+        <v>100</v>
+      </c>
+      <c r="DN19">
+        <v>3</v>
+      </c>
+      <c r="DO19">
+        <v>2</v>
+      </c>
+      <c r="DQ19">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:121">
+      <c r="A20">
+        <v>2908491</v>
+      </c>
+      <c r="C20" t="s">
+        <v>357</v>
+      </c>
+      <c r="G20" t="s">
+        <v>384</v>
+      </c>
+      <c r="K20" t="s">
+        <v>405</v>
+      </c>
+      <c r="P20">
+        <v>18656</v>
+      </c>
+      <c r="Q20">
+        <v>2562</v>
+      </c>
+      <c r="S20" t="s">
+        <v>434</v>
+      </c>
+      <c r="T20" t="s">
+        <v>528</v>
+      </c>
+      <c r="AM20">
+        <v>151.43</v>
+      </c>
+      <c r="AN20">
+        <v>15.23</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW20">
+        <v>2.95</v>
+      </c>
+      <c r="AX20">
+        <v>3.57</v>
+      </c>
+      <c r="BB20">
+        <v>101</v>
+      </c>
+      <c r="DN20">
+        <v>5</v>
+      </c>
+      <c r="DO20">
+        <v>3</v>
+      </c>
+      <c r="DQ20">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:121">
+      <c r="A21">
+        <v>1449107</v>
+      </c>
+      <c r="C21" t="s">
+        <v>358</v>
+      </c>
+      <c r="G21" t="s">
+        <v>385</v>
+      </c>
+      <c r="K21" t="s">
+        <v>411</v>
+      </c>
+      <c r="P21">
+        <v>800</v>
+      </c>
+      <c r="Q21">
+        <v>800</v>
+      </c>
+      <c r="S21" t="s">
+        <v>435</v>
+      </c>
+      <c r="T21" t="s">
+        <v>529</v>
+      </c>
+      <c r="AM21">
+        <v>147.54</v>
+      </c>
+      <c r="AN21">
+        <v>14.53</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW21">
+        <v>2.8</v>
+      </c>
+      <c r="AX21">
+        <v>6.42</v>
+      </c>
+      <c r="BB21">
+        <v>97</v>
+      </c>
+      <c r="DN21">
+        <v>12</v>
+      </c>
+      <c r="DO21">
+        <v>1</v>
+      </c>
+      <c r="DQ21">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:121">
+      <c r="A22">
+        <v>2524684</v>
+      </c>
+      <c r="C22" t="s">
+        <v>357</v>
+      </c>
+      <c r="G22" t="s">
+        <v>384</v>
+      </c>
+      <c r="K22" t="s">
+        <v>405</v>
+      </c>
+      <c r="P22">
+        <v>8873</v>
+      </c>
+      <c r="Q22">
+        <v>2579</v>
+      </c>
+      <c r="S22" t="s">
+        <v>436</v>
+      </c>
+      <c r="T22" t="s">
+        <v>530</v>
+      </c>
+      <c r="AM22">
+        <v>149.41</v>
+      </c>
+      <c r="AN22">
+        <v>15</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW22">
+        <v>3.24</v>
+      </c>
+      <c r="AX22">
+        <v>2.79</v>
+      </c>
+      <c r="BB22">
+        <v>100</v>
+      </c>
+      <c r="DN22">
+        <v>8</v>
+      </c>
+      <c r="DO22">
+        <v>0</v>
+      </c>
+      <c r="DQ22">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:121">
+      <c r="A23">
+        <v>2546979</v>
+      </c>
+      <c r="C23" t="s">
+        <v>357</v>
+      </c>
+      <c r="G23" t="s">
+        <v>384</v>
+      </c>
+      <c r="K23" t="s">
+        <v>405</v>
+      </c>
+      <c r="P23">
+        <v>6106</v>
+      </c>
+      <c r="Q23">
+        <v>2122</v>
+      </c>
+      <c r="S23" t="s">
+        <v>437</v>
+      </c>
+      <c r="T23" t="s">
+        <v>531</v>
+      </c>
+      <c r="AM23">
+        <v>150.79</v>
+      </c>
+      <c r="AN23">
+        <v>15.02</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW23">
+        <v>2.73</v>
+      </c>
+      <c r="AX23">
+        <v>4.4</v>
+      </c>
+      <c r="BB23">
+        <v>99</v>
+      </c>
+      <c r="DN23">
+        <v>1</v>
+      </c>
+      <c r="DO23">
+        <v>1</v>
+      </c>
+      <c r="DQ23">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:121">
+      <c r="A24">
+        <v>2546981</v>
+      </c>
+      <c r="C24" t="s">
+        <v>357</v>
+      </c>
+      <c r="G24" t="s">
+        <v>384</v>
+      </c>
+      <c r="K24" t="s">
+        <v>405</v>
+      </c>
+      <c r="P24">
+        <v>5494</v>
+      </c>
+      <c r="S24" t="s">
+        <v>438</v>
+      </c>
+      <c r="T24" t="s">
+        <v>532</v>
+      </c>
+      <c r="AM24">
+        <v>148.42</v>
+      </c>
+      <c r="AN24">
+        <v>14.65</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW24">
+        <v>2.6</v>
+      </c>
+      <c r="AX24">
+        <v>4.68</v>
+      </c>
+      <c r="BB24">
+        <v>97</v>
+      </c>
+      <c r="DN24">
+        <v>1</v>
+      </c>
+      <c r="DO24">
+        <v>1</v>
+      </c>
+      <c r="DQ24">
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:121">
+      <c r="A25">
+        <v>2621257</v>
+      </c>
+      <c r="C25" t="s">
+        <v>357</v>
+      </c>
+      <c r="G25" t="s">
+        <v>384</v>
+      </c>
+      <c r="K25" t="s">
+        <v>405</v>
+      </c>
+      <c r="P25">
+        <v>9981</v>
+      </c>
+      <c r="Q25">
+        <v>610</v>
+      </c>
+      <c r="S25" t="s">
+        <v>439</v>
+      </c>
+      <c r="T25" t="s">
+        <v>533</v>
+      </c>
+      <c r="AM25">
+        <v>147.15</v>
+      </c>
+      <c r="AN25">
+        <v>14.8</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW25">
+        <v>2.64</v>
+      </c>
+      <c r="AX25">
+        <v>3.97</v>
+      </c>
+      <c r="BB25">
+        <v>100</v>
+      </c>
+      <c r="DN25">
+        <v>4</v>
+      </c>
+      <c r="DO25">
+        <v>1</v>
+      </c>
+      <c r="DQ25">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:121">
+      <c r="A26">
+        <v>2694918</v>
+      </c>
+      <c r="C26" t="s">
+        <v>357</v>
+      </c>
+      <c r="G26" t="s">
+        <v>384</v>
+      </c>
+      <c r="K26" t="s">
+        <v>405</v>
+      </c>
+      <c r="P26">
+        <v>12880</v>
+      </c>
+      <c r="Q26">
+        <v>3820</v>
+      </c>
+      <c r="S26" t="s">
+        <v>440</v>
+      </c>
+      <c r="T26" t="s">
+        <v>534</v>
+      </c>
+      <c r="AM26">
+        <v>148.2</v>
+      </c>
+      <c r="AN26">
+        <v>14.77</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW26">
+        <v>3.02</v>
+      </c>
+      <c r="AX26">
+        <v>3.38</v>
+      </c>
+      <c r="BB26">
+        <v>99</v>
+      </c>
+      <c r="DN26">
+        <v>4</v>
+      </c>
+      <c r="DO26">
+        <v>2</v>
+      </c>
+      <c r="DQ26">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:121">
+      <c r="A27">
+        <v>2694920</v>
+      </c>
+      <c r="C27" t="s">
+        <v>357</v>
+      </c>
+      <c r="G27" t="s">
+        <v>384</v>
+      </c>
+      <c r="K27" t="s">
+        <v>405</v>
+      </c>
+      <c r="P27">
+        <v>17688</v>
+      </c>
+      <c r="Q27">
+        <v>1594</v>
+      </c>
+      <c r="S27" t="s">
+        <v>441</v>
+      </c>
+      <c r="T27" t="s">
+        <v>535</v>
+      </c>
+      <c r="AM27">
+        <v>148.66</v>
+      </c>
+      <c r="AN27">
+        <v>15.07</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW27">
+        <v>2.62</v>
+      </c>
+      <c r="AX27">
+        <v>4.03</v>
+      </c>
+      <c r="BB27">
+        <v>102</v>
+      </c>
+      <c r="DN27">
+        <v>2</v>
+      </c>
+      <c r="DO27">
+        <v>1</v>
+      </c>
+      <c r="DQ27">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:121">
+      <c r="A28">
+        <v>2791841</v>
+      </c>
+      <c r="C28" t="s">
+        <v>357</v>
+      </c>
+      <c r="G28" t="s">
+        <v>384</v>
+      </c>
+      <c r="K28" t="s">
+        <v>405</v>
+      </c>
+      <c r="P28">
+        <v>20261</v>
+      </c>
+      <c r="Q28">
+        <v>4167</v>
+      </c>
+      <c r="S28" t="s">
+        <v>442</v>
+      </c>
+      <c r="T28" t="s">
+        <v>536</v>
+      </c>
+      <c r="AM28">
+        <v>163.3</v>
+      </c>
+      <c r="AN28">
+        <v>15.96</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW28">
+        <v>3.21</v>
+      </c>
+      <c r="AX28">
+        <v>2.59</v>
+      </c>
+      <c r="BB28">
+        <v>100</v>
+      </c>
+      <c r="DN28">
+        <v>10</v>
+      </c>
+      <c r="DO28">
+        <v>8</v>
+      </c>
+      <c r="DQ28">
+        <v>3.99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:121">
+      <c r="A29">
+        <v>2694797</v>
+      </c>
+      <c r="C29" t="s">
+        <v>358</v>
+      </c>
+      <c r="G29" t="s">
+        <v>385</v>
+      </c>
+      <c r="K29" t="s">
+        <v>405</v>
+      </c>
+      <c r="P29">
+        <v>24146</v>
+      </c>
+      <c r="Q29">
+        <v>500</v>
+      </c>
+      <c r="S29" t="s">
+        <v>443</v>
+      </c>
+      <c r="T29" t="s">
+        <v>537</v>
+      </c>
+      <c r="AM29">
+        <v>156.84</v>
+      </c>
+      <c r="AN29">
+        <v>15.33</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW29">
+        <v>3.34</v>
+      </c>
+      <c r="AX29">
+        <v>7.42</v>
+      </c>
+      <c r="BB29">
+        <v>98</v>
+      </c>
+      <c r="DN29">
+        <v>3</v>
+      </c>
+      <c r="DO29">
+        <v>1</v>
+      </c>
+      <c r="DQ29">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:121">
+      <c r="A30">
+        <v>2840915</v>
+      </c>
+      <c r="C30" t="s">
+        <v>358</v>
+      </c>
+      <c r="G30" t="s">
+        <v>385</v>
+      </c>
+      <c r="K30" t="s">
+        <v>412</v>
+      </c>
+      <c r="P30">
+        <v>30740</v>
+      </c>
+      <c r="Q30">
+        <v>1700</v>
+      </c>
+      <c r="S30" t="s">
+        <v>442</v>
+      </c>
+      <c r="T30" t="s">
+        <v>538</v>
+      </c>
+      <c r="AM30">
+        <v>125.99</v>
+      </c>
+      <c r="AN30">
+        <v>14.16</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW30">
+        <v>2.8</v>
+      </c>
+      <c r="AX30">
+        <v>2.99</v>
+      </c>
+      <c r="BB30">
+        <v>111</v>
+      </c>
+      <c r="DN30">
+        <v>13</v>
+      </c>
+      <c r="DO30">
+        <v>2</v>
+      </c>
+      <c r="DQ30">
+        <v>4.85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:121">
+      <c r="A31">
+        <v>2547023</v>
+      </c>
+      <c r="C31" t="s">
+        <v>358</v>
+      </c>
+      <c r="G31" t="s">
+        <v>385</v>
+      </c>
+      <c r="K31" t="s">
+        <v>405</v>
+      </c>
+      <c r="P31">
+        <v>20936</v>
+      </c>
+      <c r="Q31">
+        <v>598</v>
+      </c>
+      <c r="S31" t="s">
+        <v>444</v>
+      </c>
+      <c r="T31" t="s">
+        <v>539</v>
+      </c>
+      <c r="AM31">
+        <v>148.8</v>
+      </c>
+      <c r="AN31">
+        <v>14.81</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW31">
+        <v>2.7</v>
+      </c>
+      <c r="AX31">
+        <v>4.37</v>
+      </c>
+      <c r="BB31">
+        <v>99</v>
+      </c>
+      <c r="DN31">
+        <v>6</v>
+      </c>
+      <c r="DO31">
+        <v>1</v>
+      </c>
+      <c r="DQ31">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:121">
+      <c r="A32">
+        <v>2694792</v>
+      </c>
+      <c r="C32" t="s">
+        <v>358</v>
+      </c>
+      <c r="G32" t="s">
+        <v>385</v>
+      </c>
+      <c r="K32" t="s">
+        <v>405</v>
+      </c>
+      <c r="P32">
+        <v>24383</v>
+      </c>
+      <c r="Q32">
+        <v>737</v>
+      </c>
+      <c r="S32" t="s">
+        <v>445</v>
+      </c>
+      <c r="T32" t="s">
+        <v>540</v>
+      </c>
+      <c r="AM32">
+        <v>163.05</v>
+      </c>
+      <c r="AN32">
+        <v>15.77</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW32">
+        <v>3.9</v>
+      </c>
+      <c r="AX32">
+        <v>6.74</v>
+      </c>
+      <c r="BB32">
+        <v>99</v>
+      </c>
+      <c r="DN32">
+        <v>6</v>
+      </c>
+      <c r="DO32">
+        <v>3</v>
+      </c>
+      <c r="DQ32">
+        <v>4.89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:121">
+      <c r="A33">
+        <v>2386832</v>
+      </c>
+      <c r="C33" t="s">
+        <v>357</v>
+      </c>
+      <c r="G33" t="s">
+        <v>384</v>
+      </c>
+      <c r="K33" t="s">
+        <v>405</v>
+      </c>
+      <c r="P33">
+        <v>3294</v>
+      </c>
+      <c r="Q33">
+        <v>3294</v>
+      </c>
+      <c r="S33" t="s">
+        <v>446</v>
+      </c>
+      <c r="T33" t="s">
+        <v>541</v>
+      </c>
+      <c r="AM33">
+        <v>147.93</v>
+      </c>
+      <c r="AN33">
+        <v>14.67</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW33">
+        <v>2.8</v>
+      </c>
+      <c r="AX33">
+        <v>4.69</v>
+      </c>
+      <c r="BB33">
+        <v>98</v>
+      </c>
+      <c r="DN33">
+        <v>1</v>
+      </c>
+      <c r="DO33">
+        <v>1</v>
+      </c>
+      <c r="DQ33">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:121">
+      <c r="A34">
+        <v>2386899</v>
+      </c>
+      <c r="C34" t="s">
+        <v>357</v>
+      </c>
+      <c r="G34" t="s">
+        <v>384</v>
+      </c>
+      <c r="K34" t="s">
+        <v>405</v>
+      </c>
+      <c r="P34">
+        <v>606</v>
+      </c>
+      <c r="Q34">
+        <v>606</v>
+      </c>
+      <c r="S34" t="s">
+        <v>447</v>
+      </c>
+      <c r="T34" t="s">
+        <v>542</v>
+      </c>
+      <c r="AM34">
+        <v>136.96</v>
+      </c>
+      <c r="AN34">
+        <v>13.63</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW34">
+        <v>1.89</v>
+      </c>
+      <c r="AX34">
+        <v>5.65</v>
+      </c>
+      <c r="BB34">
+        <v>94</v>
+      </c>
+      <c r="DN34">
+        <v>7</v>
+      </c>
+      <c r="DO34">
+        <v>1</v>
+      </c>
+      <c r="DQ34">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:121">
+      <c r="A35">
+        <v>2270511</v>
+      </c>
+      <c r="C35" t="s">
+        <v>358</v>
+      </c>
+      <c r="G35" t="s">
+        <v>385</v>
+      </c>
+      <c r="K35" t="s">
+        <v>411</v>
+      </c>
+      <c r="P35">
+        <v>13414</v>
+      </c>
+      <c r="Q35">
+        <v>1157</v>
+      </c>
+      <c r="S35" t="s">
+        <v>448</v>
+      </c>
+      <c r="T35" t="s">
+        <v>543</v>
+      </c>
+      <c r="AM35">
+        <v>159.65</v>
+      </c>
+      <c r="AN35">
+        <v>15.15</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW35">
+        <v>3.69</v>
+      </c>
+      <c r="AX35">
+        <v>7.62</v>
+      </c>
+      <c r="BB35">
+        <v>95</v>
+      </c>
+      <c r="DN35">
+        <v>10</v>
+      </c>
+      <c r="DO35">
+        <v>3</v>
+      </c>
+      <c r="DQ35">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:121">
+      <c r="A36">
+        <v>2469152</v>
+      </c>
+      <c r="C36" t="s">
+        <v>358</v>
+      </c>
+      <c r="G36" t="s">
+        <v>385</v>
+      </c>
+      <c r="K36" t="s">
+        <v>405</v>
+      </c>
+      <c r="P36">
+        <v>18542</v>
+      </c>
+      <c r="Q36">
+        <v>941</v>
+      </c>
+      <c r="S36" t="s">
+        <v>449</v>
+      </c>
+      <c r="T36" t="s">
+        <v>544</v>
+      </c>
+      <c r="AM36">
+        <v>153.81</v>
+      </c>
+      <c r="AN36">
+        <v>14.99</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW36">
+        <v>3.06</v>
+      </c>
+      <c r="AX36">
+        <v>4.07</v>
+      </c>
+      <c r="BB36">
+        <v>97</v>
+      </c>
+      <c r="DN36">
+        <v>1</v>
+      </c>
+      <c r="DO36">
+        <v>1</v>
+      </c>
+      <c r="DQ36">
+        <v>4.24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:121">
+      <c r="A37">
+        <v>2524704</v>
+      </c>
+      <c r="C37" t="s">
+        <v>358</v>
+      </c>
+      <c r="G37" t="s">
+        <v>385</v>
+      </c>
+      <c r="K37" t="s">
+        <v>405</v>
+      </c>
+      <c r="P37">
+        <v>22281</v>
+      </c>
+      <c r="Q37">
+        <v>629</v>
+      </c>
+      <c r="S37" t="s">
+        <v>450</v>
+      </c>
+      <c r="T37" t="s">
+        <v>545</v>
+      </c>
+      <c r="AM37">
+        <v>150.92</v>
+      </c>
+      <c r="AN37">
+        <v>14.98</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW37">
+        <v>2.83</v>
+      </c>
+      <c r="AX37">
+        <v>3.93</v>
+      </c>
+      <c r="BB37">
+        <v>99</v>
+      </c>
+      <c r="DN37">
+        <v>2</v>
+      </c>
+      <c r="DO37">
+        <v>2</v>
+      </c>
+      <c r="DQ37">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:121">
+      <c r="A38">
+        <v>3289486</v>
+      </c>
+      <c r="C38" t="s">
+        <v>359</v>
+      </c>
+      <c r="G38" t="s">
+        <v>386</v>
+      </c>
+      <c r="K38" t="s">
+        <v>405</v>
+      </c>
+      <c r="P38">
+        <v>57386</v>
+      </c>
+      <c r="Q38">
+        <v>1260</v>
+      </c>
+      <c r="S38" t="s">
+        <v>451</v>
+      </c>
+      <c r="T38" t="s">
+        <v>546</v>
+      </c>
+      <c r="AM38">
+        <v>152.32</v>
+      </c>
+      <c r="AN38">
+        <v>15.17</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW38">
+        <v>2.78</v>
+      </c>
+      <c r="AX38">
+        <v>3.55</v>
+      </c>
+      <c r="BB38">
+        <v>100</v>
+      </c>
+      <c r="DN38">
+        <v>4</v>
+      </c>
+      <c r="DO38">
+        <v>2</v>
+      </c>
+      <c r="DQ38">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:121">
+      <c r="A39">
+        <v>3327469</v>
+      </c>
+      <c r="C39" t="s">
+        <v>359</v>
+      </c>
+      <c r="G39" t="s">
+        <v>386</v>
+      </c>
+      <c r="K39" t="s">
+        <v>413</v>
+      </c>
+      <c r="P39">
+        <v>60730</v>
+      </c>
+      <c r="Q39">
+        <v>1152</v>
+      </c>
+      <c r="S39" t="s">
+        <v>452</v>
+      </c>
+      <c r="T39" t="s">
+        <v>418</v>
+      </c>
+      <c r="AM39">
+        <v>125.85</v>
+      </c>
+      <c r="AN39">
+        <v>15.71</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW39">
+        <v>2.55</v>
+      </c>
+      <c r="AX39">
+        <v>5.49</v>
+      </c>
+      <c r="BB39">
+        <v>131</v>
+      </c>
+      <c r="DN39">
+        <v>11</v>
+      </c>
+      <c r="DO39">
+        <v>3</v>
+      </c>
+      <c r="DQ39">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:121">
+      <c r="A40">
+        <v>3327471</v>
+      </c>
+      <c r="C40" t="s">
+        <v>359</v>
+      </c>
+      <c r="G40" t="s">
+        <v>386</v>
+      </c>
+      <c r="K40" t="s">
+        <v>401</v>
+      </c>
+      <c r="P40">
+        <v>61474</v>
+      </c>
+      <c r="Q40">
+        <v>1996</v>
+      </c>
+      <c r="S40" t="s">
+        <v>453</v>
+      </c>
+      <c r="T40" t="s">
+        <v>547</v>
+      </c>
+      <c r="AM40">
+        <v>133.4</v>
+      </c>
+      <c r="AN40">
+        <v>16.51</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU40" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW40">
+        <v>2.99</v>
+      </c>
+      <c r="AX40">
+        <v>4.42</v>
+      </c>
+      <c r="BB40">
+        <v>133</v>
+      </c>
+      <c r="DN40">
+        <v>14</v>
+      </c>
+      <c r="DO40">
+        <v>6</v>
+      </c>
+      <c r="DQ40">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:121">
+      <c r="A41">
+        <v>2524689</v>
+      </c>
+      <c r="C41" t="s">
+        <v>359</v>
+      </c>
+      <c r="G41" t="s">
+        <v>386</v>
+      </c>
+      <c r="K41" t="s">
+        <v>405</v>
+      </c>
+      <c r="P41">
+        <v>31482</v>
+      </c>
+      <c r="Q41">
+        <v>422</v>
+      </c>
+      <c r="S41" t="s">
+        <v>454</v>
+      </c>
+      <c r="T41" t="s">
+        <v>548</v>
+      </c>
+      <c r="AM41">
+        <v>144.68</v>
+      </c>
+      <c r="AN41">
+        <v>14.58</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW41">
+        <v>2.3</v>
+      </c>
+      <c r="AX41">
+        <v>4.44</v>
+      </c>
+      <c r="BB41">
+        <v>99</v>
+      </c>
+      <c r="DN41">
+        <v>4</v>
+      </c>
+      <c r="DO41">
+        <v>0</v>
+      </c>
+      <c r="DQ41">
+        <v>5.03</v>
+      </c>
+    </row>
+    <row r="42" spans="1:121">
+      <c r="A42">
+        <v>2524691</v>
+      </c>
+      <c r="C42" t="s">
+        <v>359</v>
+      </c>
+      <c r="G42" t="s">
+        <v>386</v>
+      </c>
+      <c r="K42" t="s">
+        <v>405</v>
+      </c>
+      <c r="P42">
+        <v>32652</v>
+      </c>
+      <c r="Q42">
+        <v>613</v>
+      </c>
+      <c r="S42" t="s">
+        <v>455</v>
+      </c>
+      <c r="T42" t="s">
+        <v>549</v>
+      </c>
+      <c r="AM42">
+        <v>146.79</v>
+      </c>
+      <c r="AN42">
+        <v>14.6</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU42" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW42">
+        <v>2.66</v>
+      </c>
+      <c r="AX42">
+        <v>3.54</v>
+      </c>
+      <c r="BB42">
+        <v>98</v>
+      </c>
+      <c r="DN42">
+        <v>4</v>
+      </c>
+      <c r="DO42">
+        <v>1</v>
+      </c>
+      <c r="DQ42">
+        <v>4.22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:121">
+      <c r="A43">
+        <v>2625189</v>
+      </c>
+      <c r="C43" t="s">
+        <v>359</v>
+      </c>
+      <c r="G43" t="s">
+        <v>386</v>
+      </c>
+      <c r="K43" t="s">
+        <v>405</v>
+      </c>
+      <c r="P43">
+        <v>38866</v>
+      </c>
+      <c r="Q43">
+        <v>863</v>
+      </c>
+      <c r="S43" t="s">
+        <v>456</v>
+      </c>
+      <c r="T43" t="s">
+        <v>550</v>
+      </c>
+      <c r="AM43">
+        <v>145.17</v>
+      </c>
+      <c r="AN43">
+        <v>14.48</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU43" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW43">
+        <v>2.73</v>
+      </c>
+      <c r="AX43">
+        <v>3.73</v>
+      </c>
+      <c r="BB43">
+        <v>98</v>
+      </c>
+      <c r="DN43">
+        <v>3</v>
+      </c>
+      <c r="DO43">
+        <v>1</v>
+      </c>
+      <c r="DQ43">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="44" spans="1:121">
+      <c r="A44">
+        <v>2625191</v>
+      </c>
+      <c r="C44" t="s">
+        <v>359</v>
+      </c>
+      <c r="G44" t="s">
+        <v>386</v>
+      </c>
+      <c r="K44" t="s">
+        <v>405</v>
+      </c>
+      <c r="P44">
+        <v>40038</v>
+      </c>
+      <c r="Q44">
+        <v>705</v>
+      </c>
+      <c r="S44" t="s">
+        <v>457</v>
+      </c>
+      <c r="T44" t="s">
+        <v>551</v>
+      </c>
+      <c r="AM44">
+        <v>144.89</v>
+      </c>
+      <c r="AN44">
+        <v>14.63</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU44" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW44">
+        <v>2.62</v>
+      </c>
+      <c r="AX44">
+        <v>3.95</v>
+      </c>
+      <c r="BB44">
+        <v>100</v>
+      </c>
+      <c r="DN44">
+        <v>2</v>
+      </c>
+      <c r="DO44">
+        <v>1</v>
+      </c>
+      <c r="DQ44">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:121">
+      <c r="A45">
+        <v>2625242</v>
+      </c>
+      <c r="C45" t="s">
+        <v>359</v>
+      </c>
+      <c r="G45" t="s">
+        <v>386</v>
+      </c>
+      <c r="K45" t="s">
+        <v>405</v>
+      </c>
+      <c r="P45">
+        <v>34299</v>
+      </c>
+      <c r="Q45">
+        <v>504</v>
+      </c>
+      <c r="S45" t="s">
+        <v>458</v>
+      </c>
+      <c r="T45" t="s">
+        <v>552</v>
+      </c>
+      <c r="AM45">
+        <v>140.96</v>
+      </c>
+      <c r="AN45">
+        <v>14.25</v>
+      </c>
+      <c r="AR45" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU45" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW45">
+        <v>2.11</v>
+      </c>
+      <c r="AX45">
+        <v>4.96</v>
+      </c>
+      <c r="BB45">
+        <v>98</v>
+      </c>
+      <c r="DN45">
+        <v>4</v>
+      </c>
+      <c r="DO45">
+        <v>0</v>
+      </c>
+      <c r="DQ45">
+        <v>5.31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:121">
+      <c r="A46">
+        <v>2524665</v>
+      </c>
+      <c r="C46" t="s">
+        <v>360</v>
+      </c>
+      <c r="G46" t="s">
+        <v>387</v>
+      </c>
+      <c r="K46" t="s">
+        <v>405</v>
+      </c>
+      <c r="P46">
+        <v>69894</v>
+      </c>
+      <c r="Q46">
+        <v>350</v>
+      </c>
+      <c r="S46" t="s">
+        <v>459</v>
+      </c>
+      <c r="T46" t="s">
+        <v>553</v>
+      </c>
+      <c r="AM46">
+        <v>144.31</v>
+      </c>
+      <c r="AN46">
+        <v>14.59</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU46" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW46">
+        <v>2.45</v>
+      </c>
+      <c r="AX46">
+        <v>4.6</v>
+      </c>
+      <c r="BB46">
+        <v>100</v>
+      </c>
+      <c r="DN46">
+        <v>5</v>
+      </c>
+      <c r="DO46">
+        <v>0</v>
+      </c>
+      <c r="DQ46">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:121">
+      <c r="A47">
+        <v>2621219</v>
+      </c>
+      <c r="C47" t="s">
+        <v>360</v>
+      </c>
+      <c r="G47" t="s">
+        <v>387</v>
+      </c>
+      <c r="K47" t="s">
+        <v>405</v>
+      </c>
+      <c r="P47">
+        <v>72457</v>
+      </c>
+      <c r="Q47">
+        <v>724</v>
+      </c>
+      <c r="S47" t="s">
+        <v>460</v>
+      </c>
+      <c r="T47" t="s">
+        <v>554</v>
+      </c>
+      <c r="AM47">
+        <v>145.6</v>
+      </c>
+      <c r="AN47">
+        <v>14.54</v>
+      </c>
+      <c r="AR47" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU47" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW47">
+        <v>2.51</v>
+      </c>
+      <c r="AX47">
+        <v>3.81</v>
+      </c>
+      <c r="BB47">
+        <v>98</v>
+      </c>
+      <c r="DN47">
+        <v>4</v>
+      </c>
+      <c r="DO47">
+        <v>1</v>
+      </c>
+      <c r="DQ47">
+        <v>4.43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:121">
+      <c r="A48">
+        <v>2791776</v>
+      </c>
+      <c r="C48" t="s">
+        <v>359</v>
+      </c>
+      <c r="G48" t="s">
+        <v>386</v>
+      </c>
+      <c r="K48" t="s">
+        <v>405</v>
+      </c>
+      <c r="P48">
+        <v>42756</v>
+      </c>
+      <c r="Q48">
+        <v>928</v>
+      </c>
+      <c r="S48" t="s">
+        <v>461</v>
+      </c>
+      <c r="T48" t="s">
+        <v>555</v>
+      </c>
+      <c r="AM48">
+        <v>146.65</v>
+      </c>
+      <c r="AN48">
+        <v>14.89</v>
+      </c>
+      <c r="AR48" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU48" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW48">
+        <v>2.87</v>
+      </c>
+      <c r="AX48">
+        <v>3.32</v>
+      </c>
+      <c r="BB48">
+        <v>101</v>
+      </c>
+      <c r="DN48">
+        <v>3</v>
+      </c>
+      <c r="DO48">
+        <v>1</v>
+      </c>
+      <c r="DQ48">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:121">
+      <c r="A49">
+        <v>2973247</v>
+      </c>
+      <c r="C49" t="s">
+        <v>359</v>
+      </c>
+      <c r="G49" t="s">
+        <v>386</v>
+      </c>
+      <c r="K49" t="s">
+        <v>405</v>
+      </c>
+      <c r="P49">
+        <v>44434</v>
+      </c>
+      <c r="Q49">
+        <v>1266</v>
+      </c>
+      <c r="S49" t="s">
+        <v>462</v>
+      </c>
+      <c r="T49" t="s">
+        <v>556</v>
+      </c>
+      <c r="AM49">
+        <v>150.04</v>
+      </c>
+      <c r="AN49">
+        <v>15.14</v>
+      </c>
+      <c r="AR49" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU49" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW49">
+        <v>2.9</v>
+      </c>
+      <c r="AX49">
+        <v>3.75</v>
+      </c>
+      <c r="BB49">
+        <v>101</v>
+      </c>
+      <c r="DN49">
+        <v>3</v>
+      </c>
+      <c r="DO49">
+        <v>2</v>
+      </c>
+      <c r="DQ49">
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:121">
+      <c r="A50">
+        <v>3062628</v>
+      </c>
+      <c r="C50" t="s">
+        <v>359</v>
+      </c>
+      <c r="G50" t="s">
+        <v>386</v>
+      </c>
+      <c r="K50" t="s">
+        <v>405</v>
+      </c>
+      <c r="P50">
+        <v>49898</v>
+      </c>
+      <c r="Q50">
+        <v>757</v>
+      </c>
+      <c r="S50" t="s">
+        <v>463</v>
+      </c>
+      <c r="T50" t="s">
+        <v>557</v>
+      </c>
+      <c r="AM50">
+        <v>158.94</v>
+      </c>
+      <c r="AN50">
+        <v>15.57</v>
+      </c>
+      <c r="AR50">
+        <v>0.1</v>
+      </c>
+      <c r="AU50" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW50">
+        <v>2.59</v>
+      </c>
+      <c r="AX50">
+        <v>3.34</v>
+      </c>
+      <c r="BB50">
+        <v>99</v>
+      </c>
+      <c r="DN50">
+        <v>6</v>
+      </c>
+      <c r="DO50">
+        <v>2</v>
+      </c>
+      <c r="DQ50">
+        <v>4.84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:121">
+      <c r="A51">
+        <v>3062630</v>
+      </c>
+      <c r="C51" t="s">
+        <v>359</v>
+      </c>
+      <c r="G51" t="s">
+        <v>386</v>
+      </c>
+      <c r="K51" t="s">
+        <v>405</v>
+      </c>
+      <c r="P51">
+        <v>52644</v>
+      </c>
+      <c r="Q51">
+        <v>912</v>
+      </c>
+      <c r="S51" t="s">
+        <v>464</v>
+      </c>
+      <c r="T51" t="s">
+        <v>558</v>
+      </c>
+      <c r="AM51">
+        <v>151.25</v>
+      </c>
+      <c r="AN51">
+        <v>15.16</v>
+      </c>
+      <c r="AR51" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU51" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW51">
+        <v>2.74</v>
+      </c>
+      <c r="AX51">
+        <v>3.16</v>
+      </c>
+      <c r="BB51">
+        <v>101</v>
+      </c>
+      <c r="DN51">
+        <v>3</v>
+      </c>
+      <c r="DO51">
+        <v>2</v>
+      </c>
+      <c r="DQ51">
+        <v>4.69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:121">
+      <c r="A52">
+        <v>2973273</v>
+      </c>
+      <c r="C52" t="s">
+        <v>358</v>
+      </c>
+      <c r="G52" t="s">
+        <v>385</v>
+      </c>
+      <c r="K52" t="s">
+        <v>412</v>
+      </c>
+      <c r="P52">
+        <v>31906</v>
+      </c>
+      <c r="Q52">
+        <v>1087</v>
+      </c>
+      <c r="S52" t="s">
+        <v>465</v>
+      </c>
+      <c r="T52" t="s">
+        <v>559</v>
+      </c>
+      <c r="AM52">
+        <v>124.22</v>
+      </c>
+      <c r="AN52">
+        <v>13.75</v>
+      </c>
+      <c r="AR52" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU52" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW52">
+        <v>2.1</v>
+      </c>
+      <c r="AX52">
+        <v>3.28</v>
+      </c>
+      <c r="BB52">
+        <v>108</v>
+      </c>
+      <c r="DN52">
+        <v>11</v>
+      </c>
+      <c r="DO52">
+        <v>2</v>
+      </c>
+      <c r="DQ52">
+        <v>5.54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:121">
+      <c r="A53">
+        <v>2621238</v>
+      </c>
+      <c r="C53" t="s">
+        <v>360</v>
+      </c>
+      <c r="G53" t="s">
+        <v>387</v>
+      </c>
+      <c r="K53" t="s">
+        <v>405</v>
+      </c>
+      <c r="P53">
+        <v>79279</v>
+      </c>
+      <c r="Q53">
+        <v>490</v>
+      </c>
+      <c r="S53" t="s">
+        <v>466</v>
+      </c>
+      <c r="T53" t="s">
+        <v>560</v>
+      </c>
+      <c r="AM53">
+        <v>137.27</v>
+      </c>
+      <c r="AN53">
+        <v>14.02</v>
+      </c>
+      <c r="AR53" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU53" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW53">
+        <v>2</v>
+      </c>
+      <c r="AX53">
+        <v>4.77</v>
+      </c>
+      <c r="BB53">
+        <v>99</v>
+      </c>
+      <c r="DN53">
+        <v>1</v>
+      </c>
+      <c r="DO53">
+        <v>0</v>
+      </c>
+      <c r="DQ53">
+        <v>6.61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:121">
+      <c r="A54">
+        <v>2791769</v>
+      </c>
+      <c r="C54" t="s">
+        <v>360</v>
+      </c>
+      <c r="G54" t="s">
+        <v>387</v>
+      </c>
+      <c r="K54" t="s">
+        <v>405</v>
+      </c>
+      <c r="P54">
+        <v>92830</v>
+      </c>
+      <c r="Q54">
+        <v>1478</v>
+      </c>
+      <c r="S54" t="s">
+        <v>467</v>
+      </c>
+      <c r="T54" t="s">
+        <v>561</v>
+      </c>
+      <c r="AM54">
+        <v>133.37</v>
+      </c>
+      <c r="AN54">
+        <v>16.47</v>
+      </c>
+      <c r="AR54" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU54" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW54">
+        <v>2.56</v>
+      </c>
+      <c r="AX54">
+        <v>6.37</v>
+      </c>
+      <c r="BB54">
+        <v>133</v>
+      </c>
+      <c r="DN54">
+        <v>1</v>
+      </c>
+      <c r="DO54">
+        <v>5</v>
+      </c>
+      <c r="DQ54">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:121">
+      <c r="A55">
+        <v>2791771</v>
+      </c>
+      <c r="C55" t="s">
+        <v>360</v>
+      </c>
+      <c r="G55" t="s">
+        <v>387</v>
+      </c>
+      <c r="K55" t="s">
+        <v>405</v>
+      </c>
+      <c r="P55">
+        <v>85007</v>
+      </c>
+      <c r="S55" t="s">
+        <v>468</v>
+      </c>
+      <c r="T55" t="s">
+        <v>562</v>
+      </c>
+      <c r="AM55">
+        <v>155.37</v>
+      </c>
+      <c r="AN55">
+        <v>15.28</v>
+      </c>
+      <c r="AR55" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU55" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW55">
+        <v>2.46</v>
+      </c>
+      <c r="AX55">
+        <v>2.59</v>
+      </c>
+      <c r="BB55">
+        <v>99</v>
+      </c>
+      <c r="DN55">
+        <v>6</v>
+      </c>
+      <c r="DO55">
+        <v>4</v>
+      </c>
+      <c r="DQ55">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:121">
+      <c r="A56">
+        <v>2621308</v>
+      </c>
+      <c r="C56" t="s">
+        <v>361</v>
+      </c>
+      <c r="G56" t="s">
+        <v>388</v>
+      </c>
+      <c r="K56" t="s">
+        <v>405</v>
+      </c>
+      <c r="P56">
+        <v>1287</v>
+      </c>
+      <c r="Q56">
+        <v>1287</v>
+      </c>
+      <c r="S56" t="s">
+        <v>469</v>
+      </c>
+      <c r="T56" t="s">
+        <v>563</v>
+      </c>
+      <c r="AM56">
+        <v>152.84</v>
+      </c>
+      <c r="AN56">
+        <v>14.97</v>
+      </c>
+      <c r="AR56" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU56" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW56">
+        <v>3.02</v>
+      </c>
+      <c r="AX56">
+        <v>3.88</v>
+      </c>
+      <c r="BB56">
+        <v>98</v>
+      </c>
+      <c r="DN56">
+        <v>11</v>
+      </c>
+      <c r="DO56">
+        <v>0</v>
+      </c>
+      <c r="DQ56">
+        <v>3.98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:121">
+      <c r="A57">
+        <v>2621310</v>
+      </c>
+      <c r="C57" t="s">
+        <v>361</v>
+      </c>
+      <c r="G57" t="s">
+        <v>388</v>
+      </c>
+      <c r="K57" t="s">
+        <v>405</v>
+      </c>
+      <c r="P57">
+        <v>1757</v>
+      </c>
+      <c r="Q57">
+        <v>344</v>
+      </c>
+      <c r="S57" t="s">
+        <v>470</v>
+      </c>
+      <c r="T57" t="s">
+        <v>564</v>
+      </c>
+      <c r="AM57">
+        <v>139.56</v>
+      </c>
+      <c r="AN57">
+        <v>14.47</v>
+      </c>
+      <c r="AR57" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU57" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW57">
+        <v>2.03</v>
+      </c>
+      <c r="AX57">
+        <v>4.83</v>
+      </c>
+      <c r="BB57">
+        <v>102</v>
+      </c>
+      <c r="DN57">
+        <v>3</v>
+      </c>
+      <c r="DO57">
+        <v>1</v>
+      </c>
+      <c r="DQ57">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:121">
+      <c r="A58">
+        <v>2694836</v>
+      </c>
+      <c r="C58" t="s">
+        <v>361</v>
+      </c>
+      <c r="G58" t="s">
+        <v>388</v>
+      </c>
+      <c r="K58" t="s">
+        <v>405</v>
+      </c>
+      <c r="P58">
+        <v>3475</v>
+      </c>
+      <c r="Q58">
+        <v>346</v>
+      </c>
+      <c r="S58" t="s">
+        <v>471</v>
+      </c>
+      <c r="T58" t="s">
+        <v>565</v>
+      </c>
+      <c r="AM58">
+        <v>138.67</v>
+      </c>
+      <c r="AN58">
+        <v>14.18</v>
+      </c>
+      <c r="AR58" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU58" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW58">
+        <v>2.11</v>
+      </c>
+      <c r="AX58">
+        <v>4.98</v>
+      </c>
+      <c r="BB58">
+        <v>99</v>
+      </c>
+      <c r="DN58">
+        <v>3</v>
+      </c>
+      <c r="DO58">
+        <v>1</v>
+      </c>
+      <c r="DQ58">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:121">
+      <c r="A59">
+        <v>3875019</v>
+      </c>
+      <c r="C59" t="s">
+        <v>353</v>
+      </c>
+      <c r="G59" t="s">
+        <v>380</v>
+      </c>
+      <c r="K59" t="s">
+        <v>404</v>
+      </c>
+      <c r="P59">
+        <v>16127</v>
+      </c>
+      <c r="Q59">
+        <v>500</v>
+      </c>
+      <c r="S59" t="s">
+        <v>472</v>
+      </c>
+      <c r="T59" t="s">
+        <v>566</v>
+      </c>
+      <c r="AM59">
+        <v>108.52</v>
+      </c>
+      <c r="AN59">
+        <v>14.38</v>
+      </c>
+      <c r="AR59" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU59" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW59">
+        <v>1.78</v>
+      </c>
+      <c r="AX59">
+        <v>7.04</v>
+      </c>
+      <c r="BB59">
+        <v>135</v>
+      </c>
+      <c r="DN59">
+        <v>10</v>
+      </c>
+      <c r="DO59">
+        <v>1</v>
+      </c>
+      <c r="DQ59">
+        <v>6.53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:121">
+      <c r="A60">
+        <v>3875021</v>
+      </c>
+      <c r="C60" t="s">
+        <v>353</v>
+      </c>
+      <c r="G60" t="s">
+        <v>380</v>
+      </c>
+      <c r="K60" t="s">
+        <v>404</v>
+      </c>
+      <c r="P60">
+        <v>17303</v>
+      </c>
+      <c r="Q60">
+        <v>1676</v>
+      </c>
+      <c r="S60" t="s">
+        <v>473</v>
+      </c>
+      <c r="T60" t="s">
+        <v>567</v>
+      </c>
+      <c r="AM60">
+        <v>119.15</v>
+      </c>
+      <c r="AN60">
+        <v>15.44</v>
+      </c>
+      <c r="AR60" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU60" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW60">
+        <v>2.98</v>
+      </c>
+      <c r="AX60">
+        <v>5.13</v>
+      </c>
+      <c r="BB60">
+        <v>136</v>
+      </c>
+      <c r="DN60">
+        <v>12</v>
+      </c>
+      <c r="DO60">
+        <v>2</v>
+      </c>
+      <c r="DQ60">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="61" spans="1:121">
+      <c r="A61">
+        <v>3875026</v>
+      </c>
+      <c r="C61" t="s">
+        <v>353</v>
+      </c>
+      <c r="G61" t="s">
+        <v>380</v>
+      </c>
+      <c r="K61" t="s">
+        <v>406</v>
+      </c>
+      <c r="P61">
+        <v>23968</v>
+      </c>
+      <c r="Q61">
+        <v>495</v>
+      </c>
+      <c r="S61" t="s">
+        <v>474</v>
+      </c>
+      <c r="T61" t="s">
+        <v>497</v>
+      </c>
+      <c r="AM61">
+        <v>120.01</v>
+      </c>
+      <c r="AN61">
+        <v>13.25</v>
+      </c>
+      <c r="AR61" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU61" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW61">
+        <v>2.54</v>
+      </c>
+      <c r="AX61">
+        <v>3.89</v>
+      </c>
+      <c r="BB61">
+        <v>105</v>
+      </c>
+      <c r="DN61">
+        <v>5</v>
+      </c>
+      <c r="DO61">
+        <v>1</v>
+      </c>
+      <c r="DQ61">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:121">
+      <c r="A62">
+        <v>3416724</v>
+      </c>
+      <c r="C62" t="s">
+        <v>353</v>
+      </c>
+      <c r="G62" t="s">
+        <v>380</v>
+      </c>
+      <c r="K62" t="s">
+        <v>404</v>
+      </c>
+      <c r="P62">
+        <v>5438</v>
+      </c>
+      <c r="Q62">
+        <v>1289</v>
+      </c>
+      <c r="S62" t="s">
+        <v>475</v>
+      </c>
+      <c r="T62" t="s">
+        <v>568</v>
+      </c>
+      <c r="AM62">
+        <v>123.71</v>
+      </c>
+      <c r="AN62">
+        <v>15.77</v>
+      </c>
+      <c r="AR62" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU62" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW62">
+        <v>3.03</v>
+      </c>
+      <c r="AX62">
+        <v>5.11</v>
+      </c>
+      <c r="BB62">
+        <v>135</v>
+      </c>
+      <c r="DN62">
+        <v>13</v>
+      </c>
+      <c r="DO62">
+        <v>3</v>
+      </c>
+      <c r="DQ62">
+        <v>4.97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:121">
+      <c r="A63">
+        <v>3584689</v>
+      </c>
+      <c r="C63" t="s">
+        <v>353</v>
+      </c>
+      <c r="G63" t="s">
+        <v>380</v>
+      </c>
+      <c r="K63" t="s">
+        <v>404</v>
+      </c>
+      <c r="P63">
+        <v>12470</v>
+      </c>
+      <c r="Q63">
+        <v>1027</v>
+      </c>
+      <c r="S63" t="s">
+        <v>476</v>
+      </c>
+      <c r="T63" t="s">
+        <v>428</v>
+      </c>
+      <c r="AM63">
+        <v>117.44</v>
+      </c>
+      <c r="AN63">
+        <v>15.25</v>
+      </c>
+      <c r="AR63" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU63" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW63">
+        <v>2.9</v>
+      </c>
+      <c r="AX63">
+        <v>4.98</v>
+      </c>
+      <c r="BB63">
+        <v>135</v>
+      </c>
+      <c r="DN63">
+        <v>12</v>
+      </c>
+      <c r="DO63">
+        <v>1</v>
+      </c>
+      <c r="DQ63">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:121">
+      <c r="A64">
+        <v>3584704</v>
+      </c>
+      <c r="C64" t="s">
+        <v>353</v>
+      </c>
+      <c r="G64" t="s">
+        <v>380</v>
+      </c>
+      <c r="K64" t="s">
+        <v>404</v>
+      </c>
+      <c r="P64">
+        <v>10818</v>
+      </c>
+      <c r="Q64">
+        <v>1024</v>
+      </c>
+      <c r="S64" t="s">
+        <v>477</v>
+      </c>
+      <c r="T64" t="s">
+        <v>569</v>
+      </c>
+      <c r="AM64">
+        <v>119.47</v>
+      </c>
+      <c r="AN64">
+        <v>15.5</v>
+      </c>
+      <c r="AR64" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU64" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW64">
+        <v>3</v>
+      </c>
+      <c r="AX64">
+        <v>4.98</v>
+      </c>
+      <c r="BB64">
+        <v>136</v>
+      </c>
+      <c r="DN64">
+        <v>11</v>
+      </c>
+      <c r="DO64">
+        <v>2</v>
+      </c>
+      <c r="DQ64">
+        <v>5.06</v>
+      </c>
+    </row>
+    <row r="65" spans="1:121">
+      <c r="A65">
+        <v>3327642</v>
+      </c>
+      <c r="C65" t="s">
+        <v>353</v>
+      </c>
+      <c r="G65" t="s">
+        <v>380</v>
+      </c>
+      <c r="K65" t="s">
+        <v>404</v>
+      </c>
+      <c r="P65">
+        <v>1929</v>
+      </c>
+      <c r="Q65">
+        <v>1929</v>
+      </c>
+      <c r="S65" t="s">
+        <v>478</v>
+      </c>
+      <c r="T65" t="s">
+        <v>570</v>
+      </c>
+      <c r="AM65">
+        <v>133.2</v>
+      </c>
+      <c r="AN65">
+        <v>16.3</v>
+      </c>
+      <c r="AR65" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU65" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW65">
+        <v>2.97</v>
+      </c>
+      <c r="AX65">
+        <v>5.66</v>
+      </c>
+      <c r="BB65">
+        <v>130</v>
+      </c>
+      <c r="DN65">
+        <v>14</v>
+      </c>
+      <c r="DO65">
+        <v>1</v>
+      </c>
+      <c r="DQ65">
+        <v>6.18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:121">
+      <c r="A66">
+        <v>3416717</v>
+      </c>
+      <c r="C66" t="s">
+        <v>353</v>
+      </c>
+      <c r="G66" t="s">
+        <v>380</v>
+      </c>
+      <c r="K66" t="s">
+        <v>404</v>
+      </c>
+      <c r="P66">
+        <v>4647</v>
+      </c>
+      <c r="Q66">
+        <v>498</v>
+      </c>
+      <c r="S66" t="s">
+        <v>479</v>
+      </c>
+      <c r="T66" t="s">
+        <v>571</v>
+      </c>
+      <c r="AM66">
+        <v>113.52</v>
+      </c>
+      <c r="AN66">
+        <v>14.82</v>
+      </c>
+      <c r="AR66" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU66" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW66">
+        <v>2.2</v>
+      </c>
+      <c r="AX66">
+        <v>6.18</v>
+      </c>
+      <c r="BB66">
+        <v>135</v>
+      </c>
+      <c r="DN66">
+        <v>10</v>
+      </c>
+      <c r="DO66">
+        <v>1</v>
+      </c>
+      <c r="DQ66">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:121">
+      <c r="A67">
+        <v>4077394</v>
+      </c>
+      <c r="C67" t="s">
+        <v>362</v>
+      </c>
+      <c r="G67" t="s">
+        <v>389</v>
+      </c>
+      <c r="K67" t="s">
+        <v>406</v>
+      </c>
+      <c r="P67">
+        <v>679</v>
+      </c>
+      <c r="Q67">
+        <v>679</v>
+      </c>
+      <c r="S67" t="s">
+        <v>480</v>
+      </c>
+      <c r="T67" t="s">
+        <v>485</v>
+      </c>
+      <c r="AM67">
+        <v>129.79</v>
+      </c>
+      <c r="AN67">
+        <v>13.73</v>
+      </c>
+      <c r="AR67" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU67" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW67">
+        <v>2.51</v>
+      </c>
+      <c r="AX67">
+        <v>4.44</v>
+      </c>
+      <c r="BB67">
+        <v>102</v>
+      </c>
+      <c r="DN67">
+        <v>8</v>
+      </c>
+      <c r="DO67">
+        <v>1</v>
+      </c>
+      <c r="DQ67">
+        <v>6.78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:121">
+      <c r="A68">
+        <v>4077399</v>
+      </c>
+      <c r="C68" t="s">
+        <v>362</v>
+      </c>
+      <c r="G68" t="s">
+        <v>389</v>
+      </c>
+      <c r="K68" t="s">
+        <v>406</v>
+      </c>
+      <c r="P68">
+        <v>1011</v>
+      </c>
+      <c r="Q68">
+        <v>1011</v>
+      </c>
+      <c r="S68" t="s">
+        <v>481</v>
+      </c>
+      <c r="T68" t="s">
+        <v>572</v>
+      </c>
+      <c r="AM68">
+        <v>132.61</v>
+      </c>
+      <c r="AN68">
+        <v>14</v>
+      </c>
+      <c r="AR68" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU68" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW68">
+        <v>2.77</v>
+      </c>
+      <c r="AX68">
+        <v>4.19</v>
+      </c>
+      <c r="BB68">
+        <v>103</v>
+      </c>
+      <c r="DN68">
+        <v>9</v>
+      </c>
+      <c r="DO68">
+        <v>1</v>
+      </c>
+      <c r="DQ68">
+        <v>6.33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:121">
+      <c r="A69">
+        <v>4175302</v>
+      </c>
+      <c r="C69" t="s">
+        <v>362</v>
+      </c>
+      <c r="G69" t="s">
+        <v>389</v>
+      </c>
+      <c r="K69" t="s">
+        <v>406</v>
+      </c>
+      <c r="P69">
+        <v>4017</v>
+      </c>
+      <c r="Q69">
+        <v>4017</v>
+      </c>
+      <c r="S69" t="s">
+        <v>482</v>
+      </c>
+      <c r="T69" t="s">
+        <v>573</v>
+      </c>
+      <c r="AM69">
+        <v>138.41</v>
+      </c>
+      <c r="AN69">
+        <v>14.28</v>
+      </c>
+      <c r="AR69" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU69" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW69">
+        <v>3.3</v>
+      </c>
+      <c r="AX69">
+        <v>3.77</v>
+      </c>
+      <c r="BB69">
+        <v>101</v>
+      </c>
+      <c r="DN69">
+        <v>14</v>
+      </c>
+      <c r="DO69">
+        <v>2</v>
+      </c>
+      <c r="DQ69">
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="70" spans="1:121">
+      <c r="A70">
+        <v>4175307</v>
+      </c>
+      <c r="C70" t="s">
+        <v>362</v>
+      </c>
+      <c r="G70" t="s">
+        <v>389</v>
+      </c>
+      <c r="K70" t="s">
+        <v>406</v>
+      </c>
+      <c r="P70">
+        <v>3525</v>
+      </c>
+      <c r="Q70">
+        <v>3525</v>
+      </c>
+      <c r="S70" t="s">
+        <v>483</v>
+      </c>
+      <c r="T70" t="s">
+        <v>574</v>
+      </c>
+      <c r="AM70">
+        <v>137.8</v>
+      </c>
+      <c r="AN70">
+        <v>14.3</v>
+      </c>
+      <c r="AR70" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU70" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW70">
+        <v>3.12</v>
+      </c>
+      <c r="AX70">
+        <v>3.74</v>
+      </c>
+      <c r="BB70">
+        <v>102</v>
+      </c>
+      <c r="DN70">
+        <v>13</v>
+      </c>
+      <c r="DO70">
+        <v>2</v>
+      </c>
+      <c r="DQ70">
+        <v>5.86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:121">
+      <c r="A71">
+        <v>4034279</v>
+      </c>
+      <c r="C71" t="s">
+        <v>363</v>
+      </c>
+      <c r="G71" t="s">
+        <v>390</v>
+      </c>
+      <c r="K71" t="s">
+        <v>406</v>
+      </c>
+      <c r="P71">
+        <v>3008</v>
+      </c>
+      <c r="Q71">
+        <v>1222</v>
+      </c>
+      <c r="S71" t="s">
+        <v>416</v>
+      </c>
+      <c r="T71" t="s">
+        <v>575</v>
+      </c>
+      <c r="AM71">
+        <v>132.06</v>
+      </c>
+      <c r="AN71">
+        <v>13.98</v>
+      </c>
+      <c r="AR71" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU71" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW71">
+        <v>3.11</v>
+      </c>
+      <c r="AX71">
+        <v>3.77</v>
+      </c>
+      <c r="BB71">
+        <v>103</v>
+      </c>
+      <c r="DN71">
+        <v>9</v>
+      </c>
+      <c r="DO71">
+        <v>2</v>
+      </c>
+      <c r="DQ71">
+        <v>5.44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:121">
+      <c r="A72">
+        <v>4034281</v>
+      </c>
+      <c r="C72" t="s">
+        <v>363</v>
+      </c>
+      <c r="G72" t="s">
+        <v>390</v>
+      </c>
+      <c r="K72" t="s">
+        <v>406</v>
+      </c>
+      <c r="P72">
+        <v>3619</v>
+      </c>
+      <c r="Q72">
+        <v>1833</v>
+      </c>
+      <c r="S72" t="s">
+        <v>484</v>
+      </c>
+      <c r="T72" t="s">
+        <v>576</v>
+      </c>
+      <c r="AM72">
+        <v>136.4</v>
+      </c>
+      <c r="AN72">
+        <v>14.12</v>
+      </c>
+      <c r="AR72" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU72" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW72">
+        <v>3.57</v>
+      </c>
+      <c r="AX72">
+        <v>3.08</v>
+      </c>
+      <c r="BB72">
+        <v>101</v>
+      </c>
+      <c r="DN72">
+        <v>12</v>
+      </c>
+      <c r="DO72">
+        <v>4</v>
+      </c>
+      <c r="DQ72">
+        <v>4.56</v>
+      </c>
+    </row>
+    <row r="73" spans="1:121">
+      <c r="A73">
+        <v>4034286</v>
+      </c>
+      <c r="C73" t="s">
+        <v>363</v>
+      </c>
+      <c r="G73" t="s">
+        <v>390</v>
+      </c>
+      <c r="K73" t="s">
+        <v>406</v>
+      </c>
+      <c r="P73">
+        <v>940</v>
+      </c>
+      <c r="Q73">
+        <v>940</v>
+      </c>
+      <c r="S73" t="s">
+        <v>485</v>
+      </c>
+      <c r="T73" t="s">
+        <v>577</v>
+      </c>
+      <c r="AM73">
+        <v>130.95</v>
+      </c>
+      <c r="AN73">
+        <v>13.73</v>
+      </c>
+      <c r="AR73" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU73" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW73">
+        <v>2.87</v>
+      </c>
+      <c r="AX73">
+        <v>4.73</v>
+      </c>
+      <c r="BB73">
+        <v>101</v>
+      </c>
+      <c r="DN73">
+        <v>8</v>
+      </c>
+      <c r="DO73">
+        <v>1</v>
+      </c>
+      <c r="DQ73">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:121">
+      <c r="A74">
+        <v>3390062</v>
+      </c>
+      <c r="C74" t="s">
+        <v>364</v>
+      </c>
+      <c r="G74" t="s">
+        <v>391</v>
+      </c>
+      <c r="K74" t="s">
+        <v>414</v>
+      </c>
+      <c r="S74" t="s">
+        <v>486</v>
+      </c>
+      <c r="T74" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="75" spans="1:121">
+      <c r="A75">
+        <v>4286957</v>
+      </c>
+      <c r="C75" t="s">
+        <v>349</v>
+      </c>
+      <c r="G75" t="s">
+        <v>376</v>
+      </c>
+      <c r="K75" t="s">
+        <v>401</v>
+      </c>
+      <c r="S75" t="s">
+        <v>487</v>
+      </c>
+      <c r="T75" t="s">
+        <v>579</v>
+      </c>
+      <c r="AM75">
+        <v>98.97</v>
+      </c>
+      <c r="AN75">
+        <v>13.52</v>
+      </c>
+      <c r="AR75" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU75" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW75">
+        <v>0.99</v>
+      </c>
+      <c r="AX75">
+        <v>8.08</v>
+      </c>
+      <c r="BB75">
+        <v>137</v>
+      </c>
+      <c r="DN75">
+        <v>4</v>
+      </c>
+      <c r="DO75">
+        <v>1</v>
+      </c>
+      <c r="DQ75">
+        <v>7.66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:121">
+      <c r="A76">
+        <v>3936385</v>
+      </c>
+      <c r="C76" t="s">
+        <v>365</v>
+      </c>
+      <c r="G76" t="s">
+        <v>392</v>
+      </c>
+      <c r="K76" t="s">
+        <v>412</v>
+      </c>
+      <c r="P76">
+        <v>24301</v>
+      </c>
+      <c r="Q76">
+        <v>4177</v>
+      </c>
+      <c r="S76" t="s">
+        <v>488</v>
+      </c>
+      <c r="T76" t="s">
+        <v>580</v>
+      </c>
+      <c r="AM76">
+        <v>153.82</v>
+      </c>
+      <c r="AN76">
+        <v>15.51</v>
+      </c>
+      <c r="AR76" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU76" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW76">
+        <v>3.26</v>
+      </c>
+      <c r="AX76">
+        <v>2.45</v>
+      </c>
+      <c r="BB76">
+        <v>103</v>
+      </c>
+      <c r="DN76">
+        <v>22</v>
+      </c>
+      <c r="DO76">
+        <v>10</v>
+      </c>
+      <c r="DQ76">
+        <v>4.47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:121">
+      <c r="A77">
+        <v>4358112</v>
+      </c>
+      <c r="C77" t="s">
+        <v>349</v>
+      </c>
+      <c r="G77" t="s">
+        <v>376</v>
+      </c>
+      <c r="K77" t="s">
+        <v>401</v>
+      </c>
+      <c r="P77">
+        <v>1613</v>
+      </c>
+      <c r="Q77">
+        <v>367</v>
+      </c>
+      <c r="S77" t="s">
+        <v>489</v>
+      </c>
+      <c r="T77" t="s">
+        <v>581</v>
+      </c>
+      <c r="AM77">
+        <v>107.47</v>
+      </c>
+      <c r="AN77">
+        <v>14.35</v>
+      </c>
+      <c r="AR77" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU77" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW77">
+        <v>1.97</v>
+      </c>
+      <c r="AX77">
+        <v>6.98</v>
+      </c>
+      <c r="BB77">
+        <v>136</v>
+      </c>
+      <c r="DN77">
+        <v>11</v>
+      </c>
+      <c r="DO77">
+        <v>1</v>
+      </c>
+      <c r="DQ77">
+        <v>5.81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:121">
+      <c r="A78">
+        <v>3327628</v>
+      </c>
+      <c r="C78" t="s">
+        <v>347</v>
+      </c>
+      <c r="G78" t="s">
+        <v>374</v>
+      </c>
+      <c r="K78" t="s">
+        <v>401</v>
+      </c>
+      <c r="P78">
+        <v>17057</v>
+      </c>
+      <c r="Q78">
+        <v>1424</v>
+      </c>
+      <c r="S78" t="s">
+        <v>490</v>
+      </c>
+      <c r="T78" t="s">
+        <v>582</v>
+      </c>
+      <c r="AM78">
+        <v>127.34</v>
+      </c>
+      <c r="AN78">
+        <v>16.04</v>
+      </c>
+      <c r="AR78" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU78" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW78">
+        <v>2.8</v>
+      </c>
+      <c r="AX78">
+        <v>5.78</v>
+      </c>
+      <c r="BB78">
+        <v>134</v>
+      </c>
+      <c r="DN78">
+        <v>15</v>
+      </c>
+      <c r="DO78">
+        <v>6</v>
+      </c>
+      <c r="DQ78">
+        <v>5.53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:121">
+      <c r="A79">
+        <v>3327635</v>
+      </c>
+      <c r="C79" t="s">
+        <v>347</v>
+      </c>
+      <c r="G79" t="s">
+        <v>374</v>
+      </c>
+      <c r="K79" t="s">
+        <v>401</v>
+      </c>
+      <c r="P79">
+        <v>14282</v>
+      </c>
+      <c r="Q79">
+        <v>4196</v>
+      </c>
+      <c r="S79" t="s">
+        <v>491</v>
+      </c>
+      <c r="T79" t="s">
+        <v>583</v>
+      </c>
+      <c r="AM79">
+        <v>130.09</v>
+      </c>
+      <c r="AN79">
+        <v>16.43</v>
+      </c>
+      <c r="AR79" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU79" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW79">
+        <v>2.99</v>
+      </c>
+      <c r="AX79">
+        <v>5.59</v>
+      </c>
+      <c r="BB79">
+        <v>136</v>
+      </c>
+      <c r="DN79">
+        <v>15</v>
+      </c>
+      <c r="DO79">
+        <v>7</v>
+      </c>
+      <c r="DQ79">
+        <v>5.42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:121">
+      <c r="A80">
+        <v>3327630</v>
+      </c>
+      <c r="C80" t="s">
+        <v>347</v>
+      </c>
+      <c r="G80" t="s">
+        <v>374</v>
+      </c>
+      <c r="K80" t="s">
+        <v>401</v>
+      </c>
+      <c r="P80">
+        <v>17577</v>
+      </c>
+      <c r="Q80">
+        <v>264</v>
+      </c>
+      <c r="S80" t="s">
+        <v>492</v>
+      </c>
+      <c r="T80" t="s">
+        <v>584</v>
+      </c>
+      <c r="AM80">
+        <v>128.82</v>
+      </c>
+      <c r="AN80">
+        <v>16.34</v>
+      </c>
+      <c r="AR80" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU80" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW80">
+        <v>2.97</v>
+      </c>
+      <c r="AX80">
+        <v>5.83</v>
+      </c>
+      <c r="BB80">
+        <v>136</v>
+      </c>
+      <c r="DN80">
+        <v>16</v>
+      </c>
+      <c r="DO80">
+        <v>7</v>
+      </c>
+      <c r="DQ80">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="81" spans="1:121">
+      <c r="A81">
+        <v>3257952</v>
+      </c>
+      <c r="C81" t="s">
+        <v>366</v>
+      </c>
+      <c r="G81" t="s">
+        <v>393</v>
+      </c>
+      <c r="K81" t="s">
+        <v>405</v>
+      </c>
+      <c r="P81">
+        <v>247</v>
+      </c>
+      <c r="Q81">
+        <v>75</v>
+      </c>
+      <c r="S81" t="s">
+        <v>493</v>
+      </c>
+      <c r="T81" t="s">
+        <v>585</v>
+      </c>
+      <c r="AM81">
+        <v>134.46</v>
+      </c>
+      <c r="AN81">
+        <v>13.94</v>
+      </c>
+      <c r="AR81" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU81" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW81">
+        <v>1.56</v>
+      </c>
+      <c r="AX81">
+        <v>6.27</v>
+      </c>
+      <c r="BB81">
+        <v>100</v>
+      </c>
+      <c r="DN81">
+        <v>3</v>
+      </c>
+      <c r="DO81">
+        <v>0</v>
+      </c>
+      <c r="DQ81">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:121">
+      <c r="A82">
+        <v>3584797</v>
+      </c>
+      <c r="C82" t="s">
+        <v>367</v>
+      </c>
+      <c r="G82" t="s">
+        <v>394</v>
+      </c>
+      <c r="K82" t="s">
+        <v>406</v>
+      </c>
+      <c r="P82">
+        <v>750</v>
+      </c>
+      <c r="Q82">
+        <v>750</v>
+      </c>
+      <c r="S82" t="s">
+        <v>494</v>
+      </c>
+      <c r="T82" t="s">
+        <v>586</v>
+      </c>
+      <c r="AM82">
+        <v>124.12</v>
+      </c>
+      <c r="AN82">
+        <v>13.49</v>
+      </c>
+      <c r="AR82" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU82" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW82">
+        <v>2.39</v>
+      </c>
+      <c r="AX82">
+        <v>4.85</v>
+      </c>
+      <c r="BB82">
+        <v>104</v>
+      </c>
+      <c r="DN82">
+        <v>6</v>
+      </c>
+      <c r="DO82">
+        <v>0</v>
+      </c>
+      <c r="DQ82">
+        <v>7.23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:121">
+      <c r="A83">
+        <v>3584800</v>
+      </c>
+      <c r="C83" t="s">
+        <v>367</v>
+      </c>
+      <c r="G83" t="s">
+        <v>394</v>
+      </c>
+      <c r="K83" t="s">
+        <v>406</v>
+      </c>
+      <c r="P83">
+        <v>1537</v>
+      </c>
+      <c r="Q83">
+        <v>1537</v>
+      </c>
+      <c r="S83" t="s">
+        <v>495</v>
+      </c>
+      <c r="T83" t="s">
+        <v>587</v>
+      </c>
+      <c r="AM83">
+        <v>126.74</v>
+      </c>
+      <c r="AN83">
+        <v>13.68</v>
+      </c>
+      <c r="AR83" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU83" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW83">
+        <v>2.6</v>
+      </c>
+      <c r="AX83">
+        <v>4.67</v>
+      </c>
+      <c r="BB83">
+        <v>104</v>
+      </c>
+      <c r="DN83">
+        <v>7</v>
+      </c>
+      <c r="DO83">
+        <v>1</v>
+      </c>
+      <c r="DQ83">
+        <v>6.64</v>
+      </c>
+    </row>
+    <row r="84" spans="1:121">
+      <c r="A84">
+        <v>4004897</v>
+      </c>
+      <c r="C84" t="s">
+        <v>368</v>
+      </c>
+      <c r="G84" t="s">
+        <v>395</v>
+      </c>
+      <c r="K84" t="s">
+        <v>412</v>
+      </c>
+      <c r="P84">
+        <v>2646</v>
+      </c>
+      <c r="S84" t="s">
+        <v>430</v>
+      </c>
+      <c r="T84" t="s">
+        <v>588</v>
+      </c>
+      <c r="AM84">
+        <v>131.48</v>
+      </c>
+      <c r="AN84">
+        <v>14.15</v>
+      </c>
+      <c r="AR84" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU84" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW84">
+        <v>1.3</v>
+      </c>
+      <c r="AX84">
+        <v>5.11</v>
+      </c>
+      <c r="BB84">
+        <v>106</v>
+      </c>
+      <c r="DN84">
+        <v>7</v>
+      </c>
+      <c r="DO84">
+        <v>1</v>
+      </c>
+      <c r="DQ84">
+        <v>7.08</v>
+      </c>
+    </row>
+    <row r="85" spans="1:121">
+      <c r="A85">
+        <v>4049177</v>
+      </c>
+      <c r="C85" t="s">
+        <v>368</v>
+      </c>
+      <c r="G85" t="s">
+        <v>395</v>
+      </c>
+      <c r="K85" t="s">
+        <v>407</v>
+      </c>
+      <c r="P85">
+        <v>5017</v>
+      </c>
+      <c r="Q85">
+        <v>761</v>
+      </c>
+      <c r="S85" t="s">
+        <v>496</v>
+      </c>
+      <c r="T85" t="s">
+        <v>589</v>
+      </c>
+      <c r="AM85">
+        <v>127.68</v>
+      </c>
+      <c r="AN85">
+        <v>14.26</v>
+      </c>
+      <c r="AR85" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU85" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW85">
+        <v>2.07</v>
+      </c>
+      <c r="AX85">
+        <v>5.78</v>
+      </c>
+      <c r="BB85">
+        <v>111</v>
+      </c>
+      <c r="DN85">
+        <v>8</v>
+      </c>
+      <c r="DO85">
+        <v>1</v>
+      </c>
+      <c r="DQ85">
+        <v>6.46</v>
+      </c>
+    </row>
+    <row r="86" spans="1:121">
+      <c r="A86">
+        <v>4068766</v>
+      </c>
+      <c r="C86" t="s">
+        <v>369</v>
+      </c>
+      <c r="G86" t="s">
+        <v>396</v>
+      </c>
+      <c r="K86" t="s">
+        <v>415</v>
+      </c>
+      <c r="P86">
+        <v>900</v>
+      </c>
+      <c r="Q86">
+        <v>900</v>
+      </c>
+      <c r="S86" t="s">
+        <v>497</v>
+      </c>
+      <c r="T86" t="s">
+        <v>590</v>
+      </c>
+      <c r="AM86">
+        <v>121.75</v>
+      </c>
+      <c r="AN86">
+        <v>13.85</v>
+      </c>
+      <c r="AR86" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU86" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW86">
+        <v>1.97</v>
+      </c>
+      <c r="AX86">
+        <v>3.86</v>
+      </c>
+      <c r="BB86">
+        <v>112</v>
+      </c>
+      <c r="DN86">
+        <v>8</v>
+      </c>
+      <c r="DO86">
+        <v>2</v>
+      </c>
+      <c r="DQ86">
+        <v>5.09</v>
+      </c>
+    </row>
+    <row r="87" spans="1:121">
+      <c r="A87">
+        <v>3625988</v>
+      </c>
+      <c r="C87" t="s">
+        <v>370</v>
+      </c>
+      <c r="G87" t="s">
+        <v>397</v>
+      </c>
+      <c r="K87" t="s">
+        <v>407</v>
+      </c>
+      <c r="P87">
+        <v>14933</v>
+      </c>
+      <c r="Q87">
+        <v>336</v>
+      </c>
+      <c r="S87" t="s">
+        <v>498</v>
+      </c>
+      <c r="T87" t="s">
+        <v>591</v>
+      </c>
+      <c r="AM87">
+        <v>127.16</v>
+      </c>
+      <c r="AN87">
+        <v>14.24</v>
+      </c>
+      <c r="AR87" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU87" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW87">
+        <v>2.2</v>
+      </c>
+      <c r="AX87">
+        <v>5.47</v>
+      </c>
+      <c r="BB87">
+        <v>111</v>
+      </c>
+      <c r="DN87">
+        <v>8</v>
+      </c>
+      <c r="DO87">
+        <v>2</v>
+      </c>
+      <c r="DQ87">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:121">
+      <c r="A88">
+        <v>3625983</v>
+      </c>
+      <c r="C88" t="s">
+        <v>370</v>
+      </c>
+      <c r="G88" t="s">
+        <v>397</v>
+      </c>
+      <c r="K88" t="s">
+        <v>407</v>
+      </c>
+      <c r="P88">
+        <v>13595</v>
+      </c>
+      <c r="Q88">
+        <v>4435</v>
+      </c>
+      <c r="S88" t="s">
+        <v>499</v>
+      </c>
+      <c r="T88" t="s">
+        <v>592</v>
+      </c>
+      <c r="AM88">
+        <v>145.81</v>
+      </c>
+      <c r="AN88">
+        <v>15.62</v>
+      </c>
+      <c r="AR88" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU88" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW88">
+        <v>3.81</v>
+      </c>
+      <c r="AX88">
+        <v>4.1</v>
+      </c>
+      <c r="BB88">
+        <v>110</v>
+      </c>
+      <c r="DN88">
+        <v>19</v>
+      </c>
+      <c r="DO88">
+        <v>12</v>
+      </c>
+      <c r="DQ88">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="89" spans="1:121">
+      <c r="A89">
+        <v>3416743</v>
+      </c>
+      <c r="C89" t="s">
+        <v>370</v>
+      </c>
+      <c r="G89" t="s">
+        <v>397</v>
+      </c>
+      <c r="K89" t="s">
+        <v>407</v>
+      </c>
+      <c r="P89">
+        <v>5682</v>
+      </c>
+      <c r="Q89">
+        <v>288</v>
+      </c>
+      <c r="S89" t="s">
+        <v>500</v>
+      </c>
+      <c r="T89" t="s">
+        <v>593</v>
+      </c>
+      <c r="AM89">
+        <v>122.68</v>
+      </c>
+      <c r="AN89">
+        <v>14.37</v>
+      </c>
+      <c r="AR89" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU89" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW89">
+        <v>1.94</v>
+      </c>
+      <c r="AX89">
+        <v>6.05</v>
+      </c>
+      <c r="BB89">
+        <v>117</v>
+      </c>
+      <c r="DN89">
+        <v>5</v>
+      </c>
+      <c r="DO89">
+        <v>1</v>
+      </c>
+      <c r="DQ89">
+        <v>6.57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:121">
+      <c r="A90">
+        <v>3416748</v>
+      </c>
+      <c r="C90" t="s">
+        <v>370</v>
+      </c>
+      <c r="G90" t="s">
+        <v>397</v>
+      </c>
+      <c r="K90" t="s">
+        <v>407</v>
+      </c>
+      <c r="P90">
+        <v>8376</v>
+      </c>
+      <c r="S90" t="s">
+        <v>501</v>
+      </c>
+      <c r="T90" t="s">
+        <v>594</v>
+      </c>
+      <c r="AM90">
+        <v>134.24</v>
+      </c>
+      <c r="AN90">
+        <v>15.21</v>
+      </c>
+      <c r="AR90" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU90" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW90">
+        <v>3.2</v>
+      </c>
+      <c r="AX90">
+        <v>3.25</v>
+      </c>
+      <c r="BB90">
+        <v>116</v>
+      </c>
+      <c r="DN90">
+        <v>16</v>
+      </c>
+      <c r="DO90">
+        <v>6</v>
+      </c>
+      <c r="DQ90">
+        <v>4.51</v>
+      </c>
+    </row>
+    <row r="91" spans="1:121">
+      <c r="A91">
+        <v>3457502</v>
+      </c>
+      <c r="C91" t="s">
+        <v>348</v>
+      </c>
+      <c r="G91" t="s">
+        <v>375</v>
+      </c>
+      <c r="K91" t="s">
+        <v>402</v>
+      </c>
+      <c r="P91">
+        <v>1365</v>
+      </c>
+      <c r="Q91">
+        <v>1365</v>
+      </c>
+      <c r="S91" t="s">
+        <v>502</v>
+      </c>
+      <c r="T91" t="s">
+        <v>452</v>
+      </c>
+      <c r="AM91">
+        <v>122.19</v>
+      </c>
+      <c r="AN91">
+        <v>13.85</v>
+      </c>
+      <c r="AR91" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU91" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW91">
+        <v>1.92</v>
+      </c>
+      <c r="AX91">
+        <v>4.41</v>
+      </c>
+      <c r="BB91">
+        <v>111</v>
+      </c>
+      <c r="DN91">
+        <v>8</v>
+      </c>
+      <c r="DO91">
+        <v>1</v>
+      </c>
+      <c r="DQ91">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:121">
+      <c r="A92">
+        <v>3289513</v>
+      </c>
+      <c r="C92" t="s">
+        <v>371</v>
+      </c>
+      <c r="G92" t="s">
+        <v>398</v>
+      </c>
+      <c r="K92" t="s">
+        <v>401</v>
+      </c>
+      <c r="S92" t="s">
+        <v>503</v>
+      </c>
+      <c r="AM92">
+        <v>101.55</v>
+      </c>
+      <c r="AN92">
+        <v>13.43</v>
+      </c>
+      <c r="AR92" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU92" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW92">
+        <v>1.48</v>
+      </c>
+      <c r="AX92">
+        <v>8.66</v>
+      </c>
+      <c r="BB92">
+        <v>131</v>
+      </c>
+      <c r="DQ92">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:121">
+      <c r="A93">
+        <v>3199217</v>
+      </c>
+      <c r="C93" t="s">
+        <v>365</v>
+      </c>
+      <c r="G93" t="s">
+        <v>392</v>
+      </c>
+      <c r="K93" t="s">
+        <v>405</v>
+      </c>
+      <c r="P93">
+        <v>413</v>
+      </c>
+      <c r="Q93">
+        <v>413</v>
+      </c>
+      <c r="S93" t="s">
+        <v>504</v>
+      </c>
+      <c r="T93" t="s">
+        <v>595</v>
+      </c>
+      <c r="AM93">
+        <v>137.68</v>
+      </c>
+      <c r="AN93">
+        <v>14.36</v>
+      </c>
+      <c r="AR93" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU93" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW93">
+        <v>2.08</v>
+      </c>
+      <c r="AX93">
+        <v>5.2</v>
+      </c>
+      <c r="BB93">
+        <v>102</v>
+      </c>
+      <c r="DN93">
+        <v>3</v>
+      </c>
+      <c r="DO93">
+        <v>0</v>
+      </c>
+      <c r="DQ93">
+        <v>6.73</v>
+      </c>
+    </row>
+    <row r="94" spans="1:121">
+      <c r="A94">
+        <v>4175218</v>
+      </c>
+      <c r="C94" t="s">
+        <v>365</v>
+      </c>
+      <c r="G94" t="s">
+        <v>392</v>
+      </c>
+      <c r="K94" t="s">
+        <v>412</v>
+      </c>
+      <c r="P94">
+        <v>28572</v>
+      </c>
+      <c r="Q94">
+        <v>269</v>
+      </c>
+      <c r="S94" t="s">
+        <v>505</v>
+      </c>
+      <c r="T94" t="s">
+        <v>417</v>
+      </c>
+      <c r="AM94">
+        <v>126.04</v>
+      </c>
+      <c r="AN94">
+        <v>13.83</v>
+      </c>
+      <c r="AR94" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU94" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW94">
+        <v>1.21</v>
+      </c>
+      <c r="AX94">
+        <v>5.02</v>
+      </c>
+      <c r="BB94">
+        <v>107</v>
+      </c>
+      <c r="DN94">
+        <v>5</v>
+      </c>
+      <c r="DO94">
+        <v>2</v>
+      </c>
+      <c r="DQ94">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:121">
+      <c r="A95">
+        <v>3199229</v>
+      </c>
+      <c r="C95" t="s">
+        <v>372</v>
+      </c>
+      <c r="G95" t="s">
+        <v>399</v>
+      </c>
+      <c r="K95" t="s">
+        <v>405</v>
+      </c>
+      <c r="P95">
+        <v>150</v>
+      </c>
+      <c r="Q95">
+        <v>150</v>
+      </c>
+      <c r="S95" t="s">
+        <v>506</v>
+      </c>
+      <c r="T95" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM95">
+        <v>133.26</v>
+      </c>
+      <c r="AN95">
+        <v>14.02</v>
+      </c>
+      <c r="AR95" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU95" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW95">
+        <v>1.49</v>
+      </c>
+      <c r="AX95">
+        <v>5.98</v>
+      </c>
+      <c r="BB95">
+        <v>102</v>
+      </c>
+      <c r="DN95">
+        <v>3</v>
+      </c>
+      <c r="DO95">
+        <v>0</v>
+      </c>
+      <c r="DQ95">
+        <v>7.57</v>
+      </c>
+    </row>
+    <row r="96" spans="1:121">
+      <c r="A96">
+        <v>3199231</v>
+      </c>
+      <c r="C96" t="s">
+        <v>372</v>
+      </c>
+      <c r="G96" t="s">
+        <v>399</v>
+      </c>
+      <c r="K96" t="s">
+        <v>405</v>
+      </c>
+      <c r="P96">
+        <v>578</v>
+      </c>
+      <c r="Q96">
+        <v>578</v>
+      </c>
+      <c r="S96" t="s">
+        <v>507</v>
+      </c>
+      <c r="T96" t="s">
+        <v>558</v>
+      </c>
+      <c r="AM96">
+        <v>141.67</v>
+      </c>
+      <c r="AN96">
+        <v>14.56</v>
+      </c>
+      <c r="AR96" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU96" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW96">
+        <v>2.25</v>
+      </c>
+      <c r="AX96">
+        <v>4.9</v>
+      </c>
+      <c r="BB96">
+        <v>101</v>
+      </c>
+      <c r="DN96">
+        <v>4</v>
+      </c>
+      <c r="DO96">
+        <v>0</v>
+      </c>
+      <c r="DQ96">
+        <v>6.36</v>
+      </c>
+    </row>
+    <row r="97" spans="1:121">
+      <c r="A97">
+        <v>3640619</v>
+      </c>
+      <c r="C97" t="s">
+        <v>372</v>
+      </c>
+      <c r="G97" t="s">
+        <v>399</v>
+      </c>
+      <c r="K97" t="s">
+        <v>405</v>
+      </c>
+      <c r="P97">
+        <v>14277</v>
+      </c>
+      <c r="Q97">
+        <v>1283</v>
+      </c>
+      <c r="S97" t="s">
+        <v>508</v>
+      </c>
+      <c r="T97" t="s">
+        <v>597</v>
+      </c>
+      <c r="AM97">
+        <v>152.15</v>
+      </c>
+      <c r="AN97">
+        <v>15.3</v>
+      </c>
+      <c r="AR97" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU97" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW97">
+        <v>3.12</v>
+      </c>
+      <c r="AX97">
+        <v>3.65</v>
+      </c>
+      <c r="BB97">
+        <v>102</v>
+      </c>
+      <c r="DN97">
+        <v>8</v>
+      </c>
+      <c r="DO97">
+        <v>4</v>
+      </c>
+      <c r="DQ97">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="98" spans="1:121">
+      <c r="A98">
+        <v>3640621</v>
+      </c>
+      <c r="C98" t="s">
+        <v>372</v>
+      </c>
+      <c r="G98" t="s">
+        <v>399</v>
+      </c>
+      <c r="K98" t="s">
+        <v>405</v>
+      </c>
+      <c r="P98">
+        <v>13693</v>
+      </c>
+      <c r="Q98">
+        <v>698</v>
+      </c>
+      <c r="S98" t="s">
+        <v>509</v>
+      </c>
+      <c r="T98" t="s">
+        <v>598</v>
+      </c>
+      <c r="AM98">
+        <v>143.36</v>
+      </c>
+      <c r="AN98">
+        <v>14.75</v>
+      </c>
+      <c r="AR98" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU98" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW98">
+        <v>2.61</v>
+      </c>
+      <c r="AX98">
+        <v>4.36</v>
+      </c>
+      <c r="BB98">
+        <v>102</v>
+      </c>
+      <c r="DN98">
+        <v>4</v>
+      </c>
+      <c r="DO98">
+        <v>1</v>
+      </c>
+      <c r="DQ98">
+        <v>5.78</v>
+      </c>
+    </row>
+    <row r="99" spans="1:121">
+      <c r="A99">
+        <v>3818292</v>
+      </c>
+      <c r="C99" t="s">
+        <v>372</v>
+      </c>
+      <c r="G99" t="s">
+        <v>399</v>
+      </c>
+      <c r="K99" t="s">
+        <v>405</v>
+      </c>
+      <c r="P99">
+        <v>18387</v>
+      </c>
+      <c r="Q99">
+        <v>530</v>
+      </c>
+      <c r="S99" t="s">
+        <v>425</v>
+      </c>
+      <c r="T99" t="s">
+        <v>599</v>
+      </c>
+      <c r="AM99">
+        <v>139.98</v>
+      </c>
+      <c r="AN99">
+        <v>14.53</v>
+      </c>
+      <c r="AR99" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU99" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW99">
+        <v>2.43</v>
+      </c>
+      <c r="AX99">
+        <v>4.63</v>
+      </c>
+      <c r="BB99">
+        <v>103</v>
+      </c>
+      <c r="DN99">
+        <v>4</v>
+      </c>
+      <c r="DO99">
+        <v>2</v>
+      </c>
+      <c r="DQ99">
+        <v>6.13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:121">
+      <c r="A100">
+        <v>3640614</v>
+      </c>
+      <c r="C100" t="s">
+        <v>365</v>
+      </c>
+      <c r="G100" t="s">
+        <v>392</v>
+      </c>
+      <c r="K100" t="s">
+        <v>405</v>
+      </c>
+      <c r="P100">
+        <v>12542</v>
+      </c>
+      <c r="Q100">
+        <v>2000</v>
+      </c>
+      <c r="S100" t="s">
+        <v>510</v>
+      </c>
+      <c r="T100" t="s">
+        <v>600</v>
+      </c>
+      <c r="AM100">
+        <v>161.88</v>
+      </c>
+      <c r="AN100">
+        <v>16</v>
+      </c>
+      <c r="AR100" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU100" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW100">
+        <v>3.53</v>
+      </c>
+      <c r="AX100">
+        <v>2.53</v>
+      </c>
+      <c r="BB100">
+        <v>102</v>
+      </c>
+      <c r="DN100">
+        <v>14</v>
+      </c>
+      <c r="DO100">
+        <v>10</v>
+      </c>
+      <c r="DQ100">
+        <v>3.87</v>
+      </c>
+    </row>
+    <row r="101" spans="1:121">
+      <c r="A101">
+        <v>3818285</v>
+      </c>
+      <c r="C101" t="s">
+        <v>365</v>
+      </c>
+      <c r="G101" t="s">
+        <v>392</v>
+      </c>
+      <c r="K101" t="s">
+        <v>405</v>
+      </c>
+      <c r="P101">
+        <v>17848</v>
+      </c>
+      <c r="Q101">
+        <v>916</v>
+      </c>
+      <c r="S101" t="s">
+        <v>511</v>
+      </c>
+      <c r="T101" t="s">
+        <v>601</v>
+      </c>
+      <c r="AM101">
+        <v>143.24</v>
+      </c>
+      <c r="AN101">
+        <v>14.76</v>
+      </c>
+      <c r="AR101" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU101" t="s">
+        <v>602</v>
+      </c>
+      <c r="AW101">
+        <v>2.83</v>
+      </c>
+      <c r="AX101">
+        <v>4.07</v>
+      </c>
+      <c r="BB101">
+        <v>102</v>
+      </c>
+      <c r="DN101">
+        <v>5</v>
+      </c>
+      <c r="DO101">
+        <v>2</v>
+      </c>
+      <c r="DQ101">
+        <v>5.57</v>
       </c>
     </row>
   </sheetData>

--- a/csv_converted.xlsx
+++ b/csv_converted.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dieterchvatal/Documents/Anaconda/oildata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBBE6912-1BFE-D34C-8321-9584FEFFA068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="920" yWindow="500" windowWidth="26420" windowHeight="16060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Zusammenfassung" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="612">
   <si>
     <t>SampleID</t>
   </si>
@@ -1057,779 +1064,809 @@
     <t>1445343 Z588</t>
   </si>
   <si>
+    <t>BGA Günther I - Container Nord</t>
+  </si>
+  <si>
+    <t>Mobil Pegasus 605 Ultra</t>
+  </si>
+  <si>
+    <t>2020-07-31</t>
+  </si>
+  <si>
+    <t>2020-07-30</t>
+  </si>
+  <si>
+    <t>&lt; 0.1</t>
+  </si>
+  <si>
+    <t>2020-08-10</t>
+  </si>
+  <si>
+    <t>2020-08-06</t>
+  </si>
+  <si>
     <t>1164601 T749</t>
   </si>
   <si>
+    <t>Spie Fujitsu Augsburg</t>
+  </si>
+  <si>
+    <t>Fuchs Titan Ganymet Ultra</t>
+  </si>
+  <si>
+    <t>2017-10-10</t>
+  </si>
+  <si>
+    <t>2017-10-06</t>
+  </si>
+  <si>
     <t>1320161 V040</t>
   </si>
   <si>
+    <t>BGA Menz II</t>
+  </si>
+  <si>
+    <t>Total Nateria MP 40</t>
+  </si>
+  <si>
+    <t>2018-05-15</t>
+  </si>
+  <si>
+    <t>2018-05-14</t>
+  </si>
+  <si>
     <t>1313076 U819</t>
   </si>
   <si>
+    <t>Klärschlammvergasung Koblenz</t>
+  </si>
+  <si>
+    <t>2020-06-29</t>
+  </si>
+  <si>
+    <t>2020-06-22</t>
+  </si>
+  <si>
+    <t>2020-06-17</t>
+  </si>
+  <si>
     <t>1064140 O830</t>
   </si>
   <si>
+    <t>Brigachschiene I</t>
+  </si>
+  <si>
+    <t>keine Angabe</t>
+  </si>
+  <si>
+    <t>2018-12-19</t>
+  </si>
+  <si>
+    <t>2018-11-28</t>
+  </si>
+  <si>
     <t>1235680 D490</t>
   </si>
   <si>
+    <t>BGA Römerhügel</t>
+  </si>
+  <si>
+    <t>Tectrol MethaFlexx HC premium</t>
+  </si>
+  <si>
+    <t>2017-07-28</t>
+  </si>
+  <si>
+    <t>2017-07-25</t>
+  </si>
+  <si>
     <t>1232512 O222</t>
   </si>
   <si>
+    <t>Aquasol Rottweil</t>
+  </si>
+  <si>
+    <t>Mobil Pegasus 705</t>
+  </si>
+  <si>
+    <t>2015-07-13</t>
+  </si>
+  <si>
+    <t>2015-07-01</t>
+  </si>
+  <si>
     <t>1193737 U502</t>
   </si>
   <si>
+    <t>Juragas Beilngries</t>
+  </si>
+  <si>
+    <t>Petro-Canada Sentron LD 5000</t>
+  </si>
+  <si>
+    <t>2019-05-08</t>
+  </si>
+  <si>
+    <t>2019-05-07</t>
+  </si>
+  <si>
     <t>1464150 AD16</t>
   </si>
   <si>
+    <t>BGA Schindelbach II</t>
+  </si>
+  <si>
+    <t>Addinol GMO MG 40 Extra LA</t>
+  </si>
+  <si>
+    <t>2020-12-14</t>
+  </si>
+  <si>
+    <t>2020-12-10</t>
+  </si>
+  <si>
     <t>1340386 V639</t>
   </si>
   <si>
+    <t>Bioenergie Drexler</t>
+  </si>
+  <si>
+    <t>Tectrol MethaFlexx Premium</t>
+  </si>
+  <si>
+    <t>2018-07-19</t>
+  </si>
+  <si>
+    <t>2018-07-18</t>
+  </si>
+  <si>
+    <t>2018-08-28</t>
+  </si>
+  <si>
+    <t>2018-08-27</t>
+  </si>
+  <si>
+    <t>Tectrol MethaFlexx premium</t>
+  </si>
+  <si>
+    <t>2019-02-06</t>
+  </si>
+  <si>
+    <t>2019-02-04</t>
+  </si>
+  <si>
+    <t>2020-01-02</t>
+  </si>
+  <si>
+    <t>2019-12-30</t>
+  </si>
+  <si>
     <t>1210354 G773</t>
   </si>
   <si>
+    <t>BGA Muffler</t>
+  </si>
+  <si>
+    <t>Mobil Pegasus 710</t>
+  </si>
+  <si>
+    <t>2012-02-07</t>
+  </si>
+  <si>
+    <t>2012-02-05</t>
+  </si>
+  <si>
     <t>1077358 P799</t>
   </si>
   <si>
+    <t>BGA Unterstall</t>
+  </si>
+  <si>
+    <t>2015-03-17</t>
+  </si>
+  <si>
+    <t>2015-03-15</t>
+  </si>
+  <si>
+    <t>2015-07-21</t>
+  </si>
+  <si>
+    <t>2015-07-20</t>
+  </si>
+  <si>
+    <t>2015-08-21</t>
+  </si>
+  <si>
+    <t>2015-08-17</t>
+  </si>
+  <si>
     <t>5639401 E915</t>
   </si>
   <si>
+    <t>BGA Ewald Bräunlingen III</t>
+  </si>
+  <si>
+    <t>Mobil Pegasus 610</t>
+  </si>
+  <si>
+    <t>2011-02-16</t>
+  </si>
+  <si>
+    <t>2011-02-12</t>
+  </si>
+  <si>
+    <t>2014-06-06</t>
+  </si>
+  <si>
+    <t>2014-06-05</t>
+  </si>
+  <si>
+    <t>2014-02-06</t>
+  </si>
+  <si>
+    <t>2014-02-04</t>
+  </si>
+  <si>
+    <t>2014-01-13</t>
+  </si>
+  <si>
+    <t>2014-01-09</t>
+  </si>
+  <si>
+    <t>2014-07-23</t>
+  </si>
+  <si>
+    <t>2014-07-22</t>
+  </si>
+  <si>
+    <t>2014-11-25</t>
+  </si>
+  <si>
+    <t>2014-11-24</t>
+  </si>
+  <si>
+    <t>2015-07-08</t>
+  </si>
+  <si>
+    <t>2015-07-06</t>
+  </si>
+  <si>
+    <t>2015-10-28</t>
+  </si>
+  <si>
+    <t>2015-10-26</t>
+  </si>
+  <si>
+    <t>2014-09-08</t>
+  </si>
+  <si>
+    <t>2014-09-05</t>
+  </si>
+  <si>
+    <t>Addinol Gas Engine Oil NG 40</t>
+  </si>
+  <si>
+    <t>2015-10-23</t>
+  </si>
+  <si>
+    <t>2014-04-11</t>
+  </si>
+  <si>
+    <t>2014-04-10</t>
+  </si>
+  <si>
+    <t>2014-09-16</t>
+  </si>
+  <si>
+    <t>2014-09-15</t>
+  </si>
+  <si>
+    <t>2013-10-10</t>
+  </si>
+  <si>
+    <t>2013-10-08</t>
+  </si>
+  <si>
+    <t>2013-06-03</t>
+  </si>
+  <si>
+    <t>2013-05-29</t>
+  </si>
+  <si>
+    <t>2013-04-24</t>
+  </si>
+  <si>
+    <t>2013-04-22</t>
+  </si>
+  <si>
+    <t>2013-12-18</t>
+  </si>
+  <si>
+    <t>2013-12-16</t>
+  </si>
+  <si>
+    <t>2014-06-16</t>
+  </si>
+  <si>
+    <t>2014-06-13</t>
+  </si>
+  <si>
     <t>6673121 G684</t>
   </si>
   <si>
+    <t>BGA Oberland III</t>
+  </si>
+  <si>
+    <t>2017-06-06</t>
+  </si>
+  <si>
+    <t>2017-05-15</t>
+  </si>
+  <si>
+    <t>Fuchs Ganymet 40</t>
+  </si>
+  <si>
+    <t>2017-10-20</t>
+  </si>
+  <si>
+    <t>2017-11-13</t>
+  </si>
+  <si>
+    <t>2017-11-10</t>
+  </si>
+  <si>
+    <t>2014-05-26</t>
+  </si>
+  <si>
+    <t>2014-05-20</t>
+  </si>
+  <si>
+    <t>2014-07-09</t>
+  </si>
+  <si>
+    <t>2014-07-08</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2015-03-30</t>
+  </si>
+  <si>
+    <t>2015-05-19</t>
+  </si>
+  <si>
+    <t>2015-05-18</t>
+  </si>
+  <si>
+    <t>2014-09-22</t>
+  </si>
+  <si>
+    <t>2014-09-20</t>
+  </si>
+  <si>
     <t>5391591 C546</t>
   </si>
   <si>
+    <t>BGA Oberland I Busenberg</t>
+  </si>
+  <si>
+    <t>2014-06-03</t>
+  </si>
+  <si>
+    <t>2014-06-02</t>
+  </si>
+  <si>
+    <t>2014-10-01</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2015-09-10</t>
+  </si>
+  <si>
+    <t>2015-09-09</t>
+  </si>
+  <si>
+    <t>2015-11-20</t>
+  </si>
+  <si>
+    <t>2015-11-18</t>
+  </si>
+  <si>
+    <t>2016-11-11</t>
+  </si>
+  <si>
+    <t>2016-07-05</t>
+  </si>
+  <si>
+    <t>2016-11-10</t>
+  </si>
+  <si>
+    <t>2016-11-02</t>
+  </si>
+  <si>
+    <t>2015-12-17</t>
+  </si>
+  <si>
+    <t>2015-12-15</t>
+  </si>
+  <si>
+    <t>2015-07-27</t>
+  </si>
+  <si>
+    <t>2015-07-24</t>
+  </si>
+  <si>
+    <t>2017-02-24</t>
+  </si>
+  <si>
+    <t>2017-02-16</t>
+  </si>
+  <si>
+    <t>2016-04-18</t>
+  </si>
+  <si>
+    <t>2016-04-16</t>
+  </si>
+  <si>
     <t>1234265 S222</t>
   </si>
   <si>
+    <t>Häring Bubsheim</t>
+  </si>
+  <si>
+    <t>2014-07-16</t>
+  </si>
+  <si>
+    <t>2014-07-15</t>
+  </si>
+  <si>
+    <t>2014-08-06</t>
+  </si>
+  <si>
+    <t>2014-08-05</t>
+  </si>
+  <si>
+    <t>2014-10-21</t>
+  </si>
+  <si>
+    <t>2014-10-20</t>
+  </si>
+  <si>
+    <t>2019-01-29</t>
+  </si>
+  <si>
+    <t>2019-01-28</t>
+  </si>
+  <si>
+    <t>2019-03-19</t>
+  </si>
+  <si>
+    <t>2019-03-18</t>
+  </si>
+  <si>
+    <t>2020-01-10</t>
+  </si>
+  <si>
+    <t>2020-01-08</t>
+  </si>
+  <si>
+    <t>2017-11-08</t>
+  </si>
+  <si>
+    <t>2017-11-06</t>
+  </si>
+  <si>
+    <t>2018-08-29</t>
+  </si>
+  <si>
+    <t>2018-06-22</t>
+  </si>
+  <si>
+    <t>2018-06-20</t>
+  </si>
+  <si>
+    <t>2017-06-13</t>
+  </si>
+  <si>
+    <t>2017-06-12</t>
+  </si>
+  <si>
+    <t>2017-10-04</t>
+  </si>
+  <si>
     <t>1376287 X985</t>
   </si>
   <si>
+    <t>DLR H2Orizon 412</t>
+  </si>
+  <si>
+    <t>2019-11-25</t>
+  </si>
+  <si>
+    <t>2019-11-21</t>
+  </si>
+  <si>
+    <t>2019-12-10</t>
+  </si>
+  <si>
+    <t>2019-12-06</t>
+  </si>
+  <si>
+    <t>2020-05-05</t>
+  </si>
+  <si>
+    <t>2020-04-29</t>
+  </si>
+  <si>
+    <t>2020-04-07</t>
+  </si>
+  <si>
+    <t>2020-03-27</t>
+  </si>
+  <si>
     <t>1383863 Y161</t>
   </si>
   <si>
+    <t>Käppeler Bonndorf</t>
+  </si>
+  <si>
+    <t>2020-07-28</t>
+  </si>
+  <si>
+    <t>2020-11-04</t>
+  </si>
+  <si>
+    <t>2020-10-26</t>
+  </si>
+  <si>
+    <t>2019-11-18</t>
+  </si>
+  <si>
     <t>1132808 T039</t>
   </si>
   <si>
+    <t>Knauf Iphofen II</t>
+  </si>
+  <si>
+    <t>Haertol Frostox W35/65</t>
+  </si>
+  <si>
+    <t>2019-11-06</t>
+  </si>
+  <si>
+    <t>2019-11-04</t>
+  </si>
+  <si>
+    <t>2020-07-22</t>
+  </si>
+  <si>
+    <t>2020-07-19</t>
+  </si>
+  <si>
     <t>1166074 T787</t>
   </si>
   <si>
+    <t>BHKW Donautal Geflügel I</t>
+  </si>
+  <si>
+    <t>2020-01-21</t>
+  </si>
+  <si>
+    <t>2020-01-19</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
+  </si>
+  <si>
+    <t>2020-11-23</t>
+  </si>
+  <si>
+    <t>2019-01-21</t>
+  </si>
+  <si>
+    <t>2019-01-17</t>
+  </si>
+  <si>
+    <t>2018-06-28</t>
+  </si>
+  <si>
+    <t>2018-06-26</t>
+  </si>
+  <si>
+    <t>2019-02-13</t>
+  </si>
+  <si>
+    <t>2019-02-08</t>
+  </si>
+  <si>
     <t>1193326 U485</t>
   </si>
   <si>
+    <t>BGA Heim</t>
+  </si>
+  <si>
+    <t>2016-12-21</t>
+  </si>
+  <si>
+    <t>2016-12-19</t>
+  </si>
+  <si>
     <t>1334934 V478</t>
   </si>
   <si>
+    <t>Feulersdorf Eigenbedarf</t>
+  </si>
+  <si>
+    <t>2018-02-05</t>
+  </si>
+  <si>
+    <t>2018-01-31</t>
+  </si>
+  <si>
+    <t>2018-03-09</t>
+  </si>
+  <si>
+    <t>2018-03-05</t>
+  </si>
+  <si>
     <t>1344916 X036</t>
   </si>
   <si>
+    <t>BGA Schindelbach</t>
+  </si>
+  <si>
+    <t>2019-12-26</t>
+  </si>
+  <si>
+    <t>2020-05-23</t>
+  </si>
+  <si>
+    <t>2020-05-11</t>
+  </si>
+  <si>
     <t>1393759 Y408</t>
   </si>
   <si>
+    <t>BGA Rüede III</t>
+  </si>
+  <si>
+    <t>Q8 Mahler G5 SAE 40</t>
+  </si>
+  <si>
+    <t>2020-01-04</t>
+  </si>
+  <si>
     <t>1228185 U725</t>
   </si>
   <si>
+    <t>BGA Altheim Walldürn II</t>
+  </si>
+  <si>
+    <t>2019-02-05</t>
+  </si>
+  <si>
+    <t>2019-01-31</t>
+  </si>
+  <si>
+    <t>2018-12-12</t>
+  </si>
+  <si>
+    <t>2018-12-04</t>
+  </si>
+  <si>
+    <t>2018-01-18</t>
+  </si>
+  <si>
+    <t>2017-12-18</t>
+  </si>
+  <si>
+    <t>2018-04-24</t>
+  </si>
+  <si>
+    <t>2018-04-17</t>
+  </si>
+  <si>
+    <t>2017-10-25</t>
+  </si>
+  <si>
     <t>1175115 T958</t>
   </si>
   <si>
+    <t>HW Ursenwang</t>
+  </si>
+  <si>
+    <t>2017-10-16</t>
+  </si>
+  <si>
+    <t>2016-10-28</t>
+  </si>
+  <si>
+    <t>2016-10-25</t>
+  </si>
+  <si>
+    <t>2020-08-14</t>
+  </si>
+  <si>
     <t>1166070 T787</t>
   </si>
   <si>
-    <t>BGA Günther I - Container Nord</t>
-  </si>
-  <si>
-    <t>Spie Fujitsu Augsburg</t>
-  </si>
-  <si>
-    <t>BGA Menz II</t>
-  </si>
-  <si>
-    <t>Klärschlammvergasung Koblenz</t>
-  </si>
-  <si>
-    <t>Brigachschiene I</t>
-  </si>
-  <si>
-    <t>BGA Römerhügel</t>
-  </si>
-  <si>
-    <t>Aquasol Rottweil</t>
-  </si>
-  <si>
-    <t>Juragas Beilngries</t>
-  </si>
-  <si>
-    <t>BGA Schindelbach II</t>
-  </si>
-  <si>
-    <t>Bioenergie Drexler</t>
-  </si>
-  <si>
-    <t>BGA Muffler</t>
-  </si>
-  <si>
-    <t>BGA Unterstall</t>
-  </si>
-  <si>
-    <t>BGA Ewald Bräunlingen III</t>
-  </si>
-  <si>
-    <t>BGA Oberland III</t>
-  </si>
-  <si>
-    <t>BGA Oberland I Busenberg</t>
-  </si>
-  <si>
-    <t>Häring Bubsheim</t>
-  </si>
-  <si>
-    <t>DLR H2Orizon 412</t>
-  </si>
-  <si>
-    <t>Käppeler Bonndorf</t>
-  </si>
-  <si>
-    <t>Knauf Iphofen II</t>
-  </si>
-  <si>
-    <t>BHKW Donautal Geflügel I</t>
-  </si>
-  <si>
-    <t>BGA Heim</t>
-  </si>
-  <si>
-    <t>Feulersdorf Eigenbedarf</t>
-  </si>
-  <si>
-    <t>BGA Schindelbach</t>
-  </si>
-  <si>
-    <t>BGA Rüede III</t>
-  </si>
-  <si>
-    <t>BGA Altheim Walldürn II</t>
-  </si>
-  <si>
-    <t>HW Ursenwang</t>
-  </si>
-  <si>
     <t>BHKW Donautal Geflügel II</t>
   </si>
   <si>
-    <t>Mobil Pegasus 605 Ultra</t>
-  </si>
-  <si>
-    <t>Fuchs Titan Ganymet Ultra</t>
-  </si>
-  <si>
-    <t>Total Nateria MP 40</t>
-  </si>
-  <si>
-    <t>keine Angabe</t>
-  </si>
-  <si>
-    <t>Tectrol MethaFlexx HC premium</t>
-  </si>
-  <si>
-    <t>Mobil Pegasus 705</t>
-  </si>
-  <si>
-    <t>Petro-Canada Sentron LD 5000</t>
-  </si>
-  <si>
-    <t>Addinol GMO MG 40 Extra LA</t>
-  </si>
-  <si>
-    <t>Tectrol MethaFlexx Premium</t>
-  </si>
-  <si>
-    <t>Tectrol MethaFlexx premium</t>
-  </si>
-  <si>
-    <t>Mobil Pegasus 710</t>
-  </si>
-  <si>
-    <t>Mobil Pegasus 610</t>
-  </si>
-  <si>
-    <t>Addinol Gas Engine Oil NG 40</t>
-  </si>
-  <si>
-    <t>Fuchs Ganymet 40</t>
-  </si>
-  <si>
-    <t>Haertol Frostox W35/65</t>
-  </si>
-  <si>
-    <t>Q8 Mahler G5 SAE 40</t>
-  </si>
-  <si>
-    <t>2020-07-31</t>
-  </si>
-  <si>
-    <t>2020-08-10</t>
-  </si>
-  <si>
-    <t>2017-10-10</t>
-  </si>
-  <si>
-    <t>2018-05-15</t>
-  </si>
-  <si>
-    <t>2020-06-29</t>
-  </si>
-  <si>
-    <t>2020-06-22</t>
-  </si>
-  <si>
-    <t>2018-12-19</t>
-  </si>
-  <si>
-    <t>2017-07-28</t>
-  </si>
-  <si>
-    <t>2015-07-13</t>
-  </si>
-  <si>
-    <t>2019-05-08</t>
-  </si>
-  <si>
-    <t>2020-12-14</t>
-  </si>
-  <si>
-    <t>2018-07-19</t>
-  </si>
-  <si>
-    <t>2018-08-28</t>
-  </si>
-  <si>
-    <t>2019-02-06</t>
-  </si>
-  <si>
-    <t>2020-01-02</t>
-  </si>
-  <si>
-    <t>2012-02-07</t>
-  </si>
-  <si>
-    <t>2015-03-17</t>
-  </si>
-  <si>
-    <t>2015-07-21</t>
-  </si>
-  <si>
-    <t>2015-08-21</t>
-  </si>
-  <si>
-    <t>2011-02-16</t>
-  </si>
-  <si>
-    <t>2014-06-06</t>
-  </si>
-  <si>
-    <t>2014-02-06</t>
-  </si>
-  <si>
-    <t>2014-01-13</t>
-  </si>
-  <si>
-    <t>2014-07-23</t>
-  </si>
-  <si>
-    <t>2014-11-25</t>
-  </si>
-  <si>
-    <t>2015-07-08</t>
-  </si>
-  <si>
-    <t>2015-10-28</t>
-  </si>
-  <si>
-    <t>2014-09-08</t>
-  </si>
-  <si>
-    <t>2014-04-11</t>
-  </si>
-  <si>
-    <t>2014-09-16</t>
-  </si>
-  <si>
-    <t>2013-10-10</t>
-  </si>
-  <si>
-    <t>2013-06-03</t>
-  </si>
-  <si>
-    <t>2013-04-24</t>
-  </si>
-  <si>
-    <t>2013-12-18</t>
-  </si>
-  <si>
-    <t>2014-06-16</t>
-  </si>
-  <si>
-    <t>2017-06-06</t>
-  </si>
-  <si>
-    <t>2017-10-20</t>
-  </si>
-  <si>
-    <t>2017-11-13</t>
-  </si>
-  <si>
-    <t>2014-05-26</t>
-  </si>
-  <si>
-    <t>2014-07-09</t>
-  </si>
-  <si>
-    <t>2015-03-31</t>
-  </si>
-  <si>
-    <t>2015-05-19</t>
-  </si>
-  <si>
-    <t>2014-09-22</t>
-  </si>
-  <si>
-    <t>2014-06-03</t>
-  </si>
-  <si>
-    <t>2014-10-01</t>
-  </si>
-  <si>
-    <t>2015-09-10</t>
-  </si>
-  <si>
-    <t>2015-11-20</t>
-  </si>
-  <si>
-    <t>2016-11-11</t>
-  </si>
-  <si>
-    <t>2016-11-10</t>
-  </si>
-  <si>
-    <t>2015-12-17</t>
-  </si>
-  <si>
-    <t>2015-07-27</t>
-  </si>
-  <si>
-    <t>2017-02-24</t>
-  </si>
-  <si>
-    <t>2016-04-18</t>
-  </si>
-  <si>
-    <t>2014-07-16</t>
-  </si>
-  <si>
-    <t>2014-08-06</t>
-  </si>
-  <si>
-    <t>2014-10-21</t>
-  </si>
-  <si>
-    <t>2019-01-29</t>
-  </si>
-  <si>
-    <t>2019-03-19</t>
-  </si>
-  <si>
-    <t>2020-01-10</t>
-  </si>
-  <si>
-    <t>2017-11-08</t>
-  </si>
-  <si>
-    <t>2018-08-29</t>
-  </si>
-  <si>
-    <t>2018-06-22</t>
-  </si>
-  <si>
-    <t>2017-06-13</t>
-  </si>
-  <si>
-    <t>2017-10-06</t>
-  </si>
-  <si>
-    <t>2019-11-25</t>
-  </si>
-  <si>
-    <t>2019-12-10</t>
-  </si>
-  <si>
-    <t>2020-05-05</t>
-  </si>
-  <si>
-    <t>2020-04-07</t>
-  </si>
-  <si>
-    <t>2020-11-04</t>
-  </si>
-  <si>
-    <t>2019-11-21</t>
-  </si>
-  <si>
-    <t>2019-11-06</t>
-  </si>
-  <si>
-    <t>2020-07-22</t>
-  </si>
-  <si>
-    <t>2020-01-21</t>
-  </si>
-  <si>
-    <t>2020-11-25</t>
-  </si>
-  <si>
-    <t>2019-01-21</t>
-  </si>
-  <si>
-    <t>2018-06-28</t>
-  </si>
-  <si>
-    <t>2019-02-13</t>
-  </si>
-  <si>
-    <t>2016-12-21</t>
-  </si>
-  <si>
-    <t>2018-02-05</t>
-  </si>
-  <si>
-    <t>2018-03-09</t>
-  </si>
-  <si>
-    <t>2020-05-23</t>
-  </si>
-  <si>
-    <t>2020-01-08</t>
-  </si>
-  <si>
-    <t>2019-02-05</t>
-  </si>
-  <si>
-    <t>2018-12-12</t>
-  </si>
-  <si>
-    <t>2018-01-18</t>
-  </si>
-  <si>
-    <t>2018-04-24</t>
-  </si>
-  <si>
-    <t>2017-10-25</t>
-  </si>
-  <si>
-    <t>2017-10-16</t>
-  </si>
-  <si>
-    <t>2016-10-28</t>
-  </si>
-  <si>
-    <t>2020-08-14</t>
-  </si>
-  <si>
     <t>2016-10-18</t>
   </si>
   <si>
+    <t>2016-10-15</t>
+  </si>
+  <si>
     <t>2016-11-03</t>
   </si>
   <si>
     <t>2018-11-09</t>
   </si>
   <si>
+    <t>2018-11-07</t>
+  </si>
+  <si>
     <t>2018-10-11</t>
   </si>
   <si>
+    <t>2018-10-09</t>
+  </si>
+  <si>
+    <t>2019-05-06</t>
+  </si>
+  <si>
     <t>2018-07-06</t>
   </si>
   <si>
+    <t>2018-07-04</t>
+  </si>
+  <si>
     <t>2019-04-03</t>
   </si>
   <si>
-    <t>2020-07-30</t>
-  </si>
-  <si>
-    <t>2020-08-06</t>
-  </si>
-  <si>
-    <t>2018-05-14</t>
-  </si>
-  <si>
-    <t>2020-06-17</t>
-  </si>
-  <si>
-    <t>2018-11-28</t>
-  </si>
-  <si>
-    <t>2017-07-25</t>
-  </si>
-  <si>
-    <t>2015-07-01</t>
-  </si>
-  <si>
-    <t>2019-05-07</t>
-  </si>
-  <si>
-    <t>2020-12-10</t>
-  </si>
-  <si>
-    <t>2018-07-18</t>
-  </si>
-  <si>
-    <t>2018-08-27</t>
-  </si>
-  <si>
-    <t>2019-02-04</t>
-  </si>
-  <si>
-    <t>2019-12-30</t>
-  </si>
-  <si>
-    <t>2012-02-05</t>
-  </si>
-  <si>
-    <t>2015-03-15</t>
-  </si>
-  <si>
-    <t>2015-07-20</t>
-  </si>
-  <si>
-    <t>2015-08-17</t>
-  </si>
-  <si>
-    <t>2011-02-12</t>
-  </si>
-  <si>
-    <t>2014-06-05</t>
-  </si>
-  <si>
-    <t>2014-02-04</t>
-  </si>
-  <si>
-    <t>2014-01-09</t>
-  </si>
-  <si>
-    <t>2014-07-22</t>
-  </si>
-  <si>
-    <t>2014-11-24</t>
-  </si>
-  <si>
-    <t>2015-07-06</t>
-  </si>
-  <si>
-    <t>2015-10-26</t>
-  </si>
-  <si>
-    <t>2014-09-05</t>
-  </si>
-  <si>
-    <t>2015-10-23</t>
-  </si>
-  <si>
-    <t>2014-04-10</t>
-  </si>
-  <si>
-    <t>2014-09-15</t>
-  </si>
-  <si>
-    <t>2013-10-08</t>
-  </si>
-  <si>
-    <t>2013-05-29</t>
-  </si>
-  <si>
-    <t>2013-04-22</t>
-  </si>
-  <si>
-    <t>2013-12-16</t>
-  </si>
-  <si>
-    <t>2014-06-13</t>
-  </si>
-  <si>
-    <t>2017-05-15</t>
-  </si>
-  <si>
-    <t>2017-11-10</t>
-  </si>
-  <si>
-    <t>2014-05-20</t>
-  </si>
-  <si>
-    <t>2014-07-08</t>
-  </si>
-  <si>
-    <t>2015-03-30</t>
-  </si>
-  <si>
-    <t>2015-05-18</t>
-  </si>
-  <si>
-    <t>2014-09-20</t>
-  </si>
-  <si>
-    <t>2014-06-02</t>
-  </si>
-  <si>
-    <t>2014-09-30</t>
-  </si>
-  <si>
-    <t>2015-09-09</t>
-  </si>
-  <si>
-    <t>2015-11-18</t>
-  </si>
-  <si>
-    <t>2016-07-05</t>
-  </si>
-  <si>
-    <t>2016-11-02</t>
-  </si>
-  <si>
-    <t>2015-12-15</t>
-  </si>
-  <si>
-    <t>2015-07-24</t>
-  </si>
-  <si>
-    <t>2017-02-16</t>
-  </si>
-  <si>
-    <t>2016-04-16</t>
-  </si>
-  <si>
-    <t>2014-07-15</t>
-  </si>
-  <si>
-    <t>2014-08-05</t>
-  </si>
-  <si>
-    <t>2014-10-20</t>
-  </si>
-  <si>
-    <t>2019-01-28</t>
-  </si>
-  <si>
-    <t>2019-03-18</t>
-  </si>
-  <si>
-    <t>2017-11-06</t>
-  </si>
-  <si>
-    <t>2018-06-20</t>
-  </si>
-  <si>
-    <t>2017-06-12</t>
-  </si>
-  <si>
-    <t>2017-10-04</t>
-  </si>
-  <si>
-    <t>2019-12-06</t>
-  </si>
-  <si>
-    <t>2020-04-29</t>
-  </si>
-  <si>
-    <t>2020-03-27</t>
-  </si>
-  <si>
-    <t>2020-07-28</t>
-  </si>
-  <si>
-    <t>2020-10-26</t>
-  </si>
-  <si>
-    <t>2019-11-18</t>
-  </si>
-  <si>
-    <t>2019-11-04</t>
-  </si>
-  <si>
-    <t>2020-07-19</t>
-  </si>
-  <si>
-    <t>2020-01-19</t>
-  </si>
-  <si>
-    <t>2020-11-23</t>
-  </si>
-  <si>
-    <t>2019-01-17</t>
-  </si>
-  <si>
-    <t>2018-06-26</t>
-  </si>
-  <si>
-    <t>2019-02-08</t>
-  </si>
-  <si>
-    <t>2016-12-19</t>
-  </si>
-  <si>
-    <t>2018-01-31</t>
-  </si>
-  <si>
-    <t>2018-03-05</t>
-  </si>
-  <si>
-    <t>2019-12-26</t>
-  </si>
-  <si>
-    <t>2020-05-11</t>
-  </si>
-  <si>
-    <t>2020-01-04</t>
-  </si>
-  <si>
-    <t>2019-01-31</t>
-  </si>
-  <si>
-    <t>2018-12-04</t>
-  </si>
-  <si>
-    <t>2017-12-18</t>
-  </si>
-  <si>
-    <t>2018-04-17</t>
-  </si>
-  <si>
-    <t>2016-10-25</t>
-  </si>
-  <si>
-    <t>2016-10-15</t>
-  </si>
-  <si>
-    <t>2018-11-07</t>
-  </si>
-  <si>
-    <t>2018-10-09</t>
-  </si>
-  <si>
-    <t>2019-05-06</t>
-  </si>
-  <si>
-    <t>2018-07-04</t>
-  </si>
-  <si>
     <t>2019-04-01</t>
   </si>
   <si>
-    <t>&lt; 0.1</t>
+    <t>Zeilen</t>
+  </si>
+  <si>
+    <t>Eindeutige Motoren</t>
+  </si>
+  <si>
+    <t>gültige Motoren</t>
+  </si>
+  <si>
+    <t>Kumulierte Öl Stunden</t>
+  </si>
+  <si>
+    <t>Mittlere Öl Stunden pro gültigem Motor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Datei</t>
+  </si>
+  <si>
+    <t>csv_converted.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1881,17 +1918,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2179,14 +2225,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:MH101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:346">
+    <row r="1" spans="1:346" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3226,7 +3272,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="2" spans="1:346">
+    <row r="2" spans="1:346" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>4301368</v>
       </c>
@@ -3234,10 +3280,10 @@
         <v>346</v>
       </c>
       <c r="G2" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="K2" t="s">
-        <v>400</v>
+        <v>348</v>
       </c>
       <c r="P2">
         <v>220</v>
@@ -3246,10 +3292,10 @@
         <v>220</v>
       </c>
       <c r="S2" t="s">
-        <v>416</v>
+        <v>349</v>
       </c>
       <c r="T2" t="s">
-        <v>512</v>
+        <v>350</v>
       </c>
       <c r="AM2">
         <v>124.11</v>
@@ -3258,13 +3304,13 @@
         <v>14.14</v>
       </c>
       <c r="AR2" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU2" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW2">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="AX2">
         <v>4.92</v>
@@ -3282,7 +3328,7 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="3" spans="1:346">
+    <row r="3" spans="1:346" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>4301370</v>
       </c>
@@ -3290,10 +3336,10 @@
         <v>346</v>
       </c>
       <c r="G3" t="s">
-        <v>373</v>
+        <v>347</v>
       </c>
       <c r="K3" t="s">
-        <v>400</v>
+        <v>348</v>
       </c>
       <c r="P3">
         <v>388</v>
@@ -3302,10 +3348,10 @@
         <v>168</v>
       </c>
       <c r="S3" t="s">
-        <v>417</v>
+        <v>352</v>
       </c>
       <c r="T3" t="s">
-        <v>513</v>
+        <v>353</v>
       </c>
       <c r="AM3">
         <v>125.73</v>
@@ -3314,16 +3360,16 @@
         <v>14.26</v>
       </c>
       <c r="AR3" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU3" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW3">
         <v>1.42</v>
       </c>
       <c r="AX3">
-        <v>4.73</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="BB3">
         <v>113</v>
@@ -3338,18 +3384,18 @@
         <v>6.42</v>
       </c>
     </row>
-    <row r="4" spans="1:346">
+    <row r="4" spans="1:346" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3289304</v>
       </c>
       <c r="C4" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="G4" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="K4" t="s">
-        <v>401</v>
+        <v>356</v>
       </c>
       <c r="P4">
         <v>9684</v>
@@ -3358,22 +3404,22 @@
         <v>3948</v>
       </c>
       <c r="S4" t="s">
-        <v>418</v>
+        <v>357</v>
       </c>
       <c r="T4" t="s">
-        <v>479</v>
+        <v>358</v>
       </c>
       <c r="AM4">
         <v>138.49</v>
       </c>
       <c r="AN4">
-        <v>17.06</v>
+        <v>17.059999999999999</v>
       </c>
       <c r="AR4" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU4" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW4">
         <v>3.4</v>
@@ -3394,18 +3440,18 @@
         <v>5.13</v>
       </c>
     </row>
-    <row r="5" spans="1:346">
+    <row r="5" spans="1:346" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3625990</v>
       </c>
       <c r="C5" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="G5" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="K5" t="s">
-        <v>402</v>
+        <v>361</v>
       </c>
       <c r="P5">
         <v>4030</v>
@@ -3414,10 +3460,10 @@
         <v>1980</v>
       </c>
       <c r="S5" t="s">
-        <v>419</v>
+        <v>362</v>
       </c>
       <c r="T5" t="s">
-        <v>514</v>
+        <v>363</v>
       </c>
       <c r="AM5">
         <v>126.03</v>
@@ -3426,10 +3472,10 @@
         <v>14.08</v>
       </c>
       <c r="AR5" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU5" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW5">
         <v>2.31</v>
@@ -3450,24 +3496,24 @@
         <v>5.27</v>
       </c>
     </row>
-    <row r="6" spans="1:346">
+    <row r="6" spans="1:346" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4212154</v>
       </c>
       <c r="C6" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="G6" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="K6" t="s">
-        <v>401</v>
+        <v>356</v>
       </c>
       <c r="P6">
         <v>477</v>
       </c>
       <c r="S6" t="s">
-        <v>420</v>
+        <v>366</v>
       </c>
       <c r="AM6">
         <v>116.17</v>
@@ -3476,10 +3522,10 @@
         <v>14.78</v>
       </c>
       <c r="AR6" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU6" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW6">
         <v>2.31</v>
@@ -3500,18 +3546,18 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="7" spans="1:346">
+    <row r="7" spans="1:346" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4212159</v>
       </c>
       <c r="C7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="G7" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="K7" t="s">
-        <v>401</v>
+        <v>356</v>
       </c>
       <c r="P7">
         <v>290</v>
@@ -3520,10 +3566,10 @@
         <v>290</v>
       </c>
       <c r="S7" t="s">
-        <v>421</v>
+        <v>367</v>
       </c>
       <c r="T7" t="s">
-        <v>515</v>
+        <v>368</v>
       </c>
       <c r="AM7">
         <v>112.76</v>
@@ -3532,10 +3578,10 @@
         <v>14.45</v>
       </c>
       <c r="AR7" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU7" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW7">
         <v>1.87</v>
@@ -3556,41 +3602,41 @@
         <v>6.14</v>
       </c>
     </row>
-    <row r="8" spans="1:346">
+    <row r="8" spans="1:346" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3854835</v>
       </c>
       <c r="C8" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="G8" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="K8" t="s">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="P8">
         <v>20942</v>
       </c>
       <c r="S8" t="s">
-        <v>422</v>
+        <v>372</v>
       </c>
       <c r="T8" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="9" spans="1:346">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="9" spans="1:346" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3457482</v>
       </c>
       <c r="C9" t="s">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="G9" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="K9" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
       <c r="P9">
         <v>8456</v>
@@ -3599,10 +3645,10 @@
         <v>1243</v>
       </c>
       <c r="S9" t="s">
-        <v>423</v>
+        <v>377</v>
       </c>
       <c r="T9" t="s">
-        <v>517</v>
+        <v>378</v>
       </c>
       <c r="AM9">
         <v>120.78</v>
@@ -3611,10 +3657,10 @@
         <v>15.43</v>
       </c>
       <c r="AR9" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU9" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW9">
         <v>2.42</v>
@@ -3635,39 +3681,39 @@
         <v>6.09</v>
       </c>
     </row>
-    <row r="10" spans="1:346">
+    <row r="10" spans="1:346" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8046743</v>
       </c>
       <c r="C10" t="s">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="G10" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K10" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P10">
         <v>2</v>
       </c>
       <c r="S10" t="s">
-        <v>424</v>
+        <v>382</v>
       </c>
       <c r="T10" t="s">
-        <v>518</v>
+        <v>383</v>
       </c>
       <c r="AM10">
-        <v>133.92</v>
+        <v>133.91999999999999</v>
       </c>
       <c r="AN10">
         <v>13.64</v>
       </c>
       <c r="AR10" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU10" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW10">
         <v>1.57</v>
@@ -3688,18 +3734,18 @@
         <v>7.51</v>
       </c>
     </row>
-    <row r="11" spans="1:346">
+    <row r="11" spans="1:346" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3936347</v>
       </c>
       <c r="C11" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="G11" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="K11" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="P11">
         <v>18485</v>
@@ -3708,10 +3754,10 @@
         <v>967</v>
       </c>
       <c r="S11" t="s">
-        <v>425</v>
+        <v>387</v>
       </c>
       <c r="T11" t="s">
-        <v>519</v>
+        <v>388</v>
       </c>
       <c r="AM11">
         <v>128.16</v>
@@ -3720,10 +3766,10 @@
         <v>13.87</v>
       </c>
       <c r="AR11" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU11" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW11">
         <v>2.31</v>
@@ -3744,18 +3790,18 @@
         <v>6.38</v>
       </c>
     </row>
-    <row r="12" spans="1:346">
+    <row r="12" spans="1:346" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4301426</v>
       </c>
       <c r="C12" t="s">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="G12" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="K12" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="P12">
         <v>955</v>
@@ -3764,10 +3810,10 @@
         <v>955</v>
       </c>
       <c r="S12" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="T12" t="s">
-        <v>520</v>
+        <v>393</v>
       </c>
       <c r="AM12">
         <v>129.38</v>
@@ -3776,10 +3822,10 @@
         <v>14.35</v>
       </c>
       <c r="AR12" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU12" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW12">
         <v>1.99</v>
@@ -3800,18 +3846,18 @@
         <v>5.98</v>
       </c>
     </row>
-    <row r="13" spans="1:346">
+    <row r="13" spans="1:346" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3626001</v>
       </c>
       <c r="C13" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="G13" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="K13" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="P13">
         <v>5161</v>
@@ -3820,10 +3866,10 @@
         <v>2216</v>
       </c>
       <c r="S13" t="s">
-        <v>427</v>
+        <v>397</v>
       </c>
       <c r="T13" t="s">
-        <v>521</v>
+        <v>398</v>
       </c>
       <c r="AM13">
         <v>122.46</v>
@@ -3832,13 +3878,13 @@
         <v>15.79</v>
       </c>
       <c r="AR13" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU13" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW13">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="AX13">
         <v>6.23</v>
@@ -3856,18 +3902,18 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="14" spans="1:346">
+    <row r="14" spans="1:346" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3753563</v>
       </c>
       <c r="C14" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="G14" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="K14" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="P14">
         <v>6121</v>
@@ -3876,10 +3922,10 @@
         <v>3176</v>
       </c>
       <c r="S14" t="s">
-        <v>428</v>
+        <v>399</v>
       </c>
       <c r="T14" t="s">
-        <v>522</v>
+        <v>400</v>
       </c>
       <c r="AM14">
         <v>127.48</v>
@@ -3888,13 +3934,13 @@
         <v>16.13</v>
       </c>
       <c r="AR14" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU14" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW14">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="AX14">
         <v>5.9</v>
@@ -3912,18 +3958,18 @@
         <v>5.41</v>
       </c>
     </row>
-    <row r="15" spans="1:346">
+    <row r="15" spans="1:346" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3809265</v>
       </c>
       <c r="C15" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="G15" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="K15" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="P15">
         <v>9933</v>
@@ -3932,10 +3978,10 @@
         <v>2438</v>
       </c>
       <c r="S15" t="s">
-        <v>429</v>
+        <v>402</v>
       </c>
       <c r="T15" t="s">
-        <v>523</v>
+        <v>403</v>
       </c>
       <c r="AM15">
         <v>126.86</v>
@@ -3944,10 +3990,10 @@
         <v>16.14</v>
       </c>
       <c r="AR15" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU15" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW15">
         <v>2.46</v>
@@ -3968,18 +4014,18 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="16" spans="1:346">
+    <row r="16" spans="1:346" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4034399</v>
       </c>
       <c r="C16" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="G16" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="K16" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="P16">
         <v>17497</v>
@@ -3988,22 +4034,22 @@
         <v>3358</v>
       </c>
       <c r="S16" t="s">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="T16" t="s">
-        <v>524</v>
+        <v>405</v>
       </c>
       <c r="AM16">
         <v>124.86</v>
       </c>
       <c r="AN16">
-        <v>16.01</v>
+        <v>16.010000000000002</v>
       </c>
       <c r="AR16" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU16" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW16">
         <v>2.38</v>
@@ -4024,18 +4070,18 @@
         <v>5.34</v>
       </c>
     </row>
-    <row r="17" spans="1:121">
+    <row r="17" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2091284</v>
       </c>
       <c r="C17" t="s">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="G17" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="K17" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="P17">
         <v>1050</v>
@@ -4044,10 +4090,10 @@
         <v>1050</v>
       </c>
       <c r="S17" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="T17" t="s">
-        <v>525</v>
+        <v>410</v>
       </c>
       <c r="AM17">
         <v>135.26</v>
@@ -4056,10 +4102,10 @@
         <v>13.87</v>
       </c>
       <c r="AR17" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU17" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW17">
         <v>2.77</v>
@@ -4080,18 +4126,18 @@
         <v>5.29</v>
       </c>
     </row>
-    <row r="18" spans="1:121">
+    <row r="18" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2791853</v>
       </c>
       <c r="C18" t="s">
-        <v>357</v>
+        <v>411</v>
       </c>
       <c r="G18" t="s">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="K18" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P18">
         <v>15040</v>
@@ -4100,10 +4146,10 @@
         <v>1719</v>
       </c>
       <c r="S18" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="T18" t="s">
-        <v>526</v>
+        <v>414</v>
       </c>
       <c r="AM18">
         <v>144.04</v>
@@ -4112,10 +4158,10 @@
         <v>14.53</v>
       </c>
       <c r="AR18" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU18" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW18">
         <v>2.75</v>
@@ -4136,18 +4182,18 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="19" spans="1:121">
+    <row r="19" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2908489</v>
       </c>
       <c r="C19" t="s">
-        <v>357</v>
+        <v>411</v>
       </c>
       <c r="G19" t="s">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="K19" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P19">
         <v>17995</v>
@@ -4156,10 +4202,10 @@
         <v>1901</v>
       </c>
       <c r="S19" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="T19" t="s">
-        <v>527</v>
+        <v>416</v>
       </c>
       <c r="AM19">
         <v>150.69</v>
@@ -4168,10 +4214,10 @@
         <v>15.07</v>
       </c>
       <c r="AR19" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU19" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW19">
         <v>2.77</v>
@@ -4192,18 +4238,18 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="20" spans="1:121">
+    <row r="20" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2908491</v>
       </c>
       <c r="C20" t="s">
-        <v>357</v>
+        <v>411</v>
       </c>
       <c r="G20" t="s">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="K20" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P20">
         <v>18656</v>
@@ -4212,10 +4258,10 @@
         <v>2562</v>
       </c>
       <c r="S20" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="T20" t="s">
-        <v>528</v>
+        <v>418</v>
       </c>
       <c r="AM20">
         <v>151.43</v>
@@ -4224,10 +4270,10 @@
         <v>15.23</v>
       </c>
       <c r="AR20" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU20" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW20">
         <v>2.95</v>
@@ -4248,18 +4294,18 @@
         <v>4.76</v>
       </c>
     </row>
-    <row r="21" spans="1:121">
+    <row r="21" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1449107</v>
       </c>
       <c r="C21" t="s">
-        <v>358</v>
+        <v>419</v>
       </c>
       <c r="G21" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="K21" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="P21">
         <v>800</v>
@@ -4268,10 +4314,10 @@
         <v>800</v>
       </c>
       <c r="S21" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="T21" t="s">
-        <v>529</v>
+        <v>423</v>
       </c>
       <c r="AM21">
         <v>147.54</v>
@@ -4280,10 +4326,10 @@
         <v>14.53</v>
       </c>
       <c r="AR21" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU21" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW21">
         <v>2.8</v>
@@ -4304,18 +4350,18 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="22" spans="1:121">
+    <row r="22" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2524684</v>
       </c>
       <c r="C22" t="s">
-        <v>357</v>
+        <v>411</v>
       </c>
       <c r="G22" t="s">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="K22" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P22">
         <v>8873</v>
@@ -4324,10 +4370,10 @@
         <v>2579</v>
       </c>
       <c r="S22" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="T22" t="s">
-        <v>530</v>
+        <v>425</v>
       </c>
       <c r="AM22">
         <v>149.41</v>
@@ -4336,10 +4382,10 @@
         <v>15</v>
       </c>
       <c r="AR22" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU22" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW22">
         <v>3.24</v>
@@ -4360,18 +4406,18 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="23" spans="1:121">
+    <row r="23" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2546979</v>
       </c>
       <c r="C23" t="s">
-        <v>357</v>
+        <v>411</v>
       </c>
       <c r="G23" t="s">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="K23" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P23">
         <v>6106</v>
@@ -4380,10 +4426,10 @@
         <v>2122</v>
       </c>
       <c r="S23" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="T23" t="s">
-        <v>531</v>
+        <v>427</v>
       </c>
       <c r="AM23">
         <v>150.79</v>
@@ -4392,16 +4438,16 @@
         <v>15.02</v>
       </c>
       <c r="AR23" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU23" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW23">
         <v>2.73</v>
       </c>
       <c r="AX23">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="BB23">
         <v>99</v>
@@ -4416,39 +4462,39 @@
         <v>4.43</v>
       </c>
     </row>
-    <row r="24" spans="1:121">
+    <row r="24" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2546981</v>
       </c>
       <c r="C24" t="s">
-        <v>357</v>
+        <v>411</v>
       </c>
       <c r="G24" t="s">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="K24" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P24">
         <v>5494</v>
       </c>
       <c r="S24" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="T24" t="s">
-        <v>532</v>
+        <v>429</v>
       </c>
       <c r="AM24">
-        <v>148.42</v>
+        <v>148.41999999999999</v>
       </c>
       <c r="AN24">
         <v>14.65</v>
       </c>
       <c r="AR24" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU24" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW24">
         <v>2.6</v>
@@ -4469,18 +4515,18 @@
         <v>5.26</v>
       </c>
     </row>
-    <row r="25" spans="1:121">
+    <row r="25" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2621257</v>
       </c>
       <c r="C25" t="s">
-        <v>357</v>
+        <v>411</v>
       </c>
       <c r="G25" t="s">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="K25" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P25">
         <v>9981</v>
@@ -4489,10 +4535,10 @@
         <v>610</v>
       </c>
       <c r="S25" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="T25" t="s">
-        <v>533</v>
+        <v>431</v>
       </c>
       <c r="AM25">
         <v>147.15</v>
@@ -4501,10 +4547,10 @@
         <v>14.8</v>
       </c>
       <c r="AR25" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU25" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW25">
         <v>2.64</v>
@@ -4525,18 +4571,18 @@
         <v>4.24</v>
       </c>
     </row>
-    <row r="26" spans="1:121">
+    <row r="26" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2694918</v>
       </c>
       <c r="C26" t="s">
-        <v>357</v>
+        <v>411</v>
       </c>
       <c r="G26" t="s">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="K26" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P26">
         <v>12880</v>
@@ -4545,22 +4591,22 @@
         <v>3820</v>
       </c>
       <c r="S26" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="T26" t="s">
-        <v>534</v>
+        <v>433</v>
       </c>
       <c r="AM26">
-        <v>148.2</v>
+        <v>148.19999999999999</v>
       </c>
       <c r="AN26">
         <v>14.77</v>
       </c>
       <c r="AR26" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU26" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW26">
         <v>3.02</v>
@@ -4581,18 +4627,18 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="27" spans="1:121">
+    <row r="27" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2694920</v>
       </c>
       <c r="C27" t="s">
-        <v>357</v>
+        <v>411</v>
       </c>
       <c r="G27" t="s">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="K27" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P27">
         <v>17688</v>
@@ -4601,10 +4647,10 @@
         <v>1594</v>
       </c>
       <c r="S27" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="T27" t="s">
-        <v>535</v>
+        <v>435</v>
       </c>
       <c r="AM27">
         <v>148.66</v>
@@ -4613,10 +4659,10 @@
         <v>15.07</v>
       </c>
       <c r="AR27" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU27" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW27">
         <v>2.62</v>
@@ -4637,18 +4683,18 @@
         <v>5.46</v>
       </c>
     </row>
-    <row r="28" spans="1:121">
+    <row r="28" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2791841</v>
       </c>
       <c r="C28" t="s">
-        <v>357</v>
+        <v>411</v>
       </c>
       <c r="G28" t="s">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="K28" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P28">
         <v>20261</v>
@@ -4657,22 +4703,22 @@
         <v>4167</v>
       </c>
       <c r="S28" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="T28" t="s">
-        <v>536</v>
+        <v>437</v>
       </c>
       <c r="AM28">
-        <v>163.3</v>
+        <v>163.30000000000001</v>
       </c>
       <c r="AN28">
         <v>15.96</v>
       </c>
       <c r="AR28" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU28" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW28">
         <v>3.21</v>
@@ -4693,18 +4739,18 @@
         <v>3.99</v>
       </c>
     </row>
-    <row r="29" spans="1:121">
+    <row r="29" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2694797</v>
       </c>
       <c r="C29" t="s">
-        <v>358</v>
+        <v>419</v>
       </c>
       <c r="G29" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="K29" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P29">
         <v>24146</v>
@@ -4713,10 +4759,10 @@
         <v>500</v>
       </c>
       <c r="S29" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="T29" t="s">
-        <v>537</v>
+        <v>439</v>
       </c>
       <c r="AM29">
         <v>156.84</v>
@@ -4725,10 +4771,10 @@
         <v>15.33</v>
       </c>
       <c r="AR29" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU29" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW29">
         <v>3.34</v>
@@ -4749,18 +4795,18 @@
         <v>5.16</v>
       </c>
     </row>
-    <row r="30" spans="1:121">
+    <row r="30" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2840915</v>
       </c>
       <c r="C30" t="s">
-        <v>358</v>
+        <v>419</v>
       </c>
       <c r="G30" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="K30" t="s">
-        <v>412</v>
+        <v>440</v>
       </c>
       <c r="P30">
         <v>30740</v>
@@ -4769,10 +4815,10 @@
         <v>1700</v>
       </c>
       <c r="S30" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="T30" t="s">
-        <v>538</v>
+        <v>441</v>
       </c>
       <c r="AM30">
         <v>125.99</v>
@@ -4781,10 +4827,10 @@
         <v>14.16</v>
       </c>
       <c r="AR30" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU30" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW30">
         <v>2.8</v>
@@ -4802,21 +4848,21 @@
         <v>2</v>
       </c>
       <c r="DQ30">
-        <v>4.85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:121">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2547023</v>
       </c>
       <c r="C31" t="s">
-        <v>358</v>
+        <v>419</v>
       </c>
       <c r="G31" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="K31" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P31">
         <v>20936</v>
@@ -4825,22 +4871,22 @@
         <v>598</v>
       </c>
       <c r="S31" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="T31" t="s">
-        <v>539</v>
+        <v>443</v>
       </c>
       <c r="AM31">
-        <v>148.8</v>
+        <v>148.80000000000001</v>
       </c>
       <c r="AN31">
         <v>14.81</v>
       </c>
       <c r="AR31" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU31" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW31">
         <v>2.7</v>
@@ -4861,18 +4907,18 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="32" spans="1:121">
+    <row r="32" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2694792</v>
       </c>
       <c r="C32" t="s">
-        <v>358</v>
+        <v>419</v>
       </c>
       <c r="G32" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="K32" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P32">
         <v>24383</v>
@@ -4881,22 +4927,22 @@
         <v>737</v>
       </c>
       <c r="S32" t="s">
+        <v>444</v>
+      </c>
+      <c r="T32" t="s">
         <v>445</v>
       </c>
-      <c r="T32" t="s">
-        <v>540</v>
-      </c>
       <c r="AM32">
-        <v>163.05</v>
+        <v>163.05000000000001</v>
       </c>
       <c r="AN32">
         <v>15.77</v>
       </c>
       <c r="AR32" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU32" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW32">
         <v>3.9</v>
@@ -4914,21 +4960,21 @@
         <v>3</v>
       </c>
       <c r="DQ32">
-        <v>4.89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:121">
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2386832</v>
       </c>
       <c r="C33" t="s">
-        <v>357</v>
+        <v>411</v>
       </c>
       <c r="G33" t="s">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="K33" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P33">
         <v>3294</v>
@@ -4940,7 +4986,7 @@
         <v>446</v>
       </c>
       <c r="T33" t="s">
-        <v>541</v>
+        <v>447</v>
       </c>
       <c r="AM33">
         <v>147.93</v>
@@ -4949,16 +4995,16 @@
         <v>14.67</v>
       </c>
       <c r="AR33" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU33" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW33">
         <v>2.8</v>
       </c>
       <c r="AX33">
-        <v>4.69</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="BB33">
         <v>98</v>
@@ -4973,18 +5019,18 @@
         <v>4.58</v>
       </c>
     </row>
-    <row r="34" spans="1:121">
+    <row r="34" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2386899</v>
       </c>
       <c r="C34" t="s">
-        <v>357</v>
+        <v>411</v>
       </c>
       <c r="G34" t="s">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="K34" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P34">
         <v>606</v>
@@ -4993,10 +5039,10 @@
         <v>606</v>
       </c>
       <c r="S34" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="T34" t="s">
-        <v>542</v>
+        <v>449</v>
       </c>
       <c r="AM34">
         <v>136.96</v>
@@ -5005,10 +5051,10 @@
         <v>13.63</v>
       </c>
       <c r="AR34" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU34" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW34">
         <v>1.89</v>
@@ -5029,18 +5075,18 @@
         <v>5.68</v>
       </c>
     </row>
-    <row r="35" spans="1:121">
+    <row r="35" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2270511</v>
       </c>
       <c r="C35" t="s">
-        <v>358</v>
+        <v>419</v>
       </c>
       <c r="G35" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="K35" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="P35">
         <v>13414</v>
@@ -5049,10 +5095,10 @@
         <v>1157</v>
       </c>
       <c r="S35" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="T35" t="s">
-        <v>543</v>
+        <v>451</v>
       </c>
       <c r="AM35">
         <v>159.65</v>
@@ -5061,10 +5107,10 @@
         <v>15.15</v>
       </c>
       <c r="AR35" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU35" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW35">
         <v>3.69</v>
@@ -5085,18 +5131,18 @@
         <v>5.35</v>
       </c>
     </row>
-    <row r="36" spans="1:121">
+    <row r="36" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2469152</v>
       </c>
       <c r="C36" t="s">
-        <v>358</v>
+        <v>419</v>
       </c>
       <c r="G36" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="K36" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P36">
         <v>18542</v>
@@ -5105,10 +5151,10 @@
         <v>941</v>
       </c>
       <c r="S36" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="T36" t="s">
-        <v>544</v>
+        <v>453</v>
       </c>
       <c r="AM36">
         <v>153.81</v>
@@ -5117,10 +5163,10 @@
         <v>14.99</v>
       </c>
       <c r="AR36" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU36" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW36">
         <v>3.06</v>
@@ -5141,18 +5187,18 @@
         <v>4.24</v>
       </c>
     </row>
-    <row r="37" spans="1:121">
+    <row r="37" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2524704</v>
       </c>
       <c r="C37" t="s">
-        <v>358</v>
+        <v>419</v>
       </c>
       <c r="G37" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="K37" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P37">
         <v>22281</v>
@@ -5161,22 +5207,22 @@
         <v>629</v>
       </c>
       <c r="S37" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="T37" t="s">
-        <v>545</v>
+        <v>455</v>
       </c>
       <c r="AM37">
-        <v>150.92</v>
+        <v>150.91999999999999</v>
       </c>
       <c r="AN37">
         <v>14.98</v>
       </c>
       <c r="AR37" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU37" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW37">
         <v>2.83</v>
@@ -5197,18 +5243,18 @@
         <v>4.46</v>
       </c>
     </row>
-    <row r="38" spans="1:121">
+    <row r="38" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3289486</v>
       </c>
       <c r="C38" t="s">
-        <v>359</v>
+        <v>456</v>
       </c>
       <c r="G38" t="s">
-        <v>386</v>
+        <v>457</v>
       </c>
       <c r="K38" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P38">
         <v>57386</v>
@@ -5217,10 +5263,10 @@
         <v>1260</v>
       </c>
       <c r="S38" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="T38" t="s">
-        <v>546</v>
+        <v>459</v>
       </c>
       <c r="AM38">
         <v>152.32</v>
@@ -5229,10 +5275,10 @@
         <v>15.17</v>
       </c>
       <c r="AR38" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU38" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW38">
         <v>2.78</v>
@@ -5253,18 +5299,18 @@
         <v>4.93</v>
       </c>
     </row>
-    <row r="39" spans="1:121">
+    <row r="39" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3327469</v>
       </c>
       <c r="C39" t="s">
-        <v>359</v>
+        <v>456</v>
       </c>
       <c r="G39" t="s">
-        <v>386</v>
+        <v>457</v>
       </c>
       <c r="K39" t="s">
-        <v>413</v>
+        <v>460</v>
       </c>
       <c r="P39">
         <v>60730</v>
@@ -5273,10 +5319,10 @@
         <v>1152</v>
       </c>
       <c r="S39" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="T39" t="s">
-        <v>418</v>
+        <v>357</v>
       </c>
       <c r="AM39">
         <v>125.85</v>
@@ -5285,13 +5331,13 @@
         <v>15.71</v>
       </c>
       <c r="AR39" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU39" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW39">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="AX39">
         <v>5.49</v>
@@ -5309,18 +5355,18 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="40" spans="1:121">
+    <row r="40" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3327471</v>
       </c>
       <c r="C40" t="s">
-        <v>359</v>
+        <v>456</v>
       </c>
       <c r="G40" t="s">
-        <v>386</v>
+        <v>457</v>
       </c>
       <c r="K40" t="s">
-        <v>401</v>
+        <v>356</v>
       </c>
       <c r="P40">
         <v>61474</v>
@@ -5329,22 +5375,22 @@
         <v>1996</v>
       </c>
       <c r="S40" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="T40" t="s">
-        <v>547</v>
+        <v>463</v>
       </c>
       <c r="AM40">
         <v>133.4</v>
       </c>
       <c r="AN40">
-        <v>16.51</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="AR40" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU40" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW40">
         <v>2.99</v>
@@ -5365,18 +5411,18 @@
         <v>4.84</v>
       </c>
     </row>
-    <row r="41" spans="1:121">
+    <row r="41" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2524689</v>
       </c>
       <c r="C41" t="s">
-        <v>359</v>
+        <v>456</v>
       </c>
       <c r="G41" t="s">
-        <v>386</v>
+        <v>457</v>
       </c>
       <c r="K41" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P41">
         <v>31482</v>
@@ -5385,10 +5431,10 @@
         <v>422</v>
       </c>
       <c r="S41" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="T41" t="s">
-        <v>548</v>
+        <v>465</v>
       </c>
       <c r="AM41">
         <v>144.68</v>
@@ -5397,16 +5443,16 @@
         <v>14.58</v>
       </c>
       <c r="AR41" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU41" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW41">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AX41">
-        <v>4.44</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="BB41">
         <v>99</v>
@@ -5421,18 +5467,18 @@
         <v>5.03</v>
       </c>
     </row>
-    <row r="42" spans="1:121">
+    <row r="42" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2524691</v>
       </c>
       <c r="C42" t="s">
-        <v>359</v>
+        <v>456</v>
       </c>
       <c r="G42" t="s">
-        <v>386</v>
+        <v>457</v>
       </c>
       <c r="K42" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P42">
         <v>32652</v>
@@ -5441,10 +5487,10 @@
         <v>613</v>
       </c>
       <c r="S42" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="T42" t="s">
-        <v>549</v>
+        <v>467</v>
       </c>
       <c r="AM42">
         <v>146.79</v>
@@ -5453,10 +5499,10 @@
         <v>14.6</v>
       </c>
       <c r="AR42" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU42" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW42">
         <v>2.66</v>
@@ -5477,18 +5523,18 @@
         <v>4.22</v>
       </c>
     </row>
-    <row r="43" spans="1:121">
+    <row r="43" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2625189</v>
       </c>
       <c r="C43" t="s">
-        <v>359</v>
+        <v>456</v>
       </c>
       <c r="G43" t="s">
-        <v>386</v>
+        <v>457</v>
       </c>
       <c r="K43" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P43">
         <v>38866</v>
@@ -5497,22 +5543,22 @@
         <v>863</v>
       </c>
       <c r="S43" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="T43" t="s">
-        <v>550</v>
+        <v>469</v>
       </c>
       <c r="AM43">
-        <v>145.17</v>
+        <v>145.16999999999999</v>
       </c>
       <c r="AN43">
         <v>14.48</v>
       </c>
       <c r="AR43" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU43" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW43">
         <v>2.73</v>
@@ -5533,18 +5579,18 @@
         <v>5.08</v>
       </c>
     </row>
-    <row r="44" spans="1:121">
+    <row r="44" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2625191</v>
       </c>
       <c r="C44" t="s">
-        <v>359</v>
+        <v>456</v>
       </c>
       <c r="G44" t="s">
-        <v>386</v>
+        <v>457</v>
       </c>
       <c r="K44" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P44">
         <v>40038</v>
@@ -5553,22 +5599,22 @@
         <v>705</v>
       </c>
       <c r="S44" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="T44" t="s">
-        <v>551</v>
+        <v>471</v>
       </c>
       <c r="AM44">
-        <v>144.89</v>
+        <v>144.88999999999999</v>
       </c>
       <c r="AN44">
         <v>14.63</v>
       </c>
       <c r="AR44" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU44" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW44">
         <v>2.62</v>
@@ -5589,18 +5635,18 @@
         <v>5.88</v>
       </c>
     </row>
-    <row r="45" spans="1:121">
+    <row r="45" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2625242</v>
       </c>
       <c r="C45" t="s">
-        <v>359</v>
+        <v>456</v>
       </c>
       <c r="G45" t="s">
-        <v>386</v>
+        <v>457</v>
       </c>
       <c r="K45" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P45">
         <v>34299</v>
@@ -5609,10 +5655,10 @@
         <v>504</v>
       </c>
       <c r="S45" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="T45" t="s">
-        <v>552</v>
+        <v>473</v>
       </c>
       <c r="AM45">
         <v>140.96</v>
@@ -5621,10 +5667,10 @@
         <v>14.25</v>
       </c>
       <c r="AR45" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU45" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW45">
         <v>2.11</v>
@@ -5645,18 +5691,18 @@
         <v>5.31</v>
       </c>
     </row>
-    <row r="46" spans="1:121">
+    <row r="46" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>2524665</v>
       </c>
       <c r="C46" t="s">
-        <v>360</v>
+        <v>474</v>
       </c>
       <c r="G46" t="s">
-        <v>387</v>
+        <v>475</v>
       </c>
       <c r="K46" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P46">
         <v>69894</v>
@@ -5665,10 +5711,10 @@
         <v>350</v>
       </c>
       <c r="S46" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="T46" t="s">
-        <v>553</v>
+        <v>477</v>
       </c>
       <c r="AM46">
         <v>144.31</v>
@@ -5677,16 +5723,16 @@
         <v>14.59</v>
       </c>
       <c r="AR46" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU46" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW46">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="AX46">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="BB46">
         <v>100</v>
@@ -5701,18 +5747,18 @@
         <v>4.92</v>
       </c>
     </row>
-    <row r="47" spans="1:121">
+    <row r="47" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2621219</v>
       </c>
       <c r="C47" t="s">
-        <v>360</v>
+        <v>474</v>
       </c>
       <c r="G47" t="s">
-        <v>387</v>
+        <v>475</v>
       </c>
       <c r="K47" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P47">
         <v>72457</v>
@@ -5721,10 +5767,10 @@
         <v>724</v>
       </c>
       <c r="S47" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="T47" t="s">
-        <v>554</v>
+        <v>479</v>
       </c>
       <c r="AM47">
         <v>145.6</v>
@@ -5733,13 +5779,13 @@
         <v>14.54</v>
       </c>
       <c r="AR47" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU47" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW47">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="AX47">
         <v>3.81</v>
@@ -5757,18 +5803,18 @@
         <v>4.43</v>
       </c>
     </row>
-    <row r="48" spans="1:121">
+    <row r="48" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2791776</v>
       </c>
       <c r="C48" t="s">
-        <v>359</v>
+        <v>456</v>
       </c>
       <c r="G48" t="s">
-        <v>386</v>
+        <v>457</v>
       </c>
       <c r="K48" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P48">
         <v>42756</v>
@@ -5777,10 +5823,10 @@
         <v>928</v>
       </c>
       <c r="S48" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="T48" t="s">
-        <v>555</v>
+        <v>481</v>
       </c>
       <c r="AM48">
         <v>146.65</v>
@@ -5789,10 +5835,10 @@
         <v>14.89</v>
       </c>
       <c r="AR48" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU48" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW48">
         <v>2.87</v>
@@ -5813,18 +5859,18 @@
         <v>5.15</v>
       </c>
     </row>
-    <row r="49" spans="1:121">
+    <row r="49" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2973247</v>
       </c>
       <c r="C49" t="s">
-        <v>359</v>
+        <v>456</v>
       </c>
       <c r="G49" t="s">
-        <v>386</v>
+        <v>457</v>
       </c>
       <c r="K49" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P49">
         <v>44434</v>
@@ -5833,10 +5879,10 @@
         <v>1266</v>
       </c>
       <c r="S49" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
       <c r="T49" t="s">
-        <v>556</v>
+        <v>483</v>
       </c>
       <c r="AM49">
         <v>150.04</v>
@@ -5845,10 +5891,10 @@
         <v>15.14</v>
       </c>
       <c r="AR49" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU49" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW49">
         <v>2.9</v>
@@ -5869,18 +5915,18 @@
         <v>5.26</v>
       </c>
     </row>
-    <row r="50" spans="1:121">
+    <row r="50" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>3062628</v>
       </c>
       <c r="C50" t="s">
-        <v>359</v>
+        <v>456</v>
       </c>
       <c r="G50" t="s">
-        <v>386</v>
+        <v>457</v>
       </c>
       <c r="K50" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P50">
         <v>49898</v>
@@ -5889,10 +5935,10 @@
         <v>757</v>
       </c>
       <c r="S50" t="s">
-        <v>463</v>
+        <v>484</v>
       </c>
       <c r="T50" t="s">
-        <v>557</v>
+        <v>485</v>
       </c>
       <c r="AM50">
         <v>158.94</v>
@@ -5904,7 +5950,7 @@
         <v>0.1</v>
       </c>
       <c r="AU50" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW50">
         <v>2.59</v>
@@ -5925,18 +5971,18 @@
         <v>4.84</v>
       </c>
     </row>
-    <row r="51" spans="1:121">
+    <row r="51" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>3062630</v>
       </c>
       <c r="C51" t="s">
-        <v>359</v>
+        <v>456</v>
       </c>
       <c r="G51" t="s">
-        <v>386</v>
+        <v>457</v>
       </c>
       <c r="K51" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P51">
         <v>52644</v>
@@ -5945,10 +5991,10 @@
         <v>912</v>
       </c>
       <c r="S51" t="s">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="T51" t="s">
-        <v>558</v>
+        <v>487</v>
       </c>
       <c r="AM51">
         <v>151.25</v>
@@ -5957,10 +6003,10 @@
         <v>15.16</v>
       </c>
       <c r="AR51" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU51" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW51">
         <v>2.74</v>
@@ -5978,21 +6024,21 @@
         <v>2</v>
       </c>
       <c r="DQ51">
-        <v>4.69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:121">
+        <v>4.6900000000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2973273</v>
       </c>
       <c r="C52" t="s">
-        <v>358</v>
+        <v>419</v>
       </c>
       <c r="G52" t="s">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="K52" t="s">
-        <v>412</v>
+        <v>440</v>
       </c>
       <c r="P52">
         <v>31906</v>
@@ -6001,10 +6047,10 @@
         <v>1087</v>
       </c>
       <c r="S52" t="s">
-        <v>465</v>
+        <v>488</v>
       </c>
       <c r="T52" t="s">
-        <v>559</v>
+        <v>489</v>
       </c>
       <c r="AM52">
         <v>124.22</v>
@@ -6013,10 +6059,10 @@
         <v>13.75</v>
       </c>
       <c r="AR52" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU52" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW52">
         <v>2.1</v>
@@ -6037,18 +6083,18 @@
         <v>5.54</v>
       </c>
     </row>
-    <row r="53" spans="1:121">
+    <row r="53" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2621238</v>
       </c>
       <c r="C53" t="s">
-        <v>360</v>
+        <v>474</v>
       </c>
       <c r="G53" t="s">
-        <v>387</v>
+        <v>475</v>
       </c>
       <c r="K53" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P53">
         <v>79279</v>
@@ -6057,28 +6103,28 @@
         <v>490</v>
       </c>
       <c r="S53" t="s">
-        <v>466</v>
+        <v>490</v>
       </c>
       <c r="T53" t="s">
-        <v>560</v>
+        <v>491</v>
       </c>
       <c r="AM53">
-        <v>137.27</v>
+        <v>137.27000000000001</v>
       </c>
       <c r="AN53">
         <v>14.02</v>
       </c>
       <c r="AR53" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU53" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW53">
         <v>2</v>
       </c>
       <c r="AX53">
-        <v>4.77</v>
+        <v>4.7699999999999996</v>
       </c>
       <c r="BB53">
         <v>99</v>
@@ -6093,18 +6139,18 @@
         <v>6.61</v>
       </c>
     </row>
-    <row r="54" spans="1:121">
+    <row r="54" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2791769</v>
       </c>
       <c r="C54" t="s">
-        <v>360</v>
+        <v>474</v>
       </c>
       <c r="G54" t="s">
-        <v>387</v>
+        <v>475</v>
       </c>
       <c r="K54" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P54">
         <v>92830</v>
@@ -6113,10 +6159,10 @@
         <v>1478</v>
       </c>
       <c r="S54" t="s">
-        <v>467</v>
+        <v>492</v>
       </c>
       <c r="T54" t="s">
-        <v>561</v>
+        <v>493</v>
       </c>
       <c r="AM54">
         <v>133.37</v>
@@ -6125,10 +6171,10 @@
         <v>16.47</v>
       </c>
       <c r="AR54" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU54" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW54">
         <v>2.56</v>
@@ -6149,27 +6195,27 @@
         <v>5.65</v>
       </c>
     </row>
-    <row r="55" spans="1:121">
+    <row r="55" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2791771</v>
       </c>
       <c r="C55" t="s">
-        <v>360</v>
+        <v>474</v>
       </c>
       <c r="G55" t="s">
-        <v>387</v>
+        <v>475</v>
       </c>
       <c r="K55" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P55">
         <v>85007</v>
       </c>
       <c r="S55" t="s">
-        <v>468</v>
+        <v>494</v>
       </c>
       <c r="T55" t="s">
-        <v>562</v>
+        <v>495</v>
       </c>
       <c r="AM55">
         <v>155.37</v>
@@ -6178,10 +6224,10 @@
         <v>15.28</v>
       </c>
       <c r="AR55" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU55" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW55">
         <v>2.46</v>
@@ -6202,18 +6248,18 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="56" spans="1:121">
+    <row r="56" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2621308</v>
       </c>
       <c r="C56" t="s">
-        <v>361</v>
+        <v>496</v>
       </c>
       <c r="G56" t="s">
-        <v>388</v>
+        <v>497</v>
       </c>
       <c r="K56" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P56">
         <v>1287</v>
@@ -6222,10 +6268,10 @@
         <v>1287</v>
       </c>
       <c r="S56" t="s">
-        <v>469</v>
+        <v>498</v>
       </c>
       <c r="T56" t="s">
-        <v>563</v>
+        <v>499</v>
       </c>
       <c r="AM56">
         <v>152.84</v>
@@ -6234,10 +6280,10 @@
         <v>14.97</v>
       </c>
       <c r="AR56" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU56" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW56">
         <v>3.02</v>
@@ -6258,18 +6304,18 @@
         <v>3.98</v>
       </c>
     </row>
-    <row r="57" spans="1:121">
+    <row r="57" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2621310</v>
       </c>
       <c r="C57" t="s">
-        <v>361</v>
+        <v>496</v>
       </c>
       <c r="G57" t="s">
-        <v>388</v>
+        <v>497</v>
       </c>
       <c r="K57" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P57">
         <v>1757</v>
@@ -6278,10 +6324,10 @@
         <v>344</v>
       </c>
       <c r="S57" t="s">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="T57" t="s">
-        <v>564</v>
+        <v>501</v>
       </c>
       <c r="AM57">
         <v>139.56</v>
@@ -6290,13 +6336,13 @@
         <v>14.47</v>
       </c>
       <c r="AR57" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU57" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW57">
-        <v>2.03</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="AX57">
         <v>4.83</v>
@@ -6314,18 +6360,18 @@
         <v>5.44</v>
       </c>
     </row>
-    <row r="58" spans="1:121">
+    <row r="58" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2694836</v>
       </c>
       <c r="C58" t="s">
-        <v>361</v>
+        <v>496</v>
       </c>
       <c r="G58" t="s">
-        <v>388</v>
+        <v>497</v>
       </c>
       <c r="K58" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P58">
         <v>3475</v>
@@ -6334,28 +6380,28 @@
         <v>346</v>
       </c>
       <c r="S58" t="s">
-        <v>471</v>
+        <v>502</v>
       </c>
       <c r="T58" t="s">
-        <v>565</v>
+        <v>503</v>
       </c>
       <c r="AM58">
-        <v>138.67</v>
+        <v>138.66999999999999</v>
       </c>
       <c r="AN58">
         <v>14.18</v>
       </c>
       <c r="AR58" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU58" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW58">
         <v>2.11</v>
       </c>
       <c r="AX58">
-        <v>4.98</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="BB58">
         <v>99</v>
@@ -6370,18 +6416,18 @@
         <v>5.44</v>
       </c>
     </row>
-    <row r="59" spans="1:121">
+    <row r="59" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>3875019</v>
       </c>
       <c r="C59" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="G59" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="K59" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
       <c r="P59">
         <v>16127</v>
@@ -6390,10 +6436,10 @@
         <v>500</v>
       </c>
       <c r="S59" t="s">
-        <v>472</v>
+        <v>504</v>
       </c>
       <c r="T59" t="s">
-        <v>566</v>
+        <v>505</v>
       </c>
       <c r="AM59">
         <v>108.52</v>
@@ -6402,10 +6448,10 @@
         <v>14.38</v>
       </c>
       <c r="AR59" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU59" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW59">
         <v>1.78</v>
@@ -6426,18 +6472,18 @@
         <v>6.53</v>
       </c>
     </row>
-    <row r="60" spans="1:121">
+    <row r="60" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>3875021</v>
       </c>
       <c r="C60" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="G60" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="K60" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
       <c r="P60">
         <v>17303</v>
@@ -6446,10 +6492,10 @@
         <v>1676</v>
       </c>
       <c r="S60" t="s">
-        <v>473</v>
+        <v>506</v>
       </c>
       <c r="T60" t="s">
-        <v>567</v>
+        <v>507</v>
       </c>
       <c r="AM60">
         <v>119.15</v>
@@ -6458,10 +6504,10 @@
         <v>15.44</v>
       </c>
       <c r="AR60" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU60" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW60">
         <v>2.98</v>
@@ -6482,18 +6528,18 @@
         <v>5.08</v>
       </c>
     </row>
-    <row r="61" spans="1:121">
+    <row r="61" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>3875026</v>
       </c>
       <c r="C61" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="G61" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="K61" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="P61">
         <v>23968</v>
@@ -6502,10 +6548,10 @@
         <v>495</v>
       </c>
       <c r="S61" t="s">
-        <v>474</v>
+        <v>508</v>
       </c>
       <c r="T61" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="AM61">
         <v>120.01</v>
@@ -6514,10 +6560,10 @@
         <v>13.25</v>
       </c>
       <c r="AR61" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU61" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW61">
         <v>2.54</v>
@@ -6538,18 +6584,18 @@
         <v>6.23</v>
       </c>
     </row>
-    <row r="62" spans="1:121">
+    <row r="62" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>3416724</v>
       </c>
       <c r="C62" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="G62" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="K62" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
       <c r="P62">
         <v>5438</v>
@@ -6558,10 +6604,10 @@
         <v>1289</v>
       </c>
       <c r="S62" t="s">
-        <v>475</v>
+        <v>510</v>
       </c>
       <c r="T62" t="s">
-        <v>568</v>
+        <v>511</v>
       </c>
       <c r="AM62">
         <v>123.71</v>
@@ -6570,16 +6616,16 @@
         <v>15.77</v>
       </c>
       <c r="AR62" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU62" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW62">
         <v>3.03</v>
       </c>
       <c r="AX62">
-        <v>5.11</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="BB62">
         <v>135</v>
@@ -6594,18 +6640,18 @@
         <v>4.97</v>
       </c>
     </row>
-    <row r="63" spans="1:121">
+    <row r="63" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>3584689</v>
       </c>
       <c r="C63" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="G63" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="K63" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
       <c r="P63">
         <v>12470</v>
@@ -6614,10 +6660,10 @@
         <v>1027</v>
       </c>
       <c r="S63" t="s">
-        <v>476</v>
+        <v>512</v>
       </c>
       <c r="T63" t="s">
-        <v>428</v>
+        <v>399</v>
       </c>
       <c r="AM63">
         <v>117.44</v>
@@ -6626,16 +6672,16 @@
         <v>15.25</v>
       </c>
       <c r="AR63" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU63" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW63">
         <v>2.9</v>
       </c>
       <c r="AX63">
-        <v>4.98</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="BB63">
         <v>135</v>
@@ -6650,18 +6696,18 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="64" spans="1:121">
+    <row r="64" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>3584704</v>
       </c>
       <c r="C64" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="G64" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="K64" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
       <c r="P64">
         <v>10818</v>
@@ -6670,10 +6716,10 @@
         <v>1024</v>
       </c>
       <c r="S64" t="s">
-        <v>477</v>
+        <v>513</v>
       </c>
       <c r="T64" t="s">
-        <v>569</v>
+        <v>514</v>
       </c>
       <c r="AM64">
         <v>119.47</v>
@@ -6682,16 +6728,16 @@
         <v>15.5</v>
       </c>
       <c r="AR64" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU64" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW64">
         <v>3</v>
       </c>
       <c r="AX64">
-        <v>4.98</v>
+        <v>4.9800000000000004</v>
       </c>
       <c r="BB64">
         <v>136</v>
@@ -6703,21 +6749,21 @@
         <v>2</v>
       </c>
       <c r="DQ64">
-        <v>5.06</v>
-      </c>
-    </row>
-    <row r="65" spans="1:121">
+        <v>5.0599999999999996</v>
+      </c>
+    </row>
+    <row r="65" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>3327642</v>
       </c>
       <c r="C65" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="G65" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="K65" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
       <c r="P65">
         <v>1929</v>
@@ -6726,22 +6772,22 @@
         <v>1929</v>
       </c>
       <c r="S65" t="s">
-        <v>478</v>
+        <v>515</v>
       </c>
       <c r="T65" t="s">
-        <v>570</v>
+        <v>516</v>
       </c>
       <c r="AM65">
-        <v>133.2</v>
+        <v>133.19999999999999</v>
       </c>
       <c r="AN65">
         <v>16.3</v>
       </c>
       <c r="AR65" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU65" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW65">
         <v>2.97</v>
@@ -6762,18 +6808,18 @@
         <v>6.18</v>
       </c>
     </row>
-    <row r="66" spans="1:121">
+    <row r="66" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>3416717</v>
       </c>
       <c r="C66" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="G66" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="K66" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
       <c r="P66">
         <v>4647</v>
@@ -6782,10 +6828,10 @@
         <v>498</v>
       </c>
       <c r="S66" t="s">
-        <v>479</v>
+        <v>358</v>
       </c>
       <c r="T66" t="s">
-        <v>571</v>
+        <v>517</v>
       </c>
       <c r="AM66">
         <v>113.52</v>
@@ -6794,13 +6840,13 @@
         <v>14.82</v>
       </c>
       <c r="AR66" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU66" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW66">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AX66">
         <v>6.18</v>
@@ -6818,18 +6864,18 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="67" spans="1:121">
+    <row r="67" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>4077394</v>
       </c>
       <c r="C67" t="s">
-        <v>362</v>
+        <v>518</v>
       </c>
       <c r="G67" t="s">
-        <v>389</v>
+        <v>519</v>
       </c>
       <c r="K67" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="P67">
         <v>679</v>
@@ -6838,10 +6884,10 @@
         <v>679</v>
       </c>
       <c r="S67" t="s">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="T67" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
       <c r="AM67">
         <v>129.79</v>
@@ -6850,16 +6896,16 @@
         <v>13.73</v>
       </c>
       <c r="AR67" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU67" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW67">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="AX67">
-        <v>4.44</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="BB67">
         <v>102</v>
@@ -6874,18 +6920,18 @@
         <v>6.78</v>
       </c>
     </row>
-    <row r="68" spans="1:121">
+    <row r="68" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>4077399</v>
       </c>
       <c r="C68" t="s">
-        <v>362</v>
+        <v>518</v>
       </c>
       <c r="G68" t="s">
-        <v>389</v>
+        <v>519</v>
       </c>
       <c r="K68" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="P68">
         <v>1011</v>
@@ -6894,28 +6940,28 @@
         <v>1011</v>
       </c>
       <c r="S68" t="s">
-        <v>481</v>
+        <v>522</v>
       </c>
       <c r="T68" t="s">
-        <v>572</v>
+        <v>523</v>
       </c>
       <c r="AM68">
-        <v>132.61</v>
+        <v>132.61000000000001</v>
       </c>
       <c r="AN68">
         <v>14</v>
       </c>
       <c r="AR68" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU68" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW68">
         <v>2.77</v>
       </c>
       <c r="AX68">
-        <v>4.19</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="BB68">
         <v>103</v>
@@ -6930,18 +6976,18 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="69" spans="1:121">
+    <row r="69" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>4175302</v>
       </c>
       <c r="C69" t="s">
-        <v>362</v>
+        <v>518</v>
       </c>
       <c r="G69" t="s">
-        <v>389</v>
+        <v>519</v>
       </c>
       <c r="K69" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="P69">
         <v>4017</v>
@@ -6950,10 +6996,10 @@
         <v>4017</v>
       </c>
       <c r="S69" t="s">
-        <v>482</v>
+        <v>524</v>
       </c>
       <c r="T69" t="s">
-        <v>573</v>
+        <v>525</v>
       </c>
       <c r="AM69">
         <v>138.41</v>
@@ -6962,10 +7008,10 @@
         <v>14.28</v>
       </c>
       <c r="AR69" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU69" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW69">
         <v>3.3</v>
@@ -6986,18 +7032,18 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="70" spans="1:121">
+    <row r="70" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>4175307</v>
       </c>
       <c r="C70" t="s">
-        <v>362</v>
+        <v>518</v>
       </c>
       <c r="G70" t="s">
-        <v>389</v>
+        <v>519</v>
       </c>
       <c r="K70" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="P70">
         <v>3525</v>
@@ -7006,22 +7052,22 @@
         <v>3525</v>
       </c>
       <c r="S70" t="s">
-        <v>483</v>
+        <v>526</v>
       </c>
       <c r="T70" t="s">
-        <v>574</v>
+        <v>527</v>
       </c>
       <c r="AM70">
-        <v>137.8</v>
+        <v>137.80000000000001</v>
       </c>
       <c r="AN70">
         <v>14.3</v>
       </c>
       <c r="AR70" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU70" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW70">
         <v>3.12</v>
@@ -7042,18 +7088,18 @@
         <v>5.86</v>
       </c>
     </row>
-    <row r="71" spans="1:121">
+    <row r="71" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>4034279</v>
       </c>
       <c r="C71" t="s">
-        <v>363</v>
+        <v>528</v>
       </c>
       <c r="G71" t="s">
-        <v>390</v>
+        <v>529</v>
       </c>
       <c r="K71" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="P71">
         <v>3008</v>
@@ -7062,10 +7108,10 @@
         <v>1222</v>
       </c>
       <c r="S71" t="s">
-        <v>416</v>
+        <v>349</v>
       </c>
       <c r="T71" t="s">
-        <v>575</v>
+        <v>530</v>
       </c>
       <c r="AM71">
         <v>132.06</v>
@@ -7074,10 +7120,10 @@
         <v>13.98</v>
       </c>
       <c r="AR71" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU71" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW71">
         <v>3.11</v>
@@ -7098,18 +7144,18 @@
         <v>5.44</v>
       </c>
     </row>
-    <row r="72" spans="1:121">
+    <row r="72" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>4034281</v>
       </c>
       <c r="C72" t="s">
-        <v>363</v>
+        <v>528</v>
       </c>
       <c r="G72" t="s">
-        <v>390</v>
+        <v>529</v>
       </c>
       <c r="K72" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="P72">
         <v>3619</v>
@@ -7118,10 +7164,10 @@
         <v>1833</v>
       </c>
       <c r="S72" t="s">
-        <v>484</v>
+        <v>531</v>
       </c>
       <c r="T72" t="s">
-        <v>576</v>
+        <v>532</v>
       </c>
       <c r="AM72">
         <v>136.4</v>
@@ -7130,10 +7176,10 @@
         <v>14.12</v>
       </c>
       <c r="AR72" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU72" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW72">
         <v>3.57</v>
@@ -7151,21 +7197,21 @@
         <v>4</v>
       </c>
       <c r="DQ72">
-        <v>4.56</v>
-      </c>
-    </row>
-    <row r="73" spans="1:121">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="73" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>4034286</v>
       </c>
       <c r="C73" t="s">
-        <v>363</v>
+        <v>528</v>
       </c>
       <c r="G73" t="s">
-        <v>390</v>
+        <v>529</v>
       </c>
       <c r="K73" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="P73">
         <v>940</v>
@@ -7174,28 +7220,28 @@
         <v>940</v>
       </c>
       <c r="S73" t="s">
-        <v>485</v>
+        <v>521</v>
       </c>
       <c r="T73" t="s">
-        <v>577</v>
+        <v>533</v>
       </c>
       <c r="AM73">
-        <v>130.95</v>
+        <v>130.94999999999999</v>
       </c>
       <c r="AN73">
         <v>13.73</v>
       </c>
       <c r="AR73" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU73" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW73">
         <v>2.87</v>
       </c>
       <c r="AX73">
-        <v>4.73</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="BB73">
         <v>101</v>
@@ -7210,44 +7256,44 @@
         <v>6.32</v>
       </c>
     </row>
-    <row r="74" spans="1:121">
+    <row r="74" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>3390062</v>
       </c>
       <c r="C74" t="s">
-        <v>364</v>
+        <v>534</v>
       </c>
       <c r="G74" t="s">
-        <v>391</v>
+        <v>535</v>
       </c>
       <c r="K74" t="s">
-        <v>414</v>
+        <v>536</v>
       </c>
       <c r="S74" t="s">
-        <v>486</v>
+        <v>537</v>
       </c>
       <c r="T74" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="75" spans="1:121">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="75" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>4286957</v>
       </c>
       <c r="C75" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="G75" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="K75" t="s">
-        <v>401</v>
+        <v>356</v>
       </c>
       <c r="S75" t="s">
-        <v>487</v>
+        <v>539</v>
       </c>
       <c r="T75" t="s">
-        <v>579</v>
+        <v>540</v>
       </c>
       <c r="AM75">
         <v>98.97</v>
@@ -7256,10 +7302,10 @@
         <v>13.52</v>
       </c>
       <c r="AR75" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU75" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW75">
         <v>0.99</v>
@@ -7280,18 +7326,18 @@
         <v>7.66</v>
       </c>
     </row>
-    <row r="76" spans="1:121">
+    <row r="76" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>3936385</v>
       </c>
       <c r="C76" t="s">
-        <v>365</v>
+        <v>541</v>
       </c>
       <c r="G76" t="s">
-        <v>392</v>
+        <v>542</v>
       </c>
       <c r="K76" t="s">
-        <v>412</v>
+        <v>440</v>
       </c>
       <c r="P76">
         <v>24301</v>
@@ -7300,10 +7346,10 @@
         <v>4177</v>
       </c>
       <c r="S76" t="s">
-        <v>488</v>
+        <v>543</v>
       </c>
       <c r="T76" t="s">
-        <v>580</v>
+        <v>544</v>
       </c>
       <c r="AM76">
         <v>153.82</v>
@@ -7312,16 +7358,16 @@
         <v>15.51</v>
       </c>
       <c r="AR76" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU76" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW76">
         <v>3.26</v>
       </c>
       <c r="AX76">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="BB76">
         <v>103</v>
@@ -7336,18 +7382,18 @@
         <v>4.47</v>
       </c>
     </row>
-    <row r="77" spans="1:121">
+    <row r="77" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>4358112</v>
       </c>
       <c r="C77" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="G77" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="K77" t="s">
-        <v>401</v>
+        <v>356</v>
       </c>
       <c r="P77">
         <v>1613</v>
@@ -7356,10 +7402,10 @@
         <v>367</v>
       </c>
       <c r="S77" t="s">
-        <v>489</v>
+        <v>545</v>
       </c>
       <c r="T77" t="s">
-        <v>581</v>
+        <v>546</v>
       </c>
       <c r="AM77">
         <v>107.47</v>
@@ -7368,10 +7414,10 @@
         <v>14.35</v>
       </c>
       <c r="AR77" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU77" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW77">
         <v>1.97</v>
@@ -7392,18 +7438,18 @@
         <v>5.81</v>
       </c>
     </row>
-    <row r="78" spans="1:121">
+    <row r="78" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>3327628</v>
       </c>
       <c r="C78" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="G78" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="K78" t="s">
-        <v>401</v>
+        <v>356</v>
       </c>
       <c r="P78">
         <v>17057</v>
@@ -7412,10 +7458,10 @@
         <v>1424</v>
       </c>
       <c r="S78" t="s">
-        <v>490</v>
+        <v>547</v>
       </c>
       <c r="T78" t="s">
-        <v>582</v>
+        <v>548</v>
       </c>
       <c r="AM78">
         <v>127.34</v>
@@ -7424,10 +7470,10 @@
         <v>16.04</v>
       </c>
       <c r="AR78" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU78" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW78">
         <v>2.8</v>
@@ -7448,18 +7494,18 @@
         <v>5.53</v>
       </c>
     </row>
-    <row r="79" spans="1:121">
+    <row r="79" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>3327635</v>
       </c>
       <c r="C79" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="G79" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="K79" t="s">
-        <v>401</v>
+        <v>356</v>
       </c>
       <c r="P79">
         <v>14282</v>
@@ -7468,10 +7514,10 @@
         <v>4196</v>
       </c>
       <c r="S79" t="s">
-        <v>491</v>
+        <v>549</v>
       </c>
       <c r="T79" t="s">
-        <v>583</v>
+        <v>550</v>
       </c>
       <c r="AM79">
         <v>130.09</v>
@@ -7480,10 +7526,10 @@
         <v>16.43</v>
       </c>
       <c r="AR79" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU79" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW79">
         <v>2.99</v>
@@ -7504,18 +7550,18 @@
         <v>5.42</v>
       </c>
     </row>
-    <row r="80" spans="1:121">
+    <row r="80" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>3327630</v>
       </c>
       <c r="C80" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="G80" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="K80" t="s">
-        <v>401</v>
+        <v>356</v>
       </c>
       <c r="P80">
         <v>17577</v>
@@ -7524,10 +7570,10 @@
         <v>264</v>
       </c>
       <c r="S80" t="s">
-        <v>492</v>
+        <v>551</v>
       </c>
       <c r="T80" t="s">
-        <v>584</v>
+        <v>552</v>
       </c>
       <c r="AM80">
         <v>128.82</v>
@@ -7536,10 +7582,10 @@
         <v>16.34</v>
       </c>
       <c r="AR80" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU80" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW80">
         <v>2.97</v>
@@ -7560,18 +7606,18 @@
         <v>5.52</v>
       </c>
     </row>
-    <row r="81" spans="1:121">
+    <row r="81" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>3257952</v>
       </c>
       <c r="C81" t="s">
-        <v>366</v>
+        <v>553</v>
       </c>
       <c r="G81" t="s">
-        <v>393</v>
+        <v>554</v>
       </c>
       <c r="K81" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P81">
         <v>247</v>
@@ -7580,10 +7626,10 @@
         <v>75</v>
       </c>
       <c r="S81" t="s">
-        <v>493</v>
+        <v>555</v>
       </c>
       <c r="T81" t="s">
-        <v>585</v>
+        <v>556</v>
       </c>
       <c r="AM81">
         <v>134.46</v>
@@ -7592,10 +7638,10 @@
         <v>13.94</v>
       </c>
       <c r="AR81" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU81" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW81">
         <v>1.56</v>
@@ -7616,18 +7662,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:121">
+    <row r="82" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>3584797</v>
       </c>
       <c r="C82" t="s">
-        <v>367</v>
+        <v>557</v>
       </c>
       <c r="G82" t="s">
-        <v>394</v>
+        <v>558</v>
       </c>
       <c r="K82" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="P82">
         <v>750</v>
@@ -7636,10 +7682,10 @@
         <v>750</v>
       </c>
       <c r="S82" t="s">
-        <v>494</v>
+        <v>559</v>
       </c>
       <c r="T82" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="AM82">
         <v>124.12</v>
@@ -7648,16 +7694,16 @@
         <v>13.49</v>
       </c>
       <c r="AR82" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU82" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW82">
         <v>2.39</v>
       </c>
       <c r="AX82">
-        <v>4.85</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="BB82">
         <v>104</v>
@@ -7672,18 +7718,18 @@
         <v>7.23</v>
       </c>
     </row>
-    <row r="83" spans="1:121">
+    <row r="83" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>3584800</v>
       </c>
       <c r="C83" t="s">
-        <v>367</v>
+        <v>557</v>
       </c>
       <c r="G83" t="s">
-        <v>394</v>
+        <v>558</v>
       </c>
       <c r="K83" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="P83">
         <v>1537</v>
@@ -7692,10 +7738,10 @@
         <v>1537</v>
       </c>
       <c r="S83" t="s">
-        <v>495</v>
+        <v>561</v>
       </c>
       <c r="T83" t="s">
-        <v>587</v>
+        <v>562</v>
       </c>
       <c r="AM83">
         <v>126.74</v>
@@ -7704,10 +7750,10 @@
         <v>13.68</v>
       </c>
       <c r="AR83" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU83" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW83">
         <v>2.6</v>
@@ -7728,45 +7774,45 @@
         <v>6.64</v>
       </c>
     </row>
-    <row r="84" spans="1:121">
+    <row r="84" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>4004897</v>
       </c>
       <c r="C84" t="s">
-        <v>368</v>
+        <v>563</v>
       </c>
       <c r="G84" t="s">
-        <v>395</v>
+        <v>564</v>
       </c>
       <c r="K84" t="s">
-        <v>412</v>
+        <v>440</v>
       </c>
       <c r="P84">
         <v>2646</v>
       </c>
       <c r="S84" t="s">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="T84" t="s">
-        <v>588</v>
+        <v>565</v>
       </c>
       <c r="AM84">
-        <v>131.48</v>
+        <v>131.47999999999999</v>
       </c>
       <c r="AN84">
         <v>14.15</v>
       </c>
       <c r="AR84" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU84" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW84">
         <v>1.3</v>
       </c>
       <c r="AX84">
-        <v>5.11</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="BB84">
         <v>106</v>
@@ -7781,18 +7827,18 @@
         <v>7.08</v>
       </c>
     </row>
-    <row r="85" spans="1:121">
+    <row r="85" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>4049177</v>
       </c>
       <c r="C85" t="s">
-        <v>368</v>
+        <v>563</v>
       </c>
       <c r="G85" t="s">
-        <v>395</v>
+        <v>564</v>
       </c>
       <c r="K85" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="P85">
         <v>5017</v>
@@ -7801,10 +7847,10 @@
         <v>761</v>
       </c>
       <c r="S85" t="s">
-        <v>496</v>
+        <v>566</v>
       </c>
       <c r="T85" t="s">
-        <v>589</v>
+        <v>567</v>
       </c>
       <c r="AM85">
         <v>127.68</v>
@@ -7813,13 +7859,13 @@
         <v>14.26</v>
       </c>
       <c r="AR85" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU85" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW85">
-        <v>2.07</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="AX85">
         <v>5.78</v>
@@ -7837,18 +7883,18 @@
         <v>6.46</v>
       </c>
     </row>
-    <row r="86" spans="1:121">
+    <row r="86" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>4068766</v>
       </c>
       <c r="C86" t="s">
-        <v>369</v>
+        <v>568</v>
       </c>
       <c r="G86" t="s">
-        <v>396</v>
+        <v>569</v>
       </c>
       <c r="K86" t="s">
-        <v>415</v>
+        <v>570</v>
       </c>
       <c r="P86">
         <v>900</v>
@@ -7857,10 +7903,10 @@
         <v>900</v>
       </c>
       <c r="S86" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="T86" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
       <c r="AM86">
         <v>121.75</v>
@@ -7869,10 +7915,10 @@
         <v>13.85</v>
       </c>
       <c r="AR86" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU86" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW86">
         <v>1.97</v>
@@ -7893,18 +7939,18 @@
         <v>5.09</v>
       </c>
     </row>
-    <row r="87" spans="1:121">
+    <row r="87" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>3625988</v>
       </c>
       <c r="C87" t="s">
-        <v>370</v>
+        <v>572</v>
       </c>
       <c r="G87" t="s">
-        <v>397</v>
+        <v>573</v>
       </c>
       <c r="K87" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="P87">
         <v>14933</v>
@@ -7913,10 +7959,10 @@
         <v>336</v>
       </c>
       <c r="S87" t="s">
-        <v>498</v>
+        <v>574</v>
       </c>
       <c r="T87" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="AM87">
         <v>127.16</v>
@@ -7925,13 +7971,13 @@
         <v>14.24</v>
       </c>
       <c r="AR87" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU87" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW87">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="AX87">
         <v>5.47</v>
@@ -7949,18 +7995,18 @@
         <v>5.91</v>
       </c>
     </row>
-    <row r="88" spans="1:121">
+    <row r="88" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>3625983</v>
       </c>
       <c r="C88" t="s">
-        <v>370</v>
+        <v>572</v>
       </c>
       <c r="G88" t="s">
-        <v>397</v>
+        <v>573</v>
       </c>
       <c r="K88" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="P88">
         <v>13595</v>
@@ -7969,10 +8015,10 @@
         <v>4435</v>
       </c>
       <c r="S88" t="s">
-        <v>499</v>
+        <v>576</v>
       </c>
       <c r="T88" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="AM88">
         <v>145.81</v>
@@ -7981,16 +8027,16 @@
         <v>15.62</v>
       </c>
       <c r="AR88" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU88" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW88">
         <v>3.81</v>
       </c>
       <c r="AX88">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="BB88">
         <v>110</v>
@@ -8005,18 +8051,18 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="89" spans="1:121">
+    <row r="89" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>3416743</v>
       </c>
       <c r="C89" t="s">
-        <v>370</v>
+        <v>572</v>
       </c>
       <c r="G89" t="s">
-        <v>397</v>
+        <v>573</v>
       </c>
       <c r="K89" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="P89">
         <v>5682</v>
@@ -8025,10 +8071,10 @@
         <v>288</v>
       </c>
       <c r="S89" t="s">
-        <v>500</v>
+        <v>578</v>
       </c>
       <c r="T89" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="AM89">
         <v>122.68</v>
@@ -8037,10 +8083,10 @@
         <v>14.37</v>
       </c>
       <c r="AR89" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU89" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW89">
         <v>1.94</v>
@@ -8061,27 +8107,27 @@
         <v>6.57</v>
       </c>
     </row>
-    <row r="90" spans="1:121">
+    <row r="90" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>3416748</v>
       </c>
       <c r="C90" t="s">
-        <v>370</v>
+        <v>572</v>
       </c>
       <c r="G90" t="s">
-        <v>397</v>
+        <v>573</v>
       </c>
       <c r="K90" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="P90">
         <v>8376</v>
       </c>
       <c r="S90" t="s">
-        <v>501</v>
+        <v>580</v>
       </c>
       <c r="T90" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="AM90">
         <v>134.24</v>
@@ -8090,10 +8136,10 @@
         <v>15.21</v>
       </c>
       <c r="AR90" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU90" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW90">
         <v>3.2</v>
@@ -8114,18 +8160,18 @@
         <v>4.51</v>
       </c>
     </row>
-    <row r="91" spans="1:121">
+    <row r="91" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>3457502</v>
       </c>
       <c r="C91" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="G91" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="K91" t="s">
-        <v>402</v>
+        <v>361</v>
       </c>
       <c r="P91">
         <v>1365</v>
@@ -8134,10 +8180,10 @@
         <v>1365</v>
       </c>
       <c r="S91" t="s">
-        <v>502</v>
+        <v>582</v>
       </c>
       <c r="T91" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="AM91">
         <v>122.19</v>
@@ -8146,10 +8192,10 @@
         <v>13.85</v>
       </c>
       <c r="AR91" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU91" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW91">
         <v>1.92</v>
@@ -8170,21 +8216,21 @@
         <v>6.19</v>
       </c>
     </row>
-    <row r="92" spans="1:121">
+    <row r="92" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>3289513</v>
       </c>
       <c r="C92" t="s">
-        <v>371</v>
+        <v>583</v>
       </c>
       <c r="G92" t="s">
-        <v>398</v>
+        <v>584</v>
       </c>
       <c r="K92" t="s">
-        <v>401</v>
+        <v>356</v>
       </c>
       <c r="S92" t="s">
-        <v>503</v>
+        <v>585</v>
       </c>
       <c r="AM92">
         <v>101.55</v>
@@ -8193,10 +8239,10 @@
         <v>13.43</v>
       </c>
       <c r="AR92" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU92" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW92">
         <v>1.48</v>
@@ -8211,18 +8257,18 @@
         <v>7.93</v>
       </c>
     </row>
-    <row r="93" spans="1:121">
+    <row r="93" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>3199217</v>
       </c>
       <c r="C93" t="s">
-        <v>365</v>
+        <v>541</v>
       </c>
       <c r="G93" t="s">
-        <v>392</v>
+        <v>542</v>
       </c>
       <c r="K93" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P93">
         <v>413</v>
@@ -8231,10 +8277,10 @@
         <v>413</v>
       </c>
       <c r="S93" t="s">
-        <v>504</v>
+        <v>586</v>
       </c>
       <c r="T93" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="AM93">
         <v>137.68</v>
@@ -8243,10 +8289,10 @@
         <v>14.36</v>
       </c>
       <c r="AR93" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU93" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW93">
         <v>2.08</v>
@@ -8267,18 +8313,18 @@
         <v>6.73</v>
       </c>
     </row>
-    <row r="94" spans="1:121">
+    <row r="94" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>4175218</v>
       </c>
       <c r="C94" t="s">
-        <v>365</v>
+        <v>541</v>
       </c>
       <c r="G94" t="s">
-        <v>392</v>
+        <v>542</v>
       </c>
       <c r="K94" t="s">
-        <v>412</v>
+        <v>440</v>
       </c>
       <c r="P94">
         <v>28572</v>
@@ -8287,10 +8333,10 @@
         <v>269</v>
       </c>
       <c r="S94" t="s">
-        <v>505</v>
+        <v>588</v>
       </c>
       <c r="T94" t="s">
-        <v>417</v>
+        <v>352</v>
       </c>
       <c r="AM94">
         <v>126.04</v>
@@ -8299,16 +8345,16 @@
         <v>13.83</v>
       </c>
       <c r="AR94" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU94" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW94">
         <v>1.21</v>
       </c>
       <c r="AX94">
-        <v>5.02</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="BB94">
         <v>107</v>
@@ -8323,18 +8369,18 @@
         <v>7.16</v>
       </c>
     </row>
-    <row r="95" spans="1:121">
+    <row r="95" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>3199229</v>
       </c>
       <c r="C95" t="s">
-        <v>372</v>
+        <v>589</v>
       </c>
       <c r="G95" t="s">
-        <v>399</v>
+        <v>590</v>
       </c>
       <c r="K95" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P95">
         <v>150</v>
@@ -8343,10 +8389,10 @@
         <v>150</v>
       </c>
       <c r="S95" t="s">
-        <v>506</v>
+        <v>591</v>
       </c>
       <c r="T95" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="AM95">
         <v>133.26</v>
@@ -8355,10 +8401,10 @@
         <v>14.02</v>
       </c>
       <c r="AR95" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU95" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW95">
         <v>1.49</v>
@@ -8379,18 +8425,18 @@
         <v>7.57</v>
       </c>
     </row>
-    <row r="96" spans="1:121">
+    <row r="96" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>3199231</v>
       </c>
       <c r="C96" t="s">
-        <v>372</v>
+        <v>589</v>
       </c>
       <c r="G96" t="s">
-        <v>399</v>
+        <v>590</v>
       </c>
       <c r="K96" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P96">
         <v>578</v>
@@ -8399,28 +8445,28 @@
         <v>578</v>
       </c>
       <c r="S96" t="s">
-        <v>507</v>
+        <v>593</v>
       </c>
       <c r="T96" t="s">
-        <v>558</v>
+        <v>487</v>
       </c>
       <c r="AM96">
-        <v>141.67</v>
+        <v>141.66999999999999</v>
       </c>
       <c r="AN96">
         <v>14.56</v>
       </c>
       <c r="AR96" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU96" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW96">
         <v>2.25</v>
       </c>
       <c r="AX96">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="BB96">
         <v>101</v>
@@ -8435,18 +8481,18 @@
         <v>6.36</v>
       </c>
     </row>
-    <row r="97" spans="1:121">
+    <row r="97" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>3640619</v>
       </c>
       <c r="C97" t="s">
-        <v>372</v>
+        <v>589</v>
       </c>
       <c r="G97" t="s">
-        <v>399</v>
+        <v>590</v>
       </c>
       <c r="K97" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P97">
         <v>14277</v>
@@ -8455,10 +8501,10 @@
         <v>1283</v>
       </c>
       <c r="S97" t="s">
-        <v>508</v>
+        <v>594</v>
       </c>
       <c r="T97" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="AM97">
         <v>152.15</v>
@@ -8467,10 +8513,10 @@
         <v>15.3</v>
       </c>
       <c r="AR97" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU97" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW97">
         <v>3.12</v>
@@ -8491,18 +8537,18 @@
         <v>4.72</v>
       </c>
     </row>
-    <row r="98" spans="1:121">
+    <row r="98" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>3640621</v>
       </c>
       <c r="C98" t="s">
-        <v>372</v>
+        <v>589</v>
       </c>
       <c r="G98" t="s">
-        <v>399</v>
+        <v>590</v>
       </c>
       <c r="K98" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P98">
         <v>13693</v>
@@ -8511,28 +8557,28 @@
         <v>698</v>
       </c>
       <c r="S98" t="s">
-        <v>509</v>
+        <v>596</v>
       </c>
       <c r="T98" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AM98">
-        <v>143.36</v>
+        <v>143.36000000000001</v>
       </c>
       <c r="AN98">
         <v>14.75</v>
       </c>
       <c r="AR98" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU98" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW98">
         <v>2.61</v>
       </c>
       <c r="AX98">
-        <v>4.36</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="BB98">
         <v>102</v>
@@ -8547,18 +8593,18 @@
         <v>5.78</v>
       </c>
     </row>
-    <row r="99" spans="1:121">
+    <row r="99" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>3818292</v>
       </c>
       <c r="C99" t="s">
-        <v>372</v>
+        <v>589</v>
       </c>
       <c r="G99" t="s">
-        <v>399</v>
+        <v>590</v>
       </c>
       <c r="K99" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P99">
         <v>18387</v>
@@ -8567,25 +8613,25 @@
         <v>530</v>
       </c>
       <c r="S99" t="s">
-        <v>425</v>
+        <v>387</v>
       </c>
       <c r="T99" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="AM99">
-        <v>139.98</v>
+        <v>139.97999999999999</v>
       </c>
       <c r="AN99">
         <v>14.53</v>
       </c>
       <c r="AR99" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU99" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW99">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="AX99">
         <v>4.63</v>
@@ -8603,18 +8649,18 @@
         <v>6.13</v>
       </c>
     </row>
-    <row r="100" spans="1:121">
+    <row r="100" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>3640614</v>
       </c>
       <c r="C100" t="s">
-        <v>365</v>
+        <v>541</v>
       </c>
       <c r="G100" t="s">
-        <v>392</v>
+        <v>542</v>
       </c>
       <c r="K100" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P100">
         <v>12542</v>
@@ -8623,7 +8669,7 @@
         <v>2000</v>
       </c>
       <c r="S100" t="s">
-        <v>510</v>
+        <v>599</v>
       </c>
       <c r="T100" t="s">
         <v>600</v>
@@ -8635,16 +8681,16 @@
         <v>16</v>
       </c>
       <c r="AR100" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU100" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW100">
         <v>3.53</v>
       </c>
       <c r="AX100">
-        <v>2.53</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="BB100">
         <v>102</v>
@@ -8659,18 +8705,18 @@
         <v>3.87</v>
       </c>
     </row>
-    <row r="101" spans="1:121">
+    <row r="101" spans="1:121" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>3818285</v>
       </c>
       <c r="C101" t="s">
-        <v>365</v>
+        <v>541</v>
       </c>
       <c r="G101" t="s">
-        <v>392</v>
+        <v>542</v>
       </c>
       <c r="K101" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="P101">
         <v>17848</v>
@@ -8679,10 +8725,10 @@
         <v>916</v>
       </c>
       <c r="S101" t="s">
-        <v>511</v>
+        <v>601</v>
       </c>
       <c r="T101" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AM101">
         <v>143.24</v>
@@ -8691,10 +8737,10 @@
         <v>14.76</v>
       </c>
       <c r="AR101" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AU101" t="s">
-        <v>602</v>
+        <v>351</v>
       </c>
       <c r="AW101">
         <v>2.83</v>
@@ -8718,4 +8764,372 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Q10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G1" t="s">
+        <v>381</v>
+      </c>
+      <c r="H1" t="s">
+        <v>386</v>
+      </c>
+      <c r="I1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J1" t="s">
+        <v>396</v>
+      </c>
+      <c r="K1" t="s">
+        <v>401</v>
+      </c>
+      <c r="L1" t="s">
+        <v>408</v>
+      </c>
+      <c r="M1" t="s">
+        <v>421</v>
+      </c>
+      <c r="N1" t="s">
+        <v>440</v>
+      </c>
+      <c r="O1" t="s">
+        <v>460</v>
+      </c>
+      <c r="P1" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>603</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>45</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>604</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>605</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>606</v>
+      </c>
+      <c r="B6">
+        <v>388</v>
+      </c>
+      <c r="C6">
+        <v>15450</v>
+      </c>
+      <c r="D6">
+        <v>4030</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>18546</v>
+      </c>
+      <c r="G6">
+        <v>116440</v>
+      </c>
+      <c r="H6">
+        <v>15623</v>
+      </c>
+      <c r="I6">
+        <v>11255</v>
+      </c>
+      <c r="J6">
+        <v>14552</v>
+      </c>
+      <c r="K6">
+        <v>2438</v>
+      </c>
+      <c r="L6">
+        <v>1050</v>
+      </c>
+      <c r="M6">
+        <v>13414</v>
+      </c>
+      <c r="N6">
+        <v>11314</v>
+      </c>
+      <c r="O6">
+        <v>1152</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>607</v>
+      </c>
+      <c r="B7">
+        <v>388</v>
+      </c>
+      <c r="C7">
+        <v>5150</v>
+      </c>
+      <c r="D7">
+        <v>4030</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>9273</v>
+      </c>
+      <c r="G7">
+        <v>14555</v>
+      </c>
+      <c r="H7">
+        <v>3906</v>
+      </c>
+      <c r="I7">
+        <v>3752</v>
+      </c>
+      <c r="J7">
+        <v>14552</v>
+      </c>
+      <c r="K7">
+        <v>2438</v>
+      </c>
+      <c r="L7">
+        <v>1050</v>
+      </c>
+      <c r="M7">
+        <v>13414</v>
+      </c>
+      <c r="N7">
+        <v>5657</v>
+      </c>
+      <c r="O7">
+        <v>1152</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>609</v>
+      </c>
+      <c r="B9" s="2">
+        <v>44598.810293242583</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>610</v>
+      </c>
+      <c r="B10" t="s">
+        <v>611</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>